--- a/subsetting_results/subsetting-DINSQL-snails-Native-gpt41.xlsx
+++ b/subsetting_results/subsetting-DINSQL-snails-Native-gpt41.xlsx
@@ -1015,7 +1015,7 @@
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>{'tluSpecies.Species_Code', 'tblFieldDataMinnowTrapSurveys.Count\n\nIf you want to filter for only "minnow" species:  \ntblFieldDataMinnowTrapSurveys', 'tblFieldDataMinnowTrapSurveys.Species_Code', 'tluSpecies.Common_Name'}</t>
+          <t>{'tluSpecies.Species_Code', 'tblFieldDataMinnowTrapSurveys.Species_Code', 'tblFieldDataMinnowTrapSurveys.Count\n\nIf you want to filter for only "minnow" species:  \ntblFieldDataMinnowTrapSurveys', 'tluSpecies.Common_Name'}</t>
         </is>
       </c>
       <c r="U7" t="n">
@@ -1165,7 +1165,7 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>{'tblFieldDataMinnowTrapSurveys.Count', 'tblFieldDataMinnowTrapSurveys.Stage', 'tblFieldDataMinnowTrapSurveys.LocationID'}</t>
+          <t>{'tblFieldDataMinnowTrapSurveys.Stage', 'tblFieldDataMinnowTrapSurveys.Count', 'tblFieldDataMinnowTrapSurveys.LocationID'}</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
@@ -1175,7 +1175,7 @@
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>{'tluSpecies.Species_Code', 'tblFieldDataMinnowTrapSurveys.Species_Code', "'Minnow'\n\n```\n\n**Summary Table:**\n- tblFieldDataMinnowTrapSurveys.Stage\n- tblFieldDataMinnowTrapSurveys", 'tluSpecies.Common_Name'}</t>
+          <t>{'tluSpecies.Species_Code', "'Minnow'\n\n```\n\n**Summary Table:**\n- tblFieldDataMinnowTrapSurveys.Stage\n- tblFieldDataMinnowTrapSurveys", 'tblFieldDataMinnowTrapSurveys.Species_Code', 'tluSpecies.Common_Name'}</t>
         </is>
       </c>
       <c r="U9" t="n">
@@ -1250,7 +1250,7 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>{'tblFieldDataWaterProperties.LocationID', 'tblFieldDataAmphibianCallCounts.LocationID', 'tblFieldDataWaterProperties.TempC'}</t>
+          <t>{'tblFieldDataWaterProperties.TempC', 'tblFieldDataAmphibianCallCounts.LocationID', 'tblFieldDataWaterProperties.LocationID'}</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
@@ -1325,17 +1325,17 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>{'tblFieldDataWaterProperties.Salinity', 'tblFieldDataWaterProperties.Conductivity', 'tblFieldDataWaterProperties.TempC', 'tblFieldDataWaterProperties.pH'}</t>
+          <t>{'tblFieldDataWaterProperties.pH', 'tblFieldDataWaterProperties.Salinity', 'tblFieldDataWaterProperties.TempC', 'tblFieldDataWaterProperties.Conductivity'}</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>{'tblFieldDataWaterProperties.RecordID', 'tblFieldDataTurtleTrapSurveys.RecordID'}</t>
+          <t>{'tblFieldDataTurtleTrapSurveys.RecordID', 'tblFieldDataWaterProperties.RecordID'}</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>{'tblFieldDataTurtleMeasurements.EventID', 'tblFieldDataWaterProperties.LocationID', 'tblFieldDataTurtleMeasurements.LocationID', 'tblFieldDataWaterProperties.EventID'}</t>
+          <t>{'tblFieldDataWaterProperties.EventID', 'tblFieldDataTurtleMeasurements.LocationID', 'tblFieldDataTurtleMeasurements.EventID', 'tblFieldDataWaterProperties.LocationID'}</t>
         </is>
       </c>
       <c r="U11" t="n">
@@ -1390,7 +1390,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>{'tblFieldDataTurtleTrapSurveys', 'tblFieldDataTurtleMeasurements'}</t>
+          <t>{'tblFieldDataTurtleMeasurements', 'tblFieldDataTurtleTrapSurveys'}</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -1405,17 +1405,17 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>{'tblFieldDataTurtleTrapSurveys.Sex', 'tblFieldDataTurtleMeasurements.Sex', 'tblFieldDataTurtleMeasurements.Comments', 'tblFieldDataTurtleMeasurements.RecordID'}</t>
+          <t>{'tblFieldDataTurtleTrapSurveys.Sex', 'tblFieldDataTurtleMeasurements.Comments', 'tblFieldDataTurtleMeasurements.RecordID', 'tblFieldDataTurtleMeasurements.Sex'}</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>{'tblFieldDataTurtleTrapSurveys.Comments', 'tblFieldDataTurtleTrapSurveys.RecordID'}</t>
+          <t>{'tblFieldDataTurtleTrapSurveys.RecordID', 'tblFieldDataTurtleTrapSurveys.Comments'}</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>{'tblFieldDataTurtleMeasurements.EventID', 'tblFieldDataTurtleTrapSurveys.EventID', 'tblFieldDataTurtleMeasurements.Notch_Code', 'tblFieldDataTurtleTrapSurveys.Notch_Code'}</t>
+          <t>{'tblFieldDataTurtleTrapSurveys.EventID', 'tblFieldDataTurtleTrapSurveys.Notch_Code', 'tblFieldDataTurtleMeasurements.Notch_Code', 'tblFieldDataTurtleMeasurements.EventID'}</t>
         </is>
       </c>
       <c r="U12" t="n">
@@ -1495,7 +1495,7 @@
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>{'the schema links are:\n**tblFieldDataTurtleMeasurements.Weight', 'you could also add:\n- tblFieldDataTurtleMeasurements.Notch_Code\n- tblFieldDataTurtleMeasurements', 'tblFieldDataTurtleMeasurements.Sex**', 'tblFieldDataTurtleMeasurements.Sex\n```\n\nIf you want to include the turtle identifier (e'}</t>
+          <t>{'tblFieldDataTurtleMeasurements.Sex\n```\n\nIf you want to include the turtle identifier (e', 'the schema links are:\n**tblFieldDataTurtleMeasurements.Weight', 'tblFieldDataTurtleMeasurements.Sex**', 'you could also add:\n- tblFieldDataTurtleMeasurements.Notch_Code\n- tblFieldDataTurtleMeasurements'}</t>
         </is>
       </c>
       <c r="U13" t="n">
@@ -1522,22 +1522,22 @@
         <v>5714</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1550,7 +1550,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tblFieldDataSnakeDataCollection'}</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -1560,7 +1560,7 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>{'tblFieldDataSnakeDataCollection'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -1570,7 +1570,7 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tblFieldDataSnakeDataCollection.SVL'}</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
@@ -1645,7 +1645,7 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>{'tblFieldDataSnakeDataCollection.SVL', 'tblFieldDataSnakeDataCollection.Weight', 'tblFieldDataSnakeDataCollection.Sex'}</t>
+          <t>{'tblFieldDataSnakeDataCollection.Sex', 'tblFieldDataSnakeDataCollection.SVL', 'tblFieldDataSnakeDataCollection.Weight'}</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>{'tblFieldDataSnakeDataCollection.Species_Code', 'tblFieldDataSnakeDataCollection.TLength', 'tblFieldDataSnakeDataCollection.Weight'}</t>
+          <t>{'tblFieldDataSnakeDataCollection.TLength', 'tblFieldDataSnakeDataCollection.Species_Code', 'tblFieldDataSnakeDataCollection.Weight'}</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>{'Observer_LU', 'tlinkObservers', 'tblFieldDataTurtleMeasurements'}</t>
+          <t>{'tblFieldDataTurtleMeasurements', 'tlinkObservers', 'Observer_LU'}</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>{'tlinkObservers.EventID', 'tlinkObservers.ObsInits', 'tblFieldDataTurtleMeasurements.RecordID', 'tblFieldDataTurtleMeasurements.EventID', 'Observer_LU.Agency/Title', 'Observer_LU.ObsInits'}</t>
+          <t>{'tlinkObservers.EventID', 'tlinkObservers.ObsInits', 'Observer_LU.ObsInits', 'tblFieldDataTurtleMeasurements.RecordID', 'tblFieldDataTurtleMeasurements.EventID', 'Observer_LU.Agency/Title'}</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
@@ -1870,7 +1870,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>{'Observer_LU', 'tlinkObservers', 'tblEvents'}</t>
+          <t>{'tblEvents', 'tlinkObservers', 'Observer_LU'}</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -1885,12 +1885,12 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>{'Observer_LU.ObsInits', 'tlinkObservers.EventID', 'Observer_LU.LastName', 'tlinkObservers.ObsInits', 'tblEvents.EventID', 'tblEvents.Year', 'Observer_LU.FirstName'}</t>
+          <t>{'tlinkObservers.EventID', 'tlinkObservers.ObsInits', 'Observer_LU.ObsInits', 'Observer_LU.FirstName', 'Observer_LU.LastName', 'tblEvents.Year', 'tblEvents.EventID'}</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>{'tblEventDataHerps.ObsInits', 'tblEventDataHerps.EventID'}</t>
+          <t>{'tblEventDataHerps.EventID', 'tblEventDataHerps.ObsInits'}</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
@@ -1950,7 +1950,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>{'Observer_LU', 'tlinkObservers', 'tblFieldDataTurtleMeasurements'}</t>
+          <t>{'tblFieldDataTurtleMeasurements', 'tlinkObservers', 'Observer_LU'}</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -1965,7 +1965,7 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>{'Observer_LU.ObsInits', 'tlinkObservers.EventID', 'Observer_LU.LastName', 'tlinkObservers.ObsInits', 'tblFieldDataTurtleMeasurements.EventID', 'Observer_LU.FirstName'}</t>
+          <t>{'tlinkObservers.EventID', 'tlinkObservers.ObsInits', 'Observer_LU.ObsInits', 'tblFieldDataTurtleMeasurements.EventID', 'Observer_LU.FirstName', 'Observer_LU.LastName'}</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
@@ -2125,7 +2125,7 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>{'tblLocationsPoints.LocationID', 'tblLocationsPoints.UTMY', 'tblLocationsPoints.UTMX', 'tblFieldDataTimeConstrainedSearches.LocationID'}</t>
+          <t>{'tblLocationsPoints.UTMY', 'tblFieldDataTimeConstrainedSearches.LocationID', 'tblLocationsPoints.LocationID', 'tblLocationsPoints.UTMX'}</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
@@ -2285,7 +2285,7 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>{'tblAbundance_LU.AbundanceID', 'tblAbundance_LU.AbundanceText', 'tblAbundance_LU.Abundance'}</t>
+          <t>{'tblAbundance_LU.AbundanceText', 'tblAbundance_LU.Abundance', 'tblAbundance_LU.AbundanceID'}</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
@@ -2445,7 +2445,7 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>{'tblFieldDataCoverBoard.Board_#', 'tblFieldDataCoverBoard.LocationID', 'tblLocations.LocationID', 'tblLocations.SiteID', 'tblFieldDataCoverBoard.Type'}</t>
+          <t>{'tblFieldDataCoverBoard.LocationID', 'tblLocations.SiteID', 'tblFieldDataCoverBoard.Board_#', 'tblFieldDataCoverBoard.Type', 'tblLocations.LocationID'}</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
@@ -2510,7 +2510,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>{'tblFieldDataCoverBoard', 'tblEventDataHerps'}</t>
+          <t>{'tblEventDataHerps', 'tblFieldDataCoverBoard'}</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -2525,12 +2525,12 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>{'tblFieldDataCoverBoard.LocationID', 'tblEventDataHerps.EventID', 'tblFieldDataCoverBoard.EventID', 'tblFieldDataCoverBoard.Type'}</t>
+          <t>{'tblEventDataHerps.EventID', 'tblFieldDataCoverBoard.EventID', 'tblFieldDataCoverBoard.LocationID', 'tblFieldDataCoverBoard.Type'}</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>{'tblEventDataHerps.AirTemp', 'tblLocations.LocationID', 'tblLocations.SiteID', 'tblEventDataHerps.Weather'}</t>
+          <t>{'tblEventDataHerps.AirTemp', 'tblLocations.LocationID', 'tblEventDataHerps.Weather', 'tblLocations.SiteID'}</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
@@ -2605,7 +2605,7 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>{'tblFieldDataSnakeDataCollection.Behavior', 'tblFieldDataSnakeDataCollection.CaptureMethod'}</t>
+          <t>{'tblFieldDataSnakeDataCollection.CaptureMethod', 'tblFieldDataSnakeDataCollection.Behavior'}</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
@@ -2615,7 +2615,7 @@
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>{'tluBehavior.Behavior', 'tblFieldDataSnakeDataCollection.RecordID', 'tluBehavior.Description'}</t>
+          <t>{'tblFieldDataSnakeDataCollection.RecordID', 'tluBehavior.Description', 'tluBehavior.Behavior'}</t>
         </is>
       </c>
       <c r="U27" t="n">
@@ -2685,7 +2685,7 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>{'tblFieldDataSnakeDataCollection.Behavior', 'tblFieldDataSnakeDataCollection.CaptureMethod', 'tblFieldDataSnakeDataCollection.Notes'}</t>
+          <t>{'tblFieldDataSnakeDataCollection.Notes', 'tblFieldDataSnakeDataCollection.CaptureMethod', 'tblFieldDataSnakeDataCollection.Behavior'}</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
@@ -2750,7 +2750,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>{'tblLocationsPoints', 'tblLocations', 'tblFieldDataCoverBoard'}</t>
+          <t>{'tblLocationsPoints', 'tblFieldDataCoverBoard', 'tblLocations'}</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -2765,7 +2765,7 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>{'tblFieldDataCoverBoard.Board_#', 'tblFieldDataCoverBoard.LocationID', 'tblLocations.LocationID', 'tblLocations.SiteID', 'tblLocationsPoints.PointID', 'tblLocationsPoints.LocationID', 'tblFieldDataCoverBoard.SnakeID', 'tblLocationsPoints.UTMX', 'tblLocationsPoints.UTMY'}</t>
+          <t>{'tblFieldDataCoverBoard.LocationID', 'tblLocations.SiteID', 'tblLocationsPoints.UTMY', 'tblFieldDataCoverBoard.Board_#', 'tblLocationsPoints.UTMX', 'tblLocationsPoints.LocationID', 'tblLocationsPoints.PointID', 'tblFieldDataCoverBoard.SnakeID', 'tblLocations.LocationID'}</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>{'tlinkObservers', 'tblEvents'}</t>
+          <t>{'tblEvents', 'tlinkObservers'}</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
@@ -2850,12 +2850,12 @@
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>{'tblEvents.EventID', 'tlinkObservers.EventID', 'tlinkObservers.ObsInits'}</t>
+          <t>{'tlinkObservers.EventID', 'tblEvents.EventID', 'tlinkObservers.ObsInits'}</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>{'tblEventDataHerps.ObsInits', 'tblEventDataHerps.EventID', 'Observer_LU.ObsInits\n\n```'}</t>
+          <t>{'tblEventDataHerps.EventID', 'Observer_LU.ObsInits\n\n```', 'tblEventDataHerps.ObsInits'}</t>
         </is>
       </c>
       <c r="U30" t="n">
@@ -2925,7 +2925,7 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>{'tblEventDataHerps.AirTemp', 'tblEventDataHerps.WaterTemp', 'tblEventDataHerps.Weather'}</t>
+          <t>{'tblEventDataHerps.AirTemp', 'tblEventDataHerps.Weather', 'tblEventDataHerps.WaterTemp'}</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
@@ -2995,12 +2995,12 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>{'Observer_LU', 'tlinkObservers'}</t>
+          <t>{'tlinkObservers', 'Observer_LU'}</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>{'AVG(tblEventDataHerps', 'GROUP BY tblEventDataHerps'}</t>
+          <t>{'GROUP BY tblEventDataHerps', 'AVG(tblEventDataHerps'}</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
@@ -3010,12 +3010,12 @@
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>{'Observer_LU.ObsInits', 'tblEventDataHerps.EventID', 'tlinkObservers.EventID', 'tlinkObservers.ObsInits'}</t>
+          <t>{'tblEventDataHerps.EventID', 'tlinkObservers.EventID', 'Observer_LU.ObsInits', 'tlinkObservers.ObsInits'}</t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>{'GROUP BY tblEventDataHerps.ObsInits', 'AVG(tblEventDataHerps.AirTemp)'}</t>
+          <t>{'AVG(tblEventDataHerps.AirTemp)', 'GROUP BY tblEventDataHerps.ObsInits'}</t>
         </is>
       </c>
       <c r="U32" t="n">
@@ -3095,7 +3095,7 @@
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>{'tluWeather.Description', 'tluWeather.Weather'}</t>
+          <t>{'tluWeather.Weather', 'tluWeather.Description'}</t>
         </is>
       </c>
       <c r="U33" t="n">
@@ -3165,7 +3165,7 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>{'tluProject.Description', 'tluProject.Project'}</t>
+          <t>{'tluProject.Project', 'tluProject.Description'}</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
@@ -3325,7 +3325,7 @@
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>{'tluEvidenceCode.Text', 'tluEvidenceCode.Evidence_Code'}</t>
+          <t>{'tluEvidenceCode.Evidence_Code', 'tluEvidenceCode.Text'}</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
@@ -3405,7 +3405,7 @@
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>{'tluMicroHabitat.Habitat', 'tluMicroHabitat.Description'}</t>
+          <t>{'tluMicroHabitat.Description', 'tluMicroHabitat.Habitat'}</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
@@ -3645,7 +3645,7 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>{'tblFieldDataTurtleMeasurements.Plastron_Length', 'tblFieldDataTurtleMeasurements.Plastron_Width', 'tblFieldDataTurtleMeasurements.Weight', 'tblFieldDataTurtleMeasurements.Carapace_Length', 'tblFieldDataTurtleMeasurements.Carapace_Width', 'tblFieldDataTurtleMeasurements.Sex'}</t>
+          <t>{'tblFieldDataTurtleMeasurements.Plastron_Length', 'tblFieldDataTurtleMeasurements.Sex', 'tblFieldDataTurtleMeasurements.Weight', 'tblFieldDataTurtleMeasurements.Carapace_Length', 'tblFieldDataTurtleMeasurements.Plastron_Width', 'tblFieldDataTurtleMeasurements.Carapace_Width'}</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
@@ -3790,7 +3790,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies', 'tbl_Nests'}</t>
+          <t>{'tbl_Nests', 'tlu_PlantSpecies'}</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
@@ -3805,7 +3805,7 @@
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>{'tbl_Nests.SpCode', 'tlu_PlantSpecies.subgenus', 'tlu_PlantSpecies.SpeciesCode', 'tlu_PlantSpecies.genus', 'tlu_PlantSpecies.CommonName'}</t>
+          <t>{'tlu_PlantSpecies.CommonName', 'tbl_Nests.SpCode', 'tlu_PlantSpecies.genus', 'tlu_PlantSpecies.SpeciesCode', 'tlu_PlantSpecies.subgenus'}</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
@@ -3870,7 +3870,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies', 'tbl_Nests'}</t>
+          <t>{'tbl_Nests', 'tlu_PlantSpecies'}</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
@@ -3885,7 +3885,7 @@
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies.CommonName', 'tbl_Nests.SpCode', 'tlu_PlantSpecies.SpeciesCode'}</t>
+          <t>{'tbl_Nests.SpCode', 'tlu_PlantSpecies.SpeciesCode', 'tlu_PlantSpecies.CommonName'}</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
@@ -3922,35 +3922,35 @@
         <v>6316</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>0.7499999999999999</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Nests', 'tlu_PlantSpecies'}</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
@@ -3960,12 +3960,12 @@
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>{'5\n\n**If you want to be more precise and include the count:**\ntlu_PlantSpecies', 'tlu_PlantSpecies', 'tbl_Nests'}</t>
+          <t>{'5\n\n**If you want to be more precise and include the count:**\ntlu_PlantSpecies'}</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tlu_PlantSpecies.genus', 'tbl_Nests.SpCode', 'tlu_PlantSpecies.SpeciesCode'}</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
@@ -3975,7 +3975,7 @@
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>{'tbl_Nests.SpCode', 'tlu_PlantSpecies.genus', 'tbl_Nests.Nest_ID', '5\n\n**If you want to be more precise and include the count:**\ntlu_PlantSpecies.genus', 'tlu_PlantSpecies.SpeciesCode'}</t>
+          <t>{'5\n\n**If you want to be more precise and include the count:**\ntlu_PlantSpecies.genus', 'tbl_Nests.Nest_ID'}</t>
         </is>
       </c>
       <c r="U44" t="n">
@@ -4135,7 +4135,7 @@
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>{'tbl_Deadwood.Decay', 'tlu_DecayStage.DecayStage_ID', 'tbl_Events.Event_ID'}</t>
+          <t>{'tlu_DecayStage.DecayStage_ID', 'tbl_Events.Event_ID', 'tbl_Deadwood.Decay'}</t>
         </is>
       </c>
       <c r="U46" t="n">
@@ -4215,7 +4215,7 @@
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>{'tbl_Deadwood.Decay', 'tbl_Deadwood.Data_ID', 'tbl_Events.Event_ID'}</t>
+          <t>{'tbl_Deadwood.Decay', 'tbl_Events.Event_ID', 'tbl_Deadwood.Data_ID'}</t>
         </is>
       </c>
       <c r="U47" t="n">
@@ -4270,7 +4270,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>{'tbl_Deadwood', 'tlu_DecayStage'}</t>
+          <t>{'tlu_DecayStage', 'tbl_Deadwood'}</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
@@ -4285,7 +4285,7 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>{'tbl_Deadwood.Decay', 'tbl_Deadwood.Event_ID', 'tlu_DecayStage.DecayStage_ID', 'tlu_DecayStage.DecayStage_Descr'}</t>
+          <t>{'tlu_DecayStage.DecayStage_ID', 'tlu_DecayStage.DecayStage_Descr', 'tbl_Deadwood.Event_ID', 'tbl_Deadwood.Decay'}</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
@@ -4365,7 +4365,7 @@
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>{'tbl_Deadwood.Event_ID', 'tbl_Nests.Event_ID', 'tbl_Events.Event_ID'}</t>
+          <t>{'tbl_Deadwood.Event_ID', 'tbl_Events.Event_ID', 'tbl_Nests.Event_ID'}</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
@@ -4405,32 +4405,32 @@
         <v>1</v>
       </c>
       <c r="G50" t="n">
-        <v>0.75</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="H50" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="I50" t="n">
         <v>1</v>
       </c>
       <c r="J50" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="K50" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
       <c r="M50" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="N50" t="n">
-        <v>0.8750000000000001</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>{'tbl_Locations', 'tbl_Events'}</t>
+          <t>{'tbl_Events', 'tbl_Nests', 'tbl_Locations'}</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
@@ -4440,12 +4440,12 @@
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>{'tbl_Nests'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>{'tbl_Events.Location_ID', 'tbl_Locations.X_Coord', 'tbl_Locations.Y_Coord', 'tbl_Locations.Location_ID', 'tbl_Locations.Plot_ID', 'tbl_Locations.Directions', 'tbl_Events.Event_ID'}</t>
+          <t>{'tbl_Locations.X_Coord', 'tbl_Events.Event_ID', 'tbl_Locations.Location_ID', 'tbl_Locations.Y_Coord', 'tbl_Events.Location_ID', 'tbl_Locations.Directions', 'tbl_Locations.Plot_ID', 'tbl_Nests.Event_ID'}</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
@@ -4455,7 +4455,7 @@
       </c>
       <c r="T50" t="inlineStr">
         <is>
-          <t>{'tbl_Nests.*', 'tbl_Nests.Event_ID'}</t>
+          <t>{'tbl_Nests.*'}</t>
         </is>
       </c>
       <c r="U50" t="n">
@@ -4510,7 +4510,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies', 'tbl_Overstory'}</t>
+          <t>{'tbl_Overstory', 'tlu_PlantSpecies'}</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
@@ -4525,7 +4525,7 @@
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>{'tbl_Overstory.DBH', 'tbl_Overstory.SpCode', 'tlu_PlantSpecies.SpeciesCode', 'tlu_PlantSpecies.genus'}</t>
+          <t>{'tbl_Overstory.DBH', 'tlu_PlantSpecies.genus', 'tbl_Overstory.SpCode', 'tlu_PlantSpecies.SpeciesCode'}</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
@@ -4590,7 +4590,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>{'tlu_Can_Pos', 'tbl_Overstory'}</t>
+          <t>{'tbl_Overstory', 'tlu_Can_Pos'}</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
@@ -4605,7 +4605,7 @@
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>{'tlu_Can_Pos.CanPos_Num', 'tbl_Overstory.CanPos', 'tlu_Can_Pos.CanPos_Name'}</t>
+          <t>{'tlu_Can_Pos.CanPos_Name', 'tbl_Overstory.CanPos', 'tlu_Can_Pos.CanPos_Num'}</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
@@ -4670,7 +4670,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>{'tlu_Tree_Cond', 'tlu_PlantSpecies', 'tbl_Overstory'}</t>
+          <t>{'tlu_Tree_Cond', 'tbl_Overstory', 'tlu_PlantSpecies'}</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
@@ -4685,7 +4685,7 @@
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>{'tbl_Overstory.TreeTag', 'tlu_PlantSpecies.SpeciesCode', 'tbl_Overstory.TreeCond', 'tlu_Tree_Cond.TreeCond_Num', 'tbl_Overstory.SpCode', 'tlu_Tree_Cond.TreeCond_Text', 'tlu_PlantSpecies.CommonName'}</t>
+          <t>{'tlu_PlantSpecies.CommonName', 'tlu_Tree_Cond.TreeCond_Num', 'tbl_Overstory.SpCode', 'tbl_Overstory.TreeCond', 'tbl_Overstory.TreeTag', 'tlu_PlantSpecies.SpeciesCode', 'tlu_Tree_Cond.TreeCond_Text'}</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
@@ -4695,7 +4695,7 @@
       </c>
       <c r="T53" t="inlineStr">
         <is>
-          <t>{'tbl_Tree_Tags.Tree_Tag_ID', 'tbl_Tree_Tags.Tag'}</t>
+          <t>{'tbl_Tree_Tags.Tag', 'tbl_Tree_Tags.Tree_Tag_ID'}</t>
         </is>
       </c>
       <c r="U53" t="n">
@@ -5070,7 +5070,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>{'tbl_Locations', 'tbl_Tree_Tags'}</t>
+          <t>{'tbl_Tree_Tags', 'tbl_Locations'}</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
@@ -5085,7 +5085,7 @@
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>{'tbl_Tree_Tags.Location_ID', 'tbl_Locations.Location_ID', 'tbl_Locations.Directions'}</t>
+          <t>{'tbl_Tree_Tags.Location_ID', 'tbl_Locations.Directions', 'tbl_Locations.Location_ID'}</t>
         </is>
       </c>
       <c r="S58" t="inlineStr">
@@ -5165,7 +5165,7 @@
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>{'tbl_Locations.Loc_Notes', 'tbl_Locations.Elevation', 'tbl_Locations.SiteDescription'}</t>
+          <t>{'tbl_Locations.SiteDescription', 'tbl_Locations.Elevation', 'tbl_Locations.Loc_Notes'}</t>
         </is>
       </c>
       <c r="S59" t="inlineStr">
@@ -5175,7 +5175,7 @@
       </c>
       <c r="T59" t="inlineStr">
         <is>
-          <t>{'column: tbl_Locations.Elevation  \n     And value: 4000\n\n3', 'the Schema_links are:**  \ntbl_Locations.SiteDescription', 'tbl_Locations.Loc_Notes\n\n2'}</t>
+          <t>{'tbl_Locations.Loc_Notes\n\n2', 'column: tbl_Locations.Elevation  \n     And value: 4000\n\n3', 'the Schema_links are:**  \ntbl_Locations.SiteDescription'}</t>
         </is>
       </c>
       <c r="U59" t="n">
@@ -5245,7 +5245,7 @@
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>{'tlu_Cover_Cls.CoverClass_Text', 'tbl_Nests.Cover', 'tlu_Cover_Cls.CoverClass_Num', 'tbl_Nests.Event_ID'}</t>
+          <t>{'tbl_Nests.Cover', 'tlu_Cover_Cls.CoverClass_Text', 'tlu_Cover_Cls.CoverClass_Num', 'tbl_Nests.Event_ID'}</t>
         </is>
       </c>
       <c r="S60" t="inlineStr">
@@ -5325,7 +5325,7 @@
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>{'tbl_WitnessTrees.Witness_stake', 'tbl_WitnessTrees.Witness_DBH', 'tbl_WitnessTrees.Witness_Azimuth'}</t>
+          <t>{'tbl_WitnessTrees.Witness_Azimuth', 'tbl_WitnessTrees.Witness_DBH', 'tbl_WitnessTrees.Witness_stake'}</t>
         </is>
       </c>
       <c r="S61" t="inlineStr">
@@ -5390,7 +5390,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies', 'tbl_WitnessTrees'}</t>
+          <t>{'tbl_WitnessTrees', 'tlu_PlantSpecies'}</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
@@ -5405,7 +5405,7 @@
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies.species', 'tlu_PlantSpecies.genus', 'tlu_PlantSpecies.SpeciesCode', 'tbl_WitnessTrees.Witness_SpCode'}</t>
+          <t>{'tlu_PlantSpecies.genus', 'tbl_WitnessTrees.Witness_SpCode', 'tlu_PlantSpecies.species', 'tlu_PlantSpecies.SpeciesCode'}</t>
         </is>
       </c>
       <c r="S62" t="inlineStr">
@@ -5470,7 +5470,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>{'tbl_Locations', 'tbl_Events', 'tlu_Roads_and_Trails'}</t>
+          <t>{'tbl_Events', 'tlu_Roads_and_Trails', 'tbl_Locations'}</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
@@ -5485,7 +5485,7 @@
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>{'tlu_Roads_and_Trails.ListedName', 'tlu_Roads_and_Trails.ValidName', 'tbl_Events.Location_ID', 'tbl_Locations.Location_ID', 'tbl_Locations.Trail', 'tbl_Events.Event_ID'}</t>
+          <t>{'tbl_Events.Event_ID', 'tbl_Locations.Location_ID', 'tlu_Roads_and_Trails.ListedName', 'tlu_Roads_and_Trails.ValidName', 'tbl_Locations.Trail', 'tbl_Events.Location_ID'}</t>
         </is>
       </c>
       <c r="S63" t="inlineStr">
@@ -5550,7 +5550,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>{'tbl_Locations', 'tlu_PlaceNames', 'tbl_Tree_Tags'}</t>
+          <t>{'tbl_Tree_Tags', 'tlu_PlaceNames', 'tbl_Locations'}</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
@@ -5565,7 +5565,7 @@
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>{'tlu_PlaceNames.County', 'tlu_PlaceNames.ID', 'tlu_PlaceNames.State', 'tbl_Locations.Location_ID', 'tbl_Tree_Tags.Location_ID', 'tbl_Locations.PlaceNameID'}</t>
+          <t>{'tlu_PlaceNames.ID', 'tlu_PlaceNames.County', 'tbl_Tree_Tags.Location_ID', 'tbl_Locations.Location_ID', 'tlu_PlaceNames.State', 'tbl_Locations.PlaceNameID'}</t>
         </is>
       </c>
       <c r="S64" t="inlineStr">
@@ -5655,7 +5655,7 @@
       </c>
       <c r="T65" t="inlineStr">
         <is>
-          <t>{'tbl_Locations.X_Coord', 'tbl_Locations.PlaceNameID', 'tbl_Locations.Y_Coord', 'tlu_PlaceNames.ID'}</t>
+          <t>{'tbl_Locations.PlaceNameID', 'tbl_Locations.X_Coord', 'tlu_PlaceNames.ID', 'tbl_Locations.Y_Coord'}</t>
         </is>
       </c>
       <c r="U65" t="n">
@@ -5710,7 +5710,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>{'tbl_Locations', 'tlu_topo_position'}</t>
+          <t>{'tlu_topo_position', 'tbl_Locations'}</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
@@ -5805,7 +5805,7 @@
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>{'tlu_Live_Dead.Cond_Text', 'tlu_Live_Dead.Cond_Num'}</t>
+          <t>{'tlu_Live_Dead.Cond_Num', 'tlu_Live_Dead.Cond_Text'}</t>
         </is>
       </c>
       <c r="S67" t="inlineStr">
@@ -5885,7 +5885,7 @@
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>{'tlu_Presence.Pres_Text', 'tlu_Presence.Pres_Num'}</t>
+          <t>{'tlu_Presence.Pres_Num', 'tlu_Presence.Pres_Text'}</t>
         </is>
       </c>
       <c r="S68" t="inlineStr">
@@ -6030,7 +6030,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>{'tbl_Locations', 'tlu_PlaceNames', 'tlu_PlantSpecies', 'tbl_Overstory'}</t>
+          <t>{'tlu_PlantSpecies', 'tbl_Overstory', 'tlu_PlaceNames', 'tbl_Locations'}</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
@@ -6045,12 +6045,12 @@
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>{'tlu_PlaceNames.County', 'tlu_PlaceNames.ID', 'tlu_PlantSpecies.SpeciesCode', 'tlu_PlantSpecies.species', 'tbl_Locations.Location_ID', 'tlu_PlantSpecies.genus', 'tbl_Locations.PlaceNameID', 'tbl_Overstory.SpCode', 'tlu_PlantSpecies.CommonName'}</t>
+          <t>{'tlu_PlaceNames.ID', 'tlu_PlaceNames.County', 'tlu_PlantSpecies.CommonName', 'tbl_Locations.Location_ID', 'tbl_Overstory.SpCode', 'tbl_Locations.PlaceNameID', 'tlu_PlantSpecies.genus', 'tlu_PlantSpecies.species', 'tlu_PlantSpecies.SpeciesCode'}</t>
         </is>
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>{'tbl_Tree_Tags.Tree_Tag_ID', 'tbl_Tree_Tags.Location_ID', 'tbl_Tree_Tags.SpCode', 'tbl_Overstory.TreeTag'}</t>
+          <t>{'tbl_Overstory.TreeTag', 'tbl_Tree_Tags.Tree_Tag_ID', 'tbl_Tree_Tags.SpCode', 'tbl_Tree_Tags.Location_ID'}</t>
         </is>
       </c>
       <c r="T70" t="inlineStr">
@@ -6110,7 +6110,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies', 'tbl_Overstory'}</t>
+          <t>{'tbl_Overstory', 'tlu_PlantSpecies'}</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
@@ -6120,7 +6120,7 @@
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>{'so we need to link both to tlu_PlantSpecies to get the species name and common name', 'tbl_Saplings'}</t>
+          <t>{'tbl_Saplings', 'so we need to link both to tlu_PlantSpecies to get the species name and common name'}</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
@@ -6130,12 +6130,12 @@
       </c>
       <c r="S71" t="inlineStr">
         <is>
-          <t>{'tbl_Seedlings.Seedlings_ID', 'tlu_PlantSpecies.CommonName', 'tbl_Seedlings.SpCode', 'tbl_Overstory.Overstory_ID'}</t>
+          <t>{'tbl_Seedlings.SpCode', 'tbl_Seedlings.Seedlings_ID', 'tbl_Overstory.Overstory_ID', 'tlu_PlantSpecies.CommonName'}</t>
         </is>
       </c>
       <c r="T71" t="inlineStr">
         <is>
-          <t>{'so we need to link both to tlu_PlantSpecies to get the species name and common name.- The key columns are the species code fields and the output columns are species and common name', 'tbl_Saplings.spcode', 'tlu_PlantSpecies.CommonName\n```\n\n---\n\n**Explanation:**  \n- We need the species that are in tbl_Overstory (mature trees) but not in tbl_Saplings (saplings)'}</t>
+          <t>{'tbl_Saplings.spcode', 'tlu_PlantSpecies.CommonName\n```\n\n---\n\n**Explanation:**  \n- We need the species that are in tbl_Overstory (mature trees) but not in tbl_Saplings (saplings)', 'so we need to link both to tlu_PlantSpecies to get the species name and common name.- The key columns are the species code fields and the output columns are species and common name'}</t>
         </is>
       </c>
       <c r="U71" t="n">
@@ -6205,7 +6205,7 @@
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>{'tbl_Tree_Tags.Ycoord', 'tbl_Tree_Tags.Tag', 'tbl_Tree_Tags.Xcoord'}</t>
+          <t>{'tbl_Tree_Tags.Tag', 'tbl_Tree_Tags.Xcoord', 'tbl_Tree_Tags.Ycoord'}</t>
         </is>
       </c>
       <c r="S72" t="inlineStr">
@@ -6270,7 +6270,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>{'tlu_Cover_Cls', 'tbl_Nests'}</t>
+          <t>{'tbl_Nests', 'tlu_Cover_Cls'}</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
@@ -6350,7 +6350,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>{'tlu_Presence', 'tbl_Nests'}</t>
+          <t>{'tbl_Nests', 'tlu_Presence'}</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
@@ -6365,7 +6365,7 @@
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>{'tlu_Presence.Pres_Text', 'tlu_Presence.Pres_Num', 'tbl_Nests.Presence_First'}</t>
+          <t>{'tlu_Presence.Pres_Num', 'tbl_Nests.Presence_First', 'tlu_Presence.Pres_Text'}</t>
         </is>
       </c>
       <c r="S74" t="inlineStr">
@@ -6445,7 +6445,7 @@
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>{'tbl_Deadwood.Decay', 'tbl_Deadwood.MPD'}</t>
+          <t>{'tbl_Deadwood.MPD', 'tbl_Deadwood.Decay'}</t>
         </is>
       </c>
       <c r="S75" t="inlineStr">
@@ -6565,32 +6565,32 @@
         <v>1</v>
       </c>
       <c r="G77" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K77" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
       <c r="M77" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="N77" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>{'tlu_DecayStage'}</t>
+          <t>{'tlu_DecayStage', 'tbl_Deadwood'}</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
@@ -6600,12 +6600,12 @@
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>{'tbl_Deadwood'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>{'tlu_DecayStage.DecayStage_ID', 'tlu_DecayStage.DecayStage_Descr'}</t>
+          <t>{'tbl_Deadwood.MPD', 'tlu_DecayStage.DecayStage_ID', 'tlu_DecayStage.DecayStage_Descr', 'tbl_Deadwood.Decay'}</t>
         </is>
       </c>
       <c r="S77" t="inlineStr">
@@ -6615,7 +6615,7 @@
       </c>
       <c r="T77" t="inlineStr">
         <is>
-          <t>{'tbl_Deadwood.Decay', 'tbl_Deadwood.MPD'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="U77" t="n">
@@ -6645,32 +6645,32 @@
         <v>1</v>
       </c>
       <c r="G78" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H78" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K78" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
       <c r="M78" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="N78" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>{'tlu_DecayStage'}</t>
+          <t>{'tlu_DecayStage', 'tbl_Deadwood'}</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
@@ -6680,12 +6680,12 @@
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>{'tbl_Deadwood'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>{'tlu_DecayStage.DecayStage_ID', 'tlu_DecayStage.DecayStage_Descr'}</t>
+          <t>{'tlu_DecayStage.DecayStage_ID', 'tbl_Deadwood.Length', 'tlu_DecayStage.DecayStage_Descr', 'tbl_Deadwood.Decay'}</t>
         </is>
       </c>
       <c r="S78" t="inlineStr">
@@ -6695,7 +6695,7 @@
       </c>
       <c r="T78" t="inlineStr">
         <is>
-          <t>{'tbl_Deadwood.Decay', 'tbl_Deadwood.Length'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="U78" t="n">
@@ -6765,7 +6765,7 @@
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>{'tbl_Locations.Accuracy_Notes', 'tbl_Locations.Slope_shape', 'tbl_Locations.Aspect', 'tbl_Locations.Slope', 'tbl_Locations.Loc_Notes', 'tbl_Locations.SiteDescription'}</t>
+          <t>{'tbl_Locations.Slope', 'tbl_Locations.Slope_shape', 'tbl_Locations.SiteDescription', 'tbl_Locations.Accuracy_Notes', 'tbl_Locations.Aspect', 'tbl_Locations.Loc_Notes'}</t>
         </is>
       </c>
       <c r="S79" t="inlineStr">
@@ -6930,12 +6930,12 @@
       </c>
       <c r="S81" t="inlineStr">
         <is>
-          <t>{'tlu_Tree_Cond.TreeCond_Text', 'tlu_Tree_Cond.TreeCond_Num'}</t>
+          <t>{'tlu_Tree_Cond.TreeCond_Num', 'tlu_Tree_Cond.TreeCond_Text'}</t>
         </is>
       </c>
       <c r="T81" t="inlineStr">
         <is>
-          <t>{'tlu_Live_Dead.Cond_Text', 'tbl_Saplings.*', 'tlu_Live_Dead.Cond_Num'}</t>
+          <t>{'tlu_Live_Dead.Cond_Num', 'tlu_Live_Dead.Cond_Text', 'tbl_Saplings.*'}</t>
         </is>
       </c>
       <c r="U81" t="n">
@@ -7005,7 +7005,7 @@
       </c>
       <c r="R82" t="inlineStr">
         <is>
-          <t>{'VERTEBRATES.Notes', 'VERTEBRATES.Common_Name', 'VERTEBRATES.Ownership'}</t>
+          <t>{'VERTEBRATES.Common_Name', 'VERTEBRATES.Notes', 'VERTEBRATES.Ownership'}</t>
         </is>
       </c>
       <c r="S82" t="inlineStr">
@@ -7150,7 +7150,7 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>{'Breeding_Codes', 'VERTEBRATES'}</t>
+          <t>{'VERTEBRATES', 'Breeding_Codes'}</t>
         </is>
       </c>
       <c r="P84" t="inlineStr">
@@ -7165,7 +7165,7 @@
       </c>
       <c r="R84" t="inlineStr">
         <is>
-          <t>{'Breeding_Codes.Definition', 'Breeding_Codes.Breed', 'VERTEBRATES.Common_Name', 'VERTEBRATES.BREED'}</t>
+          <t>{'Breeding_Codes.Breed', 'VERTEBRATES.BREED', 'Breeding_Codes.Definition', 'VERTEBRATES.Common_Name'}</t>
         </is>
       </c>
       <c r="S84" t="inlineStr">
@@ -7245,7 +7245,7 @@
       </c>
       <c r="R85" t="inlineStr">
         <is>
-          <t>{'INVERTEBRATES.Class', 'INVERTEBRATES.Common_Name', 'INVERTEBRATES.Genus_species'}</t>
+          <t>{'INVERTEBRATES.Common_Name', 'INVERTEBRATES.Class', 'INVERTEBRATES.Genus_species'}</t>
         </is>
       </c>
       <c r="S85" t="inlineStr">
@@ -7310,7 +7310,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>{'INVERTEBRATES', 'Invert_Family'}</t>
+          <t>{'Invert_Family', 'INVERTEBRATES'}</t>
         </is>
       </c>
       <c r="P86" t="inlineStr">
@@ -7335,7 +7335,7 @@
       </c>
       <c r="T86" t="inlineStr">
         <is>
-          <t>{'INVERTEBRATES.Family NOT IN Invert_Family', 'INVERTEBRATES.Family IS NOT NULL'}</t>
+          <t>{'INVERTEBRATES.Family IS NOT NULL', 'INVERTEBRATES.Family NOT IN Invert_Family'}</t>
         </is>
       </c>
       <c r="U86" t="n">
@@ -7485,7 +7485,7 @@
       </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>{'Roadkill.Year', 'Roadkill.Month'}</t>
+          <t>{'Roadkill.Month', 'Roadkill.Year'}</t>
         </is>
       </c>
       <c r="S88" t="inlineStr">
@@ -7495,7 +7495,7 @@
       </c>
       <c r="T88" t="inlineStr">
         <is>
-          <t>{'Month.ID', 'Month.Field1'}</t>
+          <t>{'Month.Field1', 'Month.ID'}</t>
         </is>
       </c>
       <c r="U88" t="n">
@@ -7565,7 +7565,7 @@
       </c>
       <c r="R89" t="inlineStr">
         <is>
-          <t>{'Roadkill.Year', 'Roadkill.Comments'}</t>
+          <t>{'Roadkill.Comments', 'Roadkill.Year'}</t>
         </is>
       </c>
       <c r="S89" t="inlineStr">
@@ -7645,7 +7645,7 @@
       </c>
       <c r="R90" t="inlineStr">
         <is>
-          <t>{'Roadkill.Year', 'Roadkill.Species'}</t>
+          <t>{'Roadkill.Species', 'Roadkill.Year'}</t>
         </is>
       </c>
       <c r="S90" t="inlineStr">
@@ -7710,7 +7710,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>{'Roadkill', 'VERTEBRATES'}</t>
+          <t>{'VERTEBRATES', 'Roadkill'}</t>
         </is>
       </c>
       <c r="P91" t="inlineStr">
@@ -7762,35 +7762,35 @@
         <v>4884</v>
       </c>
       <c r="F92" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G92" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>0.8000000000000002</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L92" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="M92" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="N92" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'Roadkill'}</t>
         </is>
       </c>
       <c r="P92" t="inlineStr">
@@ -7800,22 +7800,22 @@
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>{'Roadkill'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R92" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'Roadkill.Species', 'Roadkill.Month', 'Roadkill.Year'}</t>
         </is>
       </c>
       <c r="S92" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'Roadkill.number_killed'}</t>
         </is>
       </c>
       <c r="T92" t="inlineStr">
         <is>
-          <t>{'Roadkill.Year', 'Roadkill.Species', 'Roadkill.number_killed**', 'Roadkill.Month'}</t>
+          <t>{'Roadkill.number_killed**'}</t>
         </is>
       </c>
       <c r="U92" t="n">
@@ -7870,7 +7870,7 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>{'INVERTEBRATES', 'HABITAT_CODES', 'VERTEBRATES'}</t>
+          <t>{'VERTEBRATES', 'HABITAT_CODES', 'INVERTEBRATES'}</t>
         </is>
       </c>
       <c r="P93" t="inlineStr">
@@ -7885,7 +7885,7 @@
       </c>
       <c r="R93" t="inlineStr">
         <is>
-          <t>{'HABITAT_CODES.Code', 'HABITAT_CODES.Definition', 'INVERTEBRATES.Habitat', 'VERTEBRATES.Habitat'}</t>
+          <t>{'VERTEBRATES.Habitat', 'HABITAT_CODES.Definition', 'INVERTEBRATES.Habitat', 'HABITAT_CODES.Code'}</t>
         </is>
       </c>
       <c r="S93" t="inlineStr">
@@ -7950,7 +7950,7 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>{'INVERTEBRATES', 'HABITAT_CODES'}</t>
+          <t>{'HABITAT_CODES', 'INVERTEBRATES'}</t>
         </is>
       </c>
       <c r="P94" t="inlineStr">
@@ -7965,7 +7965,7 @@
       </c>
       <c r="R94" t="inlineStr">
         <is>
-          <t>{'HABITAT_CODES.Code', 'HABITAT_CODES.Definition', 'INVERTEBRATES.Habitat'}</t>
+          <t>{'HABITAT_CODES.Definition', 'INVERTEBRATES.Habitat', 'HABITAT_CODES.Code'}</t>
         </is>
       </c>
       <c r="S94" t="inlineStr">
@@ -7975,7 +7975,7 @@
       </c>
       <c r="T94" t="inlineStr">
         <is>
-          <t>{'filtering for those with count &gt; 40.)', '40**\n\n(Explanation: You need to join INVERTEBRATES.Habitat to HABITAT_CODES'}</t>
+          <t>{'40**\n\n(Explanation: You need to join INVERTEBRATES.Habitat to HABITAT_CODES', 'filtering for those with count &gt; 40.)'}</t>
         </is>
       </c>
       <c r="U94" t="n">
@@ -8030,7 +8030,7 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>{'INVERTEBRATES', 'VERTEBRATES'}</t>
+          <t>{'VERTEBRATES', 'INVERTEBRATES'}</t>
         </is>
       </c>
       <c r="P95" t="inlineStr">
@@ -8045,7 +8045,7 @@
       </c>
       <c r="R95" t="inlineStr">
         <is>
-          <t>{'INVERTEBRATES.Common_Name', 'INVERTEBRATES.Habitat', 'VERTEBRATES.Date', 'INVERTEBRATES.Date', 'VERTEBRATES.Habitat', 'INVERTEBRATES.Observer'}</t>
+          <t>{'INVERTEBRATES.Date', 'INVERTEBRATES.Habitat', 'VERTEBRATES.Habitat', 'VERTEBRATES.Date', 'INVERTEBRATES.Common_Name', 'INVERTEBRATES.Observer'}</t>
         </is>
       </c>
       <c r="S95" t="inlineStr">
@@ -8110,7 +8110,7 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>{'INVERTEBRATES', 'HABITAT_CODES', 'VERTEBRATES'}</t>
+          <t>{'VERTEBRATES', 'HABITAT_CODES', 'INVERTEBRATES'}</t>
         </is>
       </c>
       <c r="P96" t="inlineStr">
@@ -8125,7 +8125,7 @@
       </c>
       <c r="R96" t="inlineStr">
         <is>
-          <t>{'INVERTEBRATES.Habitat', 'VERTEBRATES.Date', 'INVERTEBRATES.Date', 'HABITAT_CODES.Code', 'VERTEBRATES.Habitat', 'HABITAT_CODES.Definition', 'INVERTEBRATES.Observer', 'VERTEBRATES.Observer'}</t>
+          <t>{'INVERTEBRATES.Date', 'INVERTEBRATES.Habitat', 'VERTEBRATES.Habitat', 'HABITAT_CODES.Code', 'VERTEBRATES.Observer', 'VERTEBRATES.Date', 'HABITAT_CODES.Definition', 'INVERTEBRATES.Observer'}</t>
         </is>
       </c>
       <c r="S96" t="inlineStr">
@@ -8350,7 +8350,7 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>{'INVERTEBRATES', 'VERTEBRATES'}</t>
+          <t>{'VERTEBRATES', 'INVERTEBRATES'}</t>
         </is>
       </c>
       <c r="P99" t="inlineStr">
@@ -8365,7 +8365,7 @@
       </c>
       <c r="R99" t="inlineStr">
         <is>
-          <t>{'INVERTEBRATES.Observer', 'VERTEBRATES.Observer'}</t>
+          <t>{'VERTEBRATES.Observer', 'INVERTEBRATES.Observer'}</t>
         </is>
       </c>
       <c r="S99" t="inlineStr">
@@ -8525,7 +8525,7 @@
       </c>
       <c r="R101" t="inlineStr">
         <is>
-          <t>{'VERTEBRATES.UTMN', 'VERTEBRATES.UTME', 'VERTEBRATES.Common_Name', 'VERTEBRATES.Scientific_Name'}</t>
+          <t>{'VERTEBRATES.Scientific_Name', 'VERTEBRATES.UTMN', 'VERTEBRATES.Common_Name', 'VERTEBRATES.UTME'}</t>
         </is>
       </c>
       <c r="S101" t="inlineStr">
@@ -8610,7 +8610,7 @@
       </c>
       <c r="S102" t="inlineStr">
         <is>
-          <t>{'VERTEBRATES.Common_Name', 'VERTEBRATES.Species'}</t>
+          <t>{'VERTEBRATES.Species', 'VERTEBRATES.Common_Name'}</t>
         </is>
       </c>
       <c r="T102" t="inlineStr">
@@ -9085,7 +9085,7 @@
       </c>
       <c r="R108" t="inlineStr">
         <is>
-          <t>{'WILDLIFE_MASTERLIST.COMMON_NAME', 'WILDLIFE_MASTERLIST.SCIENTIFIC_NAME'}</t>
+          <t>{'WILDLIFE_MASTERLIST.SCIENTIFIC_NAME', 'WILDLIFE_MASTERLIST.COMMON_NAME'}</t>
         </is>
       </c>
       <c r="S108" t="inlineStr">
@@ -9095,7 +9095,7 @@
       </c>
       <c r="T108" t="inlineStr">
         <is>
-          <t>{'VERTEBRATES.CLASS', 'VERTEBRATES.Common_Name', 'VERTEBRATES.Scientific_Name'}</t>
+          <t>{'VERTEBRATES.Scientific_Name', 'VERTEBRATES.CLASS', 'VERTEBRATES.Common_Name'}</t>
         </is>
       </c>
       <c r="U108" t="n">
@@ -9165,7 +9165,7 @@
       </c>
       <c r="R109" t="inlineStr">
         <is>
-          <t>{'Roadkill.Location', 'Roadkill.Big_Game'}</t>
+          <t>{'Roadkill.Big_Game', 'Roadkill.Location'}</t>
         </is>
       </c>
       <c r="S109" t="inlineStr">
@@ -9250,7 +9250,7 @@
       </c>
       <c r="S110" t="inlineStr">
         <is>
-          <t>{'Class.Class', 'Class.Field2'}</t>
+          <t>{'Class.Field2', 'Class.Class'}</t>
         </is>
       </c>
       <c r="T110" t="inlineStr">
@@ -9310,7 +9310,7 @@
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>{'HABITAT_CODES', 'VERTEBRATES'}</t>
+          <t>{'VERTEBRATES', 'HABITAT_CODES'}</t>
         </is>
       </c>
       <c r="P111" t="inlineStr">
@@ -9325,7 +9325,7 @@
       </c>
       <c r="R111" t="inlineStr">
         <is>
-          <t>{'VERTEBRATES.Common_Name', 'VERTEBRATES.Species', 'HABITAT_CODES.Code', 'VERTEBRATES.Habitat', 'HABITAT_CODES.Definition', 'VERTEBRATES.Scientific_Name', 'VERTEBRATES.Number'}</t>
+          <t>{'VERTEBRATES.Scientific_Name', 'VERTEBRATES.Species', 'VERTEBRATES.Habitat', 'VERTEBRATES.Common_Name', 'HABITAT_CODES.Definition', 'VERTEBRATES.Number', 'HABITAT_CODES.Code'}</t>
         </is>
       </c>
       <c r="S111" t="inlineStr">
@@ -9470,7 +9470,7 @@
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>{'INVERTEBRATES', 'WILDLIFE_MASTERLIST'}</t>
+          <t>{'WILDLIFE_MASTERLIST', 'INVERTEBRATES'}</t>
         </is>
       </c>
       <c r="P113" t="inlineStr">
@@ -9565,7 +9565,7 @@
       </c>
       <c r="R114" t="inlineStr">
         <is>
-          <t>{'Roadkill.Year', 'Roadkill.Species'}</t>
+          <t>{'Roadkill.Species', 'Roadkill.Year'}</t>
         </is>
       </c>
       <c r="S114" t="inlineStr">
@@ -9602,35 +9602,35 @@
         <v>4885</v>
       </c>
       <c r="F115" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="G115" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L115" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M115" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="N115" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'Roadkill'}</t>
         </is>
       </c>
       <c r="P115" t="inlineStr">
@@ -9640,22 +9640,22 @@
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>{'Roadkill'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R115" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'Roadkill.HWY_Mile_Marker', 'Roadkill.Year'}</t>
         </is>
       </c>
       <c r="S115" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'Roadkill.Location'}</t>
         </is>
       </c>
       <c r="T115" t="inlineStr">
         <is>
-          <t>{'Roadkill.Year', 'Roadkill.HWY_Mile_Marker', 'Roadkill.number_killed'}</t>
+          <t>{'Roadkill.number_killed'}</t>
         </is>
       </c>
       <c r="U115" t="n">
@@ -9805,7 +9805,7 @@
       </c>
       <c r="R117" t="inlineStr">
         <is>
-          <t>{'VERTEBRATES.Notes', 'VERTEBRATES.Common_Name', 'VERTEBRATES.Observer'}</t>
+          <t>{'VERTEBRATES.Notes', 'VERTEBRATES.Observer', 'VERTEBRATES.Common_Name'}</t>
         </is>
       </c>
       <c r="S117" t="inlineStr">
@@ -9885,7 +9885,7 @@
       </c>
       <c r="R118" t="inlineStr">
         <is>
-          <t>{'INVERTEBRATES.Common_Name', 'INVERTEBRATES.Class', 'INVERTEBRATES.Location', 'INVERTEBRATES.Order', 'INVERTEBRATES.Genus_species', 'INVERTEBRATES.Family'}</t>
+          <t>{'INVERTEBRATES.Order', 'INVERTEBRATES.Family', 'INVERTEBRATES.Location', 'INVERTEBRATES.Genus_species', 'INVERTEBRATES.Class', 'INVERTEBRATES.Common_Name'}</t>
         </is>
       </c>
       <c r="S118" t="inlineStr">
@@ -10030,7 +10030,7 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>{'INVERTEBRATES', 'VERTEBRATES'}</t>
+          <t>{'VERTEBRATES', 'INVERTEBRATES'}</t>
         </is>
       </c>
       <c r="P120" t="inlineStr">
@@ -10045,7 +10045,7 @@
       </c>
       <c r="R120" t="inlineStr">
         <is>
-          <t>{'INVERTEBRATES.Common_Name', 'INVERTEBRATES.Habitat', 'VERTEBRATES.Common_Name', 'VERTEBRATES.Habitat'}</t>
+          <t>{'INVERTEBRATES.Common_Name', 'VERTEBRATES.Habitat', 'INVERTEBRATES.Habitat', 'VERTEBRATES.Common_Name'}</t>
         </is>
       </c>
       <c r="S120" t="inlineStr">
@@ -10190,7 +10190,7 @@
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>{'tbl_Event_Details', 'tbl_Events'}</t>
+          <t>{'tbl_Events', 'tbl_Event_Details'}</t>
         </is>
       </c>
       <c r="P122" t="inlineStr">
@@ -10205,7 +10205,7 @@
       </c>
       <c r="R122" t="inlineStr">
         <is>
-          <t>{'tbl_Events.Location_ID', 'tbl_Event_Details.Event_Notes', 'tbl_Event_Details.Event_ID', 'tbl_Events.Start_Date', 'tbl_Events.Event_ID'}</t>
+          <t>{'tbl_Event_Details.Event_Notes', 'tbl_Events.Event_ID', 'tbl_Events.Start_Date', 'tbl_Events.Location_ID', 'tbl_Event_Details.Event_ID'}</t>
         </is>
       </c>
       <c r="S122" t="inlineStr">
@@ -10270,7 +10270,7 @@
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>{'tbl_Locations', 'tbl_Event_Details', 'tbl_Events'}</t>
+          <t>{'tbl_Events', 'tbl_Event_Details', 'tbl_Locations'}</t>
         </is>
       </c>
       <c r="P123" t="inlineStr">
@@ -10285,7 +10285,7 @@
       </c>
       <c r="R123" t="inlineStr">
         <is>
-          <t>{'tbl_Locations.Loc_Name', 'tbl_Events.Location_ID', 'tbl_Event_Details.Event_Notes', 'tbl_Locations.Location_ID', 'tbl_Event_Details.Event_ID', 'tbl_Events.Start_Date', 'tbl_Events.Event_ID'}</t>
+          <t>{'tbl_Event_Details.Event_Notes', 'tbl_Events.Event_ID', 'tbl_Events.Start_Date', 'tbl_Locations.Location_ID', 'tbl_Events.Location_ID', 'tbl_Locations.Loc_Name', 'tbl_Event_Details.Event_ID'}</t>
         </is>
       </c>
       <c r="S123" t="inlineStr">
@@ -10430,7 +10430,7 @@
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>{'tbl_MacroHabitat', 'tbl_MicroHabitat'}</t>
+          <t>{'tbl_MicroHabitat', 'tbl_MacroHabitat'}</t>
         </is>
       </c>
       <c r="P125" t="inlineStr">
@@ -10562,35 +10562,35 @@
         <v>5563</v>
       </c>
       <c r="F127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Edit_Log'}</t>
         </is>
       </c>
       <c r="P127" t="inlineStr">
@@ -10600,12 +10600,12 @@
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>{'tbl_Edit_Log'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R127" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Edit_Log.Date_Change', 'tbl_Edit_Log.Reason', 'tbl_Edit_Log.Field', 'tbl_Edit_Log.Table'}</t>
         </is>
       </c>
       <c r="S127" t="inlineStr">
@@ -10615,7 +10615,7 @@
       </c>
       <c r="T127" t="inlineStr">
         <is>
-          <t>{'tbl_Edit_Log.Field', 'tbl_Edit_Log.Reason', 'tbl_Edit_Log.Date_Change', 'tbl_Edit_Log.Table'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="U127" t="n">
@@ -10722,35 +10722,35 @@
         <v>5720</v>
       </c>
       <c r="F129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Events', 'tbl_MicroHabitat', 'tbl_Locations'}</t>
         </is>
       </c>
       <c r="P129" t="inlineStr">
@@ -10760,12 +10760,12 @@
       </c>
       <c r="Q129" t="inlineStr">
         <is>
-          <t>{'tbl_Locations', 'tbl_Events', 'tbl_MicroHabitat'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R129" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Locations.Elevation', 'tbl_MicroHabitat.Litter', 'tbl_MicroHabitat.LightIndex', 'tbl_Events.Event_ID', 'tbl_Events.Start_Date', 'tbl_Locations.Location_ID', 'tbl_MicroHabitat.VegHeight', 'tbl_Events.Location_ID', 'tbl_MicroHabitat.Evergreen', 'tbl_MicroHabitat.Event_ID'}</t>
         </is>
       </c>
       <c r="S129" t="inlineStr">
@@ -10775,7 +10775,7 @@
       </c>
       <c r="T129" t="inlineStr">
         <is>
-          <t>{'tbl_MicroHabitat.VegHeight', 'tbl_MicroHabitat.Event_ID', 'tbl_MicroHabitat.LightIndex', 'tbl_MicroHabitat.Litter', 'tbl_Events.Location_ID', 'tbl_Locations.Location_ID', 'tbl_Events.Start_Date', 'tbl_Locations.Elevation', 'tbl_Events.Event_ID', 'tbl_MicroHabitat.Evergreen'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="U129" t="n">
@@ -10925,7 +10925,7 @@
       </c>
       <c r="R131" t="inlineStr">
         <is>
-          <t>{'tlu_Species_LABE.SampleYear', 'tlu_Species_LABE.Species'}</t>
+          <t>{'tlu_Species_LABE.Species', 'tlu_Species_LABE.SampleYear'}</t>
         </is>
       </c>
       <c r="S131" t="inlineStr">
@@ -11085,7 +11085,7 @@
       </c>
       <c r="R133" t="inlineStr">
         <is>
-          <t>{'tlu_Species_REDW.SampleYear', 'tlu_Species_REDW.Species'}</t>
+          <t>{'tlu_Species_REDW.Species', 'tlu_Species_REDW.SampleYear'}</t>
         </is>
       </c>
       <c r="S133" t="inlineStr">
@@ -11245,7 +11245,7 @@
       </c>
       <c r="R135" t="inlineStr">
         <is>
-          <t>{'tlu_Species_LAVO.Species', 'tlu_Species_ORCA.Species'}</t>
+          <t>{'tlu_Species_ORCA.Species', 'tlu_Species_LAVO.Species'}</t>
         </is>
       </c>
       <c r="S135" t="inlineStr">
@@ -11325,7 +11325,7 @@
       </c>
       <c r="R136" t="inlineStr">
         <is>
-          <t>{'tlu_Contacts.Last_Name', 'tlu_Contacts.First_Name', 'tlu_Contacts.Position_Title', 'tlu_Contacts.State_Code', 'tlu_Contacts.Zip_Code', 'tlu_Contacts.City'}</t>
+          <t>{'tlu_Contacts.Last_Name', 'tlu_Contacts.State_Code', 'tlu_Contacts.Zip_Code', 'tlu_Contacts.City', 'tlu_Contacts.Position_Title', 'tlu_Contacts.First_Name'}</t>
         </is>
       </c>
       <c r="S136" t="inlineStr">
@@ -11655,7 +11655,7 @@
       </c>
       <c r="T140" t="inlineStr">
         <is>
-          <t>{'tlu_Enumerations.Enum_Code', 'tlu_Enumerations.Enum_Group**'}</t>
+          <t>{'tlu_Enumerations.Enum_Group**', 'tlu_Enumerations.Enum_Code'}</t>
         </is>
       </c>
       <c r="U140" t="n">
@@ -11710,7 +11710,7 @@
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>{'tlu_Contacts', 'tbl_Db_Revisions'}</t>
+          <t>{'tbl_Db_Revisions', 'tlu_Contacts'}</t>
         </is>
       </c>
       <c r="P141" t="inlineStr">
@@ -11725,7 +11725,7 @@
       </c>
       <c r="R141" t="inlineStr">
         <is>
-          <t>{'tlu_Contacts.Last_Name', 'tlu_Contacts.First_Name', 'tbl_Db_Revisions.Revision_Contact_ID', 'tlu_Contacts.Contact_ID', 'tbl_Db_Revisions.Revision_Desc', 'tbl_Db_Revisions.Revision_Reason'}</t>
+          <t>{'tlu_Contacts.Contact_ID', 'tlu_Contacts.Last_Name', 'tbl_Db_Revisions.Revision_Reason', 'tbl_Db_Revisions.Revision_Contact_ID', 'tlu_Contacts.First_Name', 'tbl_Db_Revisions.Revision_Desc'}</t>
         </is>
       </c>
       <c r="S141" t="inlineStr">
@@ -11815,7 +11815,7 @@
       </c>
       <c r="T142" t="inlineStr">
         <is>
-          <t>{'tbl_Db_Revisions.Revision_ID**\n\n(You may also use tbl_Db_Revisions', 'but Revision_ID is the unique identifier for counting.)'}</t>
+          <t>{'but Revision_ID is the unique identifier for counting.)', 'tbl_Db_Revisions.Revision_ID**\n\n(You may also use tbl_Db_Revisions'}</t>
         </is>
       </c>
       <c r="U142" t="n">
@@ -11842,35 +11842,35 @@
         <v>5411</v>
       </c>
       <c r="F143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Sites'}</t>
         </is>
       </c>
       <c r="P143" t="inlineStr">
@@ -11880,12 +11880,12 @@
       </c>
       <c r="Q143" t="inlineStr">
         <is>
-          <t>{'tbl_Sites'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R143" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Sites.Site_Desc', 'tbl_Sites.Route', 'tbl_Sites.Site_Start_Y', 'tbl_Sites.Length', 'tbl_Sites.Site_Name', 'tbl_Sites.Site_ID'}</t>
         </is>
       </c>
       <c r="S143" t="inlineStr">
@@ -11895,7 +11895,7 @@
       </c>
       <c r="T143" t="inlineStr">
         <is>
-          <t>{'tbl_Sites.Site_Desc', 'tbl_Sites.Site_ID', 'tbl_Sites.Length', 'tbl_Sites.Route', 'tbl_Sites.Site_Start_Y', 'tbl_Sites.Site_Name'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="U143" t="n">
@@ -11965,7 +11965,7 @@
       </c>
       <c r="R144" t="inlineStr">
         <is>
-          <t>{'tbl_Sites.Site_Name', 'tbl_Sites.Site_Start_Y', 'tbl_Sites.Site_End_Y', 'tbl_Sites.Site_End_X', 'tbl_Sites.Site_Start_X'}</t>
+          <t>{'tbl_Sites.Site_End_X', 'tbl_Sites.Site_Start_Y', 'tbl_Sites.Site_End_Y', 'tbl_Sites.Site_Start_X', 'tbl_Sites.Site_Name'}</t>
         </is>
       </c>
       <c r="S144" t="inlineStr">
@@ -12002,35 +12002,35 @@
         <v>5597</v>
       </c>
       <c r="F145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G145" t="n">
-        <v>0</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="I145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M145" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="N145" t="n">
-        <v>0</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Sites', 'tbl_Locations'}</t>
         </is>
       </c>
       <c r="P145" t="inlineStr">
@@ -12040,12 +12040,12 @@
       </c>
       <c r="Q145" t="inlineStr">
         <is>
-          <t>{'tbl_Locations', 'tbl_Sites'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R145" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Sites.Site_Name', 'tbl_Sites.Site_ID', 'tbl_Locations.Site_ID'}</t>
         </is>
       </c>
       <c r="S145" t="inlineStr">
@@ -12055,7 +12055,7 @@
       </c>
       <c r="T145" t="inlineStr">
         <is>
-          <t>{'tbl_Sites.Site_ID', 'tbl_Locations.Site_ID', 'tbl_Sites.Site_Name', 'tbl_Locations.Location_ID'}</t>
+          <t>{'tbl_Locations.Location_ID'}</t>
         </is>
       </c>
       <c r="U145" t="n">
@@ -12110,7 +12110,7 @@
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>{'tbl_Locations', 'tbl_Sites'}</t>
+          <t>{'tbl_Sites', 'tbl_Locations'}</t>
         </is>
       </c>
       <c r="P146" t="inlineStr">
@@ -12125,7 +12125,7 @@
       </c>
       <c r="R146" t="inlineStr">
         <is>
-          <t>{'tbl_Sites.Site_ID', 'tbl_Locations.Loc_Name', 'tbl_Sites.Site_Name', 'tbl_Locations.X_Coord', 'tbl_Locations.Site_ID', 'tbl_Locations.Y_Coord'}</t>
+          <t>{'tbl_Locations.X_Coord', 'tbl_Locations.Y_Coord', 'tbl_Locations.Loc_Name', 'tbl_Sites.Site_Name', 'tbl_Sites.Site_ID', 'tbl_Locations.Site_ID'}</t>
         </is>
       </c>
       <c r="S146" t="inlineStr">
@@ -12162,35 +12162,35 @@
         <v>5624</v>
       </c>
       <c r="F147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G147" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J147" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K147" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M147" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N147" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tlu_Contacts', 'xref_Event_Contacts'}</t>
         </is>
       </c>
       <c r="P147" t="inlineStr">
@@ -12200,12 +12200,12 @@
       </c>
       <c r="Q147" t="inlineStr">
         <is>
-          <t>{'tlu_Contacts', 'you can add tbl_Events', 'xref_Event_Contacts', 'the three above are sufficient'}</t>
+          <t>{'you can add tbl_Events', 'the three above are sufficient'}</t>
         </is>
       </c>
       <c r="R147" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'xref_Event_Contacts.Event_ID', 'tlu_Contacts.Contact_ID', 'xref_Event_Contacts.Contact_ID', 'tlu_Contacts.First_Name'}</t>
         </is>
       </c>
       <c r="S147" t="inlineStr">
@@ -12215,7 +12215,7 @@
       </c>
       <c r="T147" t="inlineStr">
         <is>
-          <t>{'xref_Event_Contacts.Event_ID\n\n---\n\n**Explanation:**  \n- tlu_Contacts', 'tlu_Contacts.First_Name', 'you can add tbl_Events.Event_ID', 'the three above are sufficient.)**', 'tlu_Contacts.Contact_ID', 'xref_Event_Contacts.Contact_ID', 'tlu_Contacts.Contact_ID: to link contacts to their event associations  \n- xref_Event_Contacts', 'xref_Event_Contacts.Event_ID'}</t>
+          <t>{'the three above are sufficient.)**', 'you can add tbl_Events.Event_ID', 'xref_Event_Contacts.Event_ID\n\n---\n\n**Explanation:**  \n- tlu_Contacts', 'tlu_Contacts.Contact_ID: to link contacts to their event associations  \n- xref_Event_Contacts'}</t>
         </is>
       </c>
       <c r="U147" t="n">
@@ -12270,7 +12270,7 @@
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>{'tlu_Contacts', 'tbl_Events', 'xref_Event_Contacts'}</t>
+          <t>{'tbl_Events', 'tlu_Contacts', 'xref_Event_Contacts'}</t>
         </is>
       </c>
       <c r="P148" t="inlineStr">
@@ -12285,7 +12285,7 @@
       </c>
       <c r="R148" t="inlineStr">
         <is>
-          <t>{'tlu_Contacts.Last_Name', 'tlu_Contacts.First_Name', 'tlu_Contacts.Contact_ID', 'tlu_Contacts.Position_Title', 'xref_Event_Contacts.Contact_ID', 'xref_Event_Contacts.Event_ID', 'tbl_Events.Start_Date', 'tbl_Events.Event_ID'}</t>
+          <t>{'tbl_Events.Event_ID', 'tbl_Events.Start_Date', 'tlu_Contacts.Contact_ID', 'tlu_Contacts.Last_Name', 'xref_Event_Contacts.Event_ID', 'tlu_Contacts.Position_Title', 'xref_Event_Contacts.Contact_ID', 'tlu_Contacts.First_Name'}</t>
         </is>
       </c>
       <c r="S148" t="inlineStr">
@@ -12322,35 +12322,35 @@
         <v>5496</v>
       </c>
       <c r="F149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G149" t="n">
-        <v>0</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="I149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M149" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="N149" t="n">
-        <v>0</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Events', 'tbl_Locations'}</t>
         </is>
       </c>
       <c r="P149" t="inlineStr">
@@ -12360,12 +12360,12 @@
       </c>
       <c r="Q149" t="inlineStr">
         <is>
-          <t>{'tbl_Locations', 'tbl_Events'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R149" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Events.Location_ID', 'tbl_Locations.Loc_Name', 'tbl_Locations.Location_ID'}</t>
         </is>
       </c>
       <c r="S149" t="inlineStr">
@@ -12375,7 +12375,7 @@
       </c>
       <c r="T149" t="inlineStr">
         <is>
-          <t>{'tbl_Locations.Loc_Name', 'tbl_Events.Location_ID', 'tbl_Locations.Location_ID', 'tbl_Events.Event_ID'}</t>
+          <t>{'tbl_Events.Event_ID'}</t>
         </is>
       </c>
       <c r="U149" t="n">
@@ -12402,35 +12402,35 @@
         <v>5710</v>
       </c>
       <c r="F150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G150" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>0.9473684210526316</v>
       </c>
       <c r="I150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M150" t="n">
-        <v>0</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="N150" t="n">
-        <v>0</v>
+        <v>0.923076923076923</v>
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Events', 'tbl_Sites', 'tbl_Locations'}</t>
         </is>
       </c>
       <c r="P150" t="inlineStr">
@@ -12440,12 +12440,12 @@
       </c>
       <c r="Q150" t="inlineStr">
         <is>
-          <t>{'tbl_Locations', 'tbl_Sites', 'tbl_Events'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R150" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Sites.Site_Desc', 'tbl_Locations.Location_ID', 'tbl_Events.Location_ID', 'tbl_Sites.Site_Name', 'tbl_Sites.Site_ID', 'tbl_Locations.Site_ID'}</t>
         </is>
       </c>
       <c r="S150" t="inlineStr">
@@ -12455,7 +12455,7 @@
       </c>
       <c r="T150" t="inlineStr">
         <is>
-          <t>{'tbl_Sites.Site_Desc', 'tbl_Sites.Site_ID', 'tbl_Locations.Site_ID', 'tbl_Locations.Location_ID', 'tbl_Events.Location_ID', 'tbl_Sites.Site_Name', 'tbl_Events.Event_ID'}</t>
+          <t>{'tbl_Events.Event_ID'}</t>
         </is>
       </c>
       <c r="U150" t="n">
@@ -12510,7 +12510,7 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>{'tbl_Locations', 'tbl_Sites'}</t>
+          <t>{'tbl_Sites', 'tbl_Locations'}</t>
         </is>
       </c>
       <c r="P151" t="inlineStr">
@@ -12525,7 +12525,7 @@
       </c>
       <c r="R151" t="inlineStr">
         <is>
-          <t>{'tbl_Sites.Site_ID', 'tbl_Locations.PDOP', 'tbl_Sites.Site_Name', 'tbl_Locations.Site_ID', 'tbl_Locations.HDOP', 'tbl_Locations.EPE'}</t>
+          <t>{'tbl_Locations.PDOP', 'tbl_Locations.HDOP', 'tbl_Sites.Site_Name', 'tbl_Locations.EPE', 'tbl_Sites.Site_ID', 'tbl_Locations.Site_ID'}</t>
         </is>
       </c>
       <c r="S151" t="inlineStr">
@@ -12685,7 +12685,7 @@
       </c>
       <c r="R153" t="inlineStr">
         <is>
-          <t>{'tbl_Locations.County', 'tbl_Locations.Loc_Type'}</t>
+          <t>{'tbl_Locations.Loc_Type', 'tbl_Locations.County'}</t>
         </is>
       </c>
       <c r="S153" t="inlineStr">
@@ -12695,7 +12695,7 @@
       </c>
       <c r="T153" t="inlineStr">
         <is>
-          <t>{'tbl_Locations.Location_ID', "'shasta'\n```\n\n**Explanation:**  \n- `tbl_Locations.Loc_Type` (for grouping by location type)  \n- `tbl_Locations"}</t>
+          <t>{"'shasta'\n```\n\n**Explanation:**  \n- `tbl_Locations.Loc_Type` (for grouping by location type)  \n- `tbl_Locations", 'tbl_Locations.Location_ID'}</t>
         </is>
       </c>
       <c r="U153" t="n">
@@ -12722,35 +12722,35 @@
         <v>5705</v>
       </c>
       <c r="F154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Sites', 'tbl_Locations'}</t>
         </is>
       </c>
       <c r="P154" t="inlineStr">
@@ -12760,12 +12760,12 @@
       </c>
       <c r="Q154" t="inlineStr">
         <is>
-          <t>{'tbl_Locations', 'tbl_Sites'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R154" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Locations.Loc_Type', 'tbl_Sites.Site_Name', 'tbl_Sites.Site_ID', 'tbl_Locations.Site_ID'}</t>
         </is>
       </c>
       <c r="S154" t="inlineStr">
@@ -12775,7 +12775,7 @@
       </c>
       <c r="T154" t="inlineStr">
         <is>
-          <t>{'tbl_Sites.Site_ID', 'tbl_Locations.Site_ID', 'tbl_Sites.Site_Name', 'tbl_Locations.Loc_Type'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="U154" t="n">
@@ -12830,7 +12830,7 @@
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>{'tbl_Locations', 'tbl_Events'}</t>
+          <t>{'tbl_Events', 'tbl_Locations'}</t>
         </is>
       </c>
       <c r="P155" t="inlineStr">
@@ -12845,7 +12845,7 @@
       </c>
       <c r="R155" t="inlineStr">
         <is>
-          <t>{'tbl_Locations.Watershed', 'tbl_Locations.Subwatershed', 'tbl_Events.Location_ID', 'tbl_Locations.Location_ID', 'tbl_Events.Event_ID'}</t>
+          <t>{'tbl_Events.Event_ID', 'tbl_Locations.Location_ID', 'tbl_Locations.Watershed', 'tbl_Events.Location_ID', 'tbl_Locations.Subwatershed'}</t>
         </is>
       </c>
       <c r="S155" t="inlineStr">
@@ -13015,7 +13015,7 @@
       </c>
       <c r="T157" t="inlineStr">
         <is>
-          <t>{'tbl_Locations.Location_ID', 'tbl_Locations.Species', 'the above is sufficient.'}</t>
+          <t>{'tbl_Locations.Species', 'the above is sufficient.', 'tbl_Locations.Location_ID'}</t>
         </is>
       </c>
       <c r="U157" t="n">
@@ -13085,7 +13085,7 @@
       </c>
       <c r="R158" t="inlineStr">
         <is>
-          <t>{'tbl_Locations.Accuracy_Notes', 'tbl_Locations.Est_H_Error', 'tbl_Locations.Loc_Name', 'tbl_Locations.Coord_Units', 'tbl_Locations.X_Coord', 'tbl_Locations.Y_Coord', 'tbl_Locations.Loc_Type', 'tbl_Locations.Datum', 'tbl_Locations.Coord_System'}</t>
+          <t>{'tbl_Locations.Coord_Units', 'tbl_Locations.X_Coord', 'tbl_Locations.Est_H_Error', 'tbl_Locations.Coord_System', 'tbl_Locations.Y_Coord', 'tbl_Locations.Datum', 'tbl_Locations.Accuracy_Notes', 'tbl_Locations.Loc_Type', 'tbl_Locations.Loc_Name'}</t>
         </is>
       </c>
       <c r="S158" t="inlineStr">
@@ -13230,7 +13230,7 @@
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>{'tbl_MacroHabitat', 'tbl_Events'}</t>
+          <t>{'tbl_Events', 'tbl_MacroHabitat'}</t>
         </is>
       </c>
       <c r="P160" t="inlineStr">
@@ -13245,7 +13245,7 @@
       </c>
       <c r="R160" t="inlineStr">
         <is>
-          <t>{'tbl_MacroHabitat.MacroHab', 'tbl_MacroHabitat.LandUse', 'tbl_MacroHabitat.Aspect', 'tbl_MacroHabitat.Slope', 'tbl_MacroHabitat.Event_ID', 'tbl_MacroHabitat.Hydrology', 'tbl_Events.Start_Date', 'tbl_MacroHabitat.MicroHab', 'tbl_Events.Event_ID'}</t>
+          <t>{'tbl_Events.Event_ID', 'tbl_Events.Start_Date', 'tbl_MacroHabitat.Event_ID', 'tbl_MacroHabitat.MicroHab', 'tbl_MacroHabitat.LandUse', 'tbl_MacroHabitat.Slope', 'tbl_MacroHabitat.Aspect', 'tbl_MacroHabitat.Hydrology', 'tbl_MacroHabitat.MacroHab'}</t>
         </is>
       </c>
       <c r="S160" t="inlineStr">
@@ -13325,7 +13325,7 @@
       </c>
       <c r="R161" t="inlineStr">
         <is>
-          <t>{'tbl_MicroHabitat.Shrub', 'tbl_MicroHabitat.Litter', 'tbl_MicroHabitat.BareGround', 'tbl_MicroHabitat.WoodyDebris', 'tbl_MicroHabitat.CoverPercent', 'tbl_MicroHabitat.Rock', 'tbl_MicroHabitat.Phenology', 'tbl_MicroHabitat.Herb', 'tbl_MicroHabitat.Deciduous'}</t>
+          <t>{'tbl_MicroHabitat.Rock', 'tbl_MicroHabitat.Litter', 'tbl_MicroHabitat.Deciduous', 'tbl_MicroHabitat.Phenology', 'tbl_MicroHabitat.WoodyDebris', 'tbl_MicroHabitat.BareGround', 'tbl_MicroHabitat.Shrub', 'tbl_MicroHabitat.CoverPercent', 'tbl_MicroHabitat.Herb'}</t>
         </is>
       </c>
       <c r="S161" t="inlineStr">
@@ -13485,7 +13485,7 @@
       </c>
       <c r="R163" t="inlineStr">
         <is>
-          <t>{'tbl_Deadwood.Decay', 'tbl_Deadwood.MPD'}</t>
+          <t>{'tbl_Deadwood.MPD', 'tbl_Deadwood.Decay'}</t>
         </is>
       </c>
       <c r="S163" t="inlineStr">
@@ -13565,7 +13565,7 @@
       </c>
       <c r="R164" t="inlineStr">
         <is>
-          <t>{'tbl_Locations.Trail', 'tbl_Locations.Directions'}</t>
+          <t>{'tbl_Locations.Directions', 'tbl_Locations.Trail'}</t>
         </is>
       </c>
       <c r="S164" t="inlineStr">
@@ -13630,7 +13630,7 @@
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>{'tbl_Locations', 'tbl_Events'}</t>
+          <t>{'tbl_Events', 'tbl_Locations'}</t>
         </is>
       </c>
       <c r="P165" t="inlineStr">
@@ -13645,7 +13645,7 @@
       </c>
       <c r="R165" t="inlineStr">
         <is>
-          <t>{'tbl_Events.Event_Date', 'tbl_Events.Location_ID', 'tbl_Locations.Location_ID', 'tbl_Locations.SiteDescription'}</t>
+          <t>{'tbl_Locations.SiteDescription', 'tbl_Events.Location_ID', 'tbl_Events.Event_Date', 'tbl_Locations.Location_ID'}</t>
         </is>
       </c>
       <c r="S165" t="inlineStr">
@@ -13655,7 +13655,7 @@
       </c>
       <c r="T165" t="inlineStr">
         <is>
-          <t>{'tbl_Locations.Location_ID`\n- The value `2001` is used to filter the year in `tbl_Events', '2001\n```\n\n**Explanation:**  \n- We need the site description from locations (`tbl_Locations.SiteDescription`)\n- Only for those locations that are referenced by events in 2001 (`tbl_Events'}</t>
+          <t>{'2001\n```\n\n**Explanation:**  \n- We need the site description from locations (`tbl_Locations.SiteDescription`)\n- Only for those locations that are referenced by events in 2001 (`tbl_Events', 'tbl_Locations.Location_ID`\n- The value `2001` is used to filter the year in `tbl_Events'}</t>
         </is>
       </c>
       <c r="U165" t="n">
@@ -13710,7 +13710,7 @@
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies', 'tbl_Nests'}</t>
+          <t>{'tbl_Nests', 'tlu_PlantSpecies'}</t>
         </is>
       </c>
       <c r="P166" t="inlineStr">
@@ -13725,7 +13725,7 @@
       </c>
       <c r="R166" t="inlineStr">
         <is>
-          <t>{'tbl_Nests.SpCode', 'tlu_PlantSpecies.SpeciesCode', 'tlu_PlantSpecies.species', 'tbl_Nests.Event_ID', 'tlu_PlantSpecies.genus', 'tlu_PlantSpecies.CommonName'}</t>
+          <t>{'tlu_PlantSpecies.CommonName', 'tbl_Nests.SpCode', 'tlu_PlantSpecies.genus', 'tlu_PlantSpecies.species', 'tlu_PlantSpecies.SpeciesCode', 'tbl_Nests.Event_ID'}</t>
         </is>
       </c>
       <c r="S166" t="inlineStr">
@@ -13790,7 +13790,7 @@
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies', 'tbl_Overstory'}</t>
+          <t>{'tbl_Overstory', 'tlu_PlantSpecies'}</t>
         </is>
       </c>
       <c r="P167" t="inlineStr">
@@ -13885,7 +13885,7 @@
       </c>
       <c r="R168" t="inlineStr">
         <is>
-          <t>{'tbl_Saplings.DClass1', 'tbl_Saplings.DClass4', 'tbl_Saplings.DClass2', 'tbl_Saplings.DClass3', 'tbl_Saplings.spcode'}</t>
+          <t>{'tbl_Saplings.DClass4', 'tbl_Saplings.DClass1', 'tbl_Saplings.spcode', 'tbl_Saplings.DClass3', 'tbl_Saplings.DClass2'}</t>
         </is>
       </c>
       <c r="S168" t="inlineStr">
@@ -13950,7 +13950,7 @@
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies', 'tbl_Seedlings'}</t>
+          <t>{'tbl_Seedlings', 'tlu_PlantSpecies'}</t>
         </is>
       </c>
       <c r="P169" t="inlineStr">
@@ -13965,7 +13965,7 @@
       </c>
       <c r="R169" t="inlineStr">
         <is>
-          <t>{'tbl_Seedlings.Density', 'tbl_Seedlings.SpCode', 'tlu_PlantSpecies.SpeciesCode', 'tlu_PlantSpecies.genus'}</t>
+          <t>{'tlu_PlantSpecies.genus', 'tbl_Seedlings.SpCode', 'tbl_Seedlings.Density', 'tlu_PlantSpecies.SpeciesCode'}</t>
         </is>
       </c>
       <c r="S169" t="inlineStr">
@@ -14030,7 +14030,7 @@
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies', 'tbl_Events', 'tbl_Seedlings'}</t>
+          <t>{'tbl_Seedlings', 'tbl_Events', 'tlu_PlantSpecies'}</t>
         </is>
       </c>
       <c r="P170" t="inlineStr">
@@ -14045,7 +14045,7 @@
       </c>
       <c r="R170" t="inlineStr">
         <is>
-          <t>{'tbl_Events.Location_ID', 'tbl_Seedlings.Density', 'tbl_Seedlings.Event_ID', 'tlu_PlantSpecies.SpeciesCode', 'tbl_Seedlings.SpCode', 'tlu_PlantSpecies.genus', 'tbl_Events.Event_ID'}</t>
+          <t>{'tbl_Seedlings.Density', 'tbl_Events.Event_ID', 'tbl_Seedlings.Event_ID', 'tbl_Events.Location_ID', 'tbl_Seedlings.SpCode', 'tlu_PlantSpecies.genus', 'tlu_PlantSpecies.SpeciesCode'}</t>
         </is>
       </c>
       <c r="S170" t="inlineStr">
@@ -14205,7 +14205,7 @@
       </c>
       <c r="R172" t="inlineStr">
         <is>
-          <t>{'tbl_Tree_Tags.Tree_Tag_ID', 'tbl_Tree_Tags.SpCode', 'tbl_Tree_Tags.Ycoord', 'tbl_Tree_Tags.Xcoord'}</t>
+          <t>{'tbl_Tree_Tags.Xcoord', 'tbl_Tree_Tags.Tree_Tag_ID', 'tbl_Tree_Tags.SpCode', 'tbl_Tree_Tags.Ycoord'}</t>
         </is>
       </c>
       <c r="S172" t="inlineStr">
@@ -14270,7 +14270,7 @@
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>{'tbl_Tree_Tags', 'tbl_Overstory'}</t>
+          <t>{'tbl_Overstory', 'tbl_Tree_Tags'}</t>
         </is>
       </c>
       <c r="P173" t="inlineStr">
@@ -14285,7 +14285,7 @@
       </c>
       <c r="R173" t="inlineStr">
         <is>
-          <t>{'tbl_Tree_Tags.Tree_Tag_ID', 'tbl_Overstory.TreeCond', 'tbl_Tree_Tags.Tag', 'tbl_Overstory.TreeTag'}</t>
+          <t>{'tbl_Overstory.TreeCond', 'tbl_Overstory.TreeTag', 'tbl_Tree_Tags.Tag', 'tbl_Tree_Tags.Tree_Tag_ID'}</t>
         </is>
       </c>
       <c r="S173" t="inlineStr">
@@ -14295,7 +14295,7 @@
       </c>
       <c r="T173" t="inlineStr">
         <is>
-          <t>{'tlu_Tree_Cond.TreeCond_Text', 'tlu_Tree_Cond.TreeCond_Num'}</t>
+          <t>{'tlu_Tree_Cond.TreeCond_Num', 'tlu_Tree_Cond.TreeCond_Text'}</t>
         </is>
       </c>
       <c r="U173" t="n">
@@ -14365,7 +14365,7 @@
       </c>
       <c r="R174" t="inlineStr">
         <is>
-          <t>{'tbl_Overstory.TreeCond', 'tlu_Tree_Cond.TreeCond_Text', 'tlu_Tree_Cond.TreeCond_Num'}</t>
+          <t>{'tlu_Tree_Cond.TreeCond_Num', 'tbl_Overstory.TreeCond', 'tlu_Tree_Cond.TreeCond_Text'}</t>
         </is>
       </c>
       <c r="S174" t="inlineStr">
@@ -14402,35 +14402,35 @@
         <v>6224</v>
       </c>
       <c r="F175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G175" t="n">
-        <v>0</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="I175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J175" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K175" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M175" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="N175" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_WitnessTrees'}</t>
         </is>
       </c>
       <c r="P175" t="inlineStr">
@@ -14440,12 +14440,12 @@
       </c>
       <c r="Q175" t="inlineStr">
         <is>
-          <t>{'4`\n**but the above is the standard format', 'you can write:**\n- `tbl_WitnessTrees', 'tbl_WitnessTrees'}</t>
+          <t>{'you can write:**\n- `tbl_WitnessTrees', '4`\n**but the above is the standard format'}</t>
         </is>
       </c>
       <c r="R175" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_WitnessTrees.Witness_SpCode', 'tbl_WitnessTrees.Witness_DBH', 'tbl_WitnessTrees.Location_ID', 'tbl_WitnessTrees.Witness_stake'}</t>
         </is>
       </c>
       <c r="S175" t="inlineStr">
@@ -14455,7 +14455,7 @@
       </c>
       <c r="T175" t="inlineStr">
         <is>
-          <t>{'tbl_WitnessTrees.Location_ID', '4`\n**but the above is the standard format.)**', 'tbl_WitnessTrees.Witness_DBH', 'tbl_WitnessTrees.Witness_SpCode', 'tbl_WitnessTrees.Witness_stake', 'you can write:**\n- `tbl_WitnessTrees.Location_ID !'}</t>
+          <t>{'4`\n**but the above is the standard format.)**', 'you can write:**\n- `tbl_WitnessTrees.Location_ID !'}</t>
         </is>
       </c>
       <c r="U175" t="n">
@@ -14510,7 +14510,7 @@
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>{'tlu_Can_Pos', 'tbl_Overstory'}</t>
+          <t>{'tbl_Overstory', 'tlu_Can_Pos'}</t>
         </is>
       </c>
       <c r="P176" t="inlineStr">
@@ -14525,7 +14525,7 @@
       </c>
       <c r="R176" t="inlineStr">
         <is>
-          <t>{'tlu_Can_Pos.CanPos_Num', 'tbl_Overstory.CanPos', 'tlu_Can_Pos.CanPos_Name'}</t>
+          <t>{'tlu_Can_Pos.CanPos_Name', 'tbl_Overstory.CanPos', 'tlu_Can_Pos.CanPos_Num'}</t>
         </is>
       </c>
       <c r="S176" t="inlineStr">
@@ -14590,7 +14590,7 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies', 'tlu_Can_Pos', 'tbl_Overstory'}</t>
+          <t>{'tbl_Overstory', 'tlu_Can_Pos', 'tlu_PlantSpecies'}</t>
         </is>
       </c>
       <c r="P177" t="inlineStr">
@@ -14605,7 +14605,7 @@
       </c>
       <c r="R177" t="inlineStr">
         <is>
-          <t>{'tlu_Can_Pos.CanPos_Num', 'tlu_Can_Pos.CanPos_Name', 'tlu_PlantSpecies.SpeciesCode', 'tbl_Overstory.SpCode', 'tbl_Overstory.CanPos', 'tlu_PlantSpecies.CommonName'}</t>
+          <t>{'tlu_Can_Pos.CanPos_Name', 'tlu_PlantSpecies.CommonName', 'tbl_Overstory.CanPos', 'tbl_Overstory.SpCode', 'tlu_Can_Pos.CanPos_Num', 'tlu_PlantSpecies.SpeciesCode'}</t>
         </is>
       </c>
       <c r="S177" t="inlineStr">
@@ -14670,7 +14670,7 @@
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>{'tbl_Locations', 'tlu_topo_position'}</t>
+          <t>{'tlu_topo_position', 'tbl_Locations'}</t>
         </is>
       </c>
       <c r="P178" t="inlineStr">
@@ -14685,7 +14685,7 @@
       </c>
       <c r="R178" t="inlineStr">
         <is>
-          <t>{'tbl_Locations.Slope_shape', 'tbl_Locations.Topo_Position', 'tbl_Locations.Aspect', 'tbl_Locations.Slope', 'tbl_Locations.SiteDescription', 'tlu_topo_position.ID', 'tlu_topo_position.TopoPosition', 'tbl_Locations.Elevation'}</t>
+          <t>{'tbl_Locations.Topo_Position', 'tbl_Locations.Elevation', 'tbl_Locations.Slope', 'tlu_topo_position.ID', 'tlu_topo_position.TopoPosition', 'tbl_Locations.Slope_shape', 'tbl_Locations.SiteDescription', 'tbl_Locations.Aspect'}</t>
         </is>
       </c>
       <c r="S178" t="inlineStr">
@@ -14765,7 +14765,7 @@
       </c>
       <c r="R179" t="inlineStr">
         <is>
-          <t>{'tbl_Nests.SpCode', 'tbl_Nests.Nest_ID', 'tlu_Cover_Cls.CoverClass_Text', 'tbl_Nests.Cover', 'tlu_Cover_Cls.CoverClass_Num'}</t>
+          <t>{'tbl_Nests.Nest_ID', 'tbl_Nests.SpCode', 'tbl_Nests.Cover', 'tlu_Cover_Cls.CoverClass_Text', 'tlu_Cover_Cls.CoverClass_Num'}</t>
         </is>
       </c>
       <c r="S179" t="inlineStr">
@@ -14830,7 +14830,7 @@
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>{'tbl_Deadwood', 'tlu_DecayStage'}</t>
+          <t>{'tlu_DecayStage', 'tbl_Deadwood'}</t>
         </is>
       </c>
       <c r="P180" t="inlineStr">
@@ -14845,7 +14845,7 @@
       </c>
       <c r="R180" t="inlineStr">
         <is>
-          <t>{'tbl_Deadwood.Decay', 'tlu_DecayStage.DecayStage_ID', 'tlu_DecayStage.DecayStage_Descr'}</t>
+          <t>{'tlu_DecayStage.DecayStage_ID', 'tlu_DecayStage.DecayStage_Descr', 'tbl_Deadwood.Decay'}</t>
         </is>
       </c>
       <c r="S180" t="inlineStr">
@@ -14990,7 +14990,7 @@
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>{'tbl_Deadwood', 'tlu_DecayStage'}</t>
+          <t>{'tlu_DecayStage', 'tbl_Deadwood'}</t>
         </is>
       </c>
       <c r="P182" t="inlineStr">
@@ -15005,7 +15005,7 @@
       </c>
       <c r="R182" t="inlineStr">
         <is>
-          <t>{'tbl_Deadwood.Length', 'tlu_DecayStage.DecayStage_Descr', 'tbl_Deadwood.MPD', 'tlu_DecayStage.DecayStage_ID', 'tbl_Deadwood.Decay'}</t>
+          <t>{'tlu_DecayStage.DecayStage_ID', 'tbl_Deadwood.Length', 'tbl_Deadwood.MPD', 'tbl_Deadwood.Decay', 'tlu_DecayStage.DecayStage_Descr'}</t>
         </is>
       </c>
       <c r="S182" t="inlineStr">
@@ -15070,7 +15070,7 @@
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies', 'tbl_Nests', 'tlu_R1_RestOfPlot'}</t>
+          <t>{'tbl_Nests', 'tlu_R1_RestOfPlot', 'tlu_PlantSpecies'}</t>
         </is>
       </c>
       <c r="P183" t="inlineStr">
@@ -15085,7 +15085,7 @@
       </c>
       <c r="R183" t="inlineStr">
         <is>
-          <t>{'tlu_R1_RestOfPlot.Pres_Text', 'tbl_Nests.SpCode', 'tlu_R1_RestOfPlot.Pres_Num', 'tlu_PlantSpecies.SpeciesCode', 'tlu_PlantSpecies.genus', 'tbl_Nests.R1'}</t>
+          <t>{'tlu_R1_RestOfPlot.Pres_Text', 'tbl_Nests.SpCode', 'tbl_Nests.R1', 'tlu_R1_RestOfPlot.Pres_Num', 'tlu_PlantSpecies.genus', 'tlu_PlantSpecies.SpeciesCode'}</t>
         </is>
       </c>
       <c r="S183" t="inlineStr">
@@ -15095,7 +15095,7 @@
       </c>
       <c r="T183" t="inlineStr">
         <is>
-          <t>{'use that instead of SpeciesCode.)*', "'species occurred in rest of plot'\n\n*(If the foreign key is tlu_PlantSpecies.S"}</t>
+          <t>{"'species occurred in rest of plot'\n\n*(If the foreign key is tlu_PlantSpecies.S", 'use that instead of SpeciesCode.)*'}</t>
         </is>
       </c>
       <c r="U183" t="n">
@@ -15122,35 +15122,35 @@
         <v>5979</v>
       </c>
       <c r="F184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tlu_PlantSpecies'}</t>
         </is>
       </c>
       <c r="P184" t="inlineStr">
@@ -15160,12 +15160,12 @@
       </c>
       <c r="Q184" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R184" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tlu_PlantSpecies.genus', 'tlu_PlantSpecies.SpeciesNotes'}</t>
         </is>
       </c>
       <c r="S184" t="inlineStr">
@@ -15175,7 +15175,7 @@
       </c>
       <c r="T184" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies.SpeciesNotes', 'tlu_PlantSpecies.genus'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="U184" t="n">
@@ -15245,7 +15245,7 @@
       </c>
       <c r="R185" t="inlineStr">
         <is>
-          <t>{'tsys_App_Releases.File_name', 'tsys_App_Releases.Author_email', 'tsys_App_Releases.Author_org_name', 'tsys_App_Releases.Release_notes', 'tsys_App_Releases.Release_date', 'tsys_App_Releases.Database_title'}</t>
+          <t>{'tsys_App_Releases.Author_org_name', 'tsys_App_Releases.Author_email', 'tsys_App_Releases.Release_notes', 'tsys_App_Releases.Release_date', 'tsys_App_Releases.File_name', 'tsys_App_Releases.Database_title'}</t>
         </is>
       </c>
       <c r="S185" t="inlineStr">
@@ -15405,7 +15405,7 @@
       </c>
       <c r="R187" t="inlineStr">
         <is>
-          <t>{'tbl_Seedlings.Density', 'tbl_Events.Location_ID', 'tbl_Seedlings.Event_ID', 'tbl_Events.Event_Date', 'tbl_Events.Event_ID'}</t>
+          <t>{'tbl_Seedlings.Density', 'tbl_Events.Event_ID', 'tbl_Events.Event_Date', 'tbl_Seedlings.Event_ID', 'tbl_Events.Location_ID'}</t>
         </is>
       </c>
       <c r="S187" t="inlineStr">
@@ -15470,7 +15470,7 @@
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies', 'tbl_Events', 'tbl_Overstory'}</t>
+          <t>{'tbl_Events', 'tbl_Overstory', 'tlu_PlantSpecies'}</t>
         </is>
       </c>
       <c r="P188" t="inlineStr">
@@ -15485,7 +15485,7 @@
       </c>
       <c r="R188" t="inlineStr">
         <is>
-          <t>{'tbl_Overstory.DBH', 'tlu_PlantSpecies.SpeciesCode', 'tlu_PlantSpecies.species', 'tbl_Overstory.SpCode', 'tbl_Events.Event_ID', 'tbl_Overstory.Event_ID'}</t>
+          <t>{'tbl_Overstory.DBH', 'tbl_Events.Event_ID', 'tbl_Overstory.Event_ID', 'tbl_Overstory.SpCode', 'tlu_PlantSpecies.species', 'tlu_PlantSpecies.SpeciesCode'}</t>
         </is>
       </c>
       <c r="S188" t="inlineStr">
@@ -15575,7 +15575,7 @@
       </c>
       <c r="T189" t="inlineStr">
         <is>
-          <t>{'tlu_Roads_and_Trails.Layer (group by)', 'tlu_Roads_and_Trails.*', 'tlu_Roads_and_Trails.* (count))', 'tlu_Roads_and_Trails.Layer**\n\n(You may also write: tlu_Roads_and_Trails'}</t>
+          <t>{'tlu_Roads_and_Trails.Layer (group by)', 'tlu_Roads_and_Trails.* (count))', 'tlu_Roads_and_Trails.*', 'tlu_Roads_and_Trails.Layer**\n\n(You may also write: tlu_Roads_and_Trails'}</t>
         </is>
       </c>
       <c r="U189" t="n">
@@ -15735,7 +15735,7 @@
       </c>
       <c r="T191" t="inlineStr">
         <is>
-          <t>{'tlu_PlaceNames.ID', 'tlu_PlaceNames.State**'}</t>
+          <t>{'tlu_PlaceNames.State**', 'tlu_PlaceNames.ID'}</t>
         </is>
       </c>
       <c r="U191" t="n">
@@ -15762,35 +15762,35 @@
         <v>5917</v>
       </c>
       <c r="F192" t="n">
-        <v>0</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G192" t="n">
-        <v>0</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="I192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L192" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="M192" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="N192" t="n">
-        <v>0</v>
+        <v>0.8000000000000002</v>
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tlu_PlaceNames'}</t>
         </is>
       </c>
       <c r="P192" t="inlineStr">
@@ -15800,22 +15800,22 @@
       </c>
       <c r="Q192" t="inlineStr">
         <is>
-          <t>{'tlu_PlaceNames'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R192" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tlu_PlaceNames.utmE', 'tlu_PlaceNames.Name', 'tlu_PlaceNames.County', 'tlu_PlaceNames.State'}</t>
         </is>
       </c>
       <c r="S192" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tlu_PlaceNames.utmN'}</t>
         </is>
       </c>
       <c r="T192" t="inlineStr">
         <is>
-          <t>{'tlu_PlaceNames.utmE', 'tlu_PlaceNames.County', 'tlu_PlaceNames.utmN**', 'tlu_PlaceNames.Name', 'tlu_PlaceNames.State'}</t>
+          <t>{'tlu_PlaceNames.utmN**'}</t>
         </is>
       </c>
       <c r="U192" t="n">
@@ -15885,7 +15885,7 @@
       </c>
       <c r="R193" t="inlineStr">
         <is>
-          <t>{'tlu_Presence.Pres_Text', 'tlu_Presence.Pres_Num', 'tbl_Nests.Event_ID', 'tbl_Nests.Presence_First'}</t>
+          <t>{'tbl_Nests.Event_ID', 'tlu_Presence.Pres_Num', 'tbl_Nests.Presence_First', 'tlu_Presence.Pres_Text'}</t>
         </is>
       </c>
       <c r="S193" t="inlineStr">
@@ -16002,35 +16002,35 @@
         <v>6093</v>
       </c>
       <c r="F195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Seedlings', 'tlu_PlantSpecies'}</t>
         </is>
       </c>
       <c r="P195" t="inlineStr">
@@ -16040,12 +16040,12 @@
       </c>
       <c r="Q195" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies', 'tbl_Seedlings'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R195" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Seedlings.Density', 'tlu_PlantSpecies.CommonName', 'tbl_Seedlings.SpCode', 'tlu_PlantSpecies.genus', 'tlu_PlantSpecies.species', 'tlu_PlantSpecies.SpeciesCode'}</t>
         </is>
       </c>
       <c r="S195" t="inlineStr">
@@ -16055,7 +16055,7 @@
       </c>
       <c r="T195" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies.species', 'tbl_Seedlings.SpCode', 'tlu_PlantSpecies.genus', 'tbl_Seedlings.Density', 'tlu_PlantSpecies.CommonName', 'tlu_PlantSpecies.SpeciesCode'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="U195" t="n">
@@ -16082,35 +16082,35 @@
         <v>5939</v>
       </c>
       <c r="F196" t="n">
-        <v>0</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G196" t="n">
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="I196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J196" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="K196" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="L196" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="M196" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="N196" t="n">
-        <v>0</v>
+        <v>0.6666666666666665</v>
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Seedlings', 'tbl_Events'}</t>
         </is>
       </c>
       <c r="P196" t="inlineStr">
@@ -16120,22 +16120,22 @@
       </c>
       <c r="Q196" t="inlineStr">
         <is>
-          <t>{'if you want to be explicit about extracting the month: tbl_Events', 'tbl_Seedlings', 'tbl_Events'}</t>
+          <t>{'if you want to be explicit about extracting the month: tbl_Events'}</t>
         </is>
       </c>
       <c r="R196" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Seedlings.Density', 'tbl_Events.Event_ID', 'tbl_Seedlings.Event_ID'}</t>
         </is>
       </c>
       <c r="S196" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Events.Event_Date'}</t>
         </is>
       </c>
       <c r="T196" t="inlineStr">
         <is>
-          <t>{'if you want to be explicit about extracting the month: tbl_Events.Event_Date (month))', 'tbl_Events.Event_Date\n\n(Optionally', 'tbl_Seedlings.Density', 'tbl_Seedlings.Event_ID', 'tbl_Events.Event_ID'}</t>
+          <t>{'if you want to be explicit about extracting the month: tbl_Events.Event_Date (month))', 'tbl_Events.Event_Date\n\n(Optionally'}</t>
         </is>
       </c>
       <c r="U196" t="n">
@@ -16190,7 +16190,7 @@
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies', 'tbl_Tree_Tags'}</t>
+          <t>{'tbl_Tree_Tags', 'tlu_PlantSpecies'}</t>
         </is>
       </c>
       <c r="P197" t="inlineStr">
@@ -16205,7 +16205,7 @@
       </c>
       <c r="R197" t="inlineStr">
         <is>
-          <t>{'tbl_Tree_Tags.Location_ID', 'tbl_Tree_Tags.SpCode', 'tlu_PlantSpecies.CommonName', 'tlu_PlantSpecies.SpeciesCode'}</t>
+          <t>{'tlu_PlantSpecies.CommonName', 'tbl_Tree_Tags.SpCode', 'tlu_PlantSpecies.SpeciesCode', 'tbl_Tree_Tags.Location_ID'}</t>
         </is>
       </c>
       <c r="S197" t="inlineStr">
@@ -16270,7 +16270,7 @@
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>{'tbl_Locations', 'tbl_Tree_Tags', 'tlu_PlantSpecies'}</t>
+          <t>{'tbl_Tree_Tags', 'tbl_Locations', 'tlu_PlantSpecies'}</t>
         </is>
       </c>
       <c r="P198" t="inlineStr">
@@ -16285,7 +16285,7 @@
       </c>
       <c r="R198" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies.SpeciesCode', 'tbl_Tree_Tags.SpCode', 'tbl_Locations.Location_ID', 'tbl_Tree_Tags.Location_ID', 'tlu_PlantSpecies.genus', 'tlu_PlantSpecies.CommonName', 'tbl_Locations.Elevation'}</t>
+          <t>{'tbl_Locations.Elevation', 'tlu_PlantSpecies.CommonName', 'tbl_Tree_Tags.Location_ID', 'tbl_Locations.Location_ID', 'tbl_Tree_Tags.SpCode', 'tlu_PlantSpecies.genus', 'tlu_PlantSpecies.SpeciesCode'}</t>
         </is>
       </c>
       <c r="S198" t="inlineStr">
@@ -16365,7 +16365,7 @@
       </c>
       <c r="R199" t="inlineStr">
         <is>
-          <t>{'tbl_Locations.Coord_Units', 'tbl_Locations.Datum', 'tbl_Locations.Plot_ID', 'tbl_Locations.Coord_System', 'tbl_Locations.Eco_Notes'}</t>
+          <t>{'tbl_Locations.Coord_Units', 'tbl_Locations.Coord_System', 'tbl_Locations.Datum', 'tbl_Locations.Eco_Notes', 'tbl_Locations.Plot_ID'}</t>
         </is>
       </c>
       <c r="S199" t="inlineStr">
@@ -16615,7 +16615,7 @@
       </c>
       <c r="T202" t="inlineStr">
         <is>
-          <t>{'GV.CASEID', 'GV.VEHNO**\n\n(Explanation: To count different vehicles', 'since VEHNO is only unique within a CASEID.)'}</t>
+          <t>{'since VEHNO is only unique within a CASEID.)', 'GV.CASEID', 'GV.VEHNO**\n\n(Explanation: To count different vehicles'}</t>
         </is>
       </c>
       <c r="U202" t="n">
@@ -16695,7 +16695,7 @@
       </c>
       <c r="T203" t="inlineStr">
         <is>
-          <t>{'CRASH.CASEID', 'FIRE.FIRE'}</t>
+          <t>{'FIRE.FIRE', 'CRASH.CASEID'}</t>
         </is>
       </c>
       <c r="U203" t="n">
@@ -16840,7 +16840,7 @@
       </c>
       <c r="Q205" t="inlineStr">
         <is>
-          <t>{'you could add: EDREVENT', 'EDRSUMM', 'just EDREVENT'}</t>
+          <t>{'EDRSUMM', 'you could add: EDREVENT', 'just EDREVENT'}</t>
         </is>
       </c>
       <c r="R205" t="inlineStr">
@@ -16855,7 +16855,7 @@
       </c>
       <c r="T205" t="inlineStr">
         <is>
-          <t>{'EDREVENT.CASEID', 'just EDREVENT.* is sufficient', 'you could add: EDREVENT.VEHNO', 'EDREVENT.EDRSUMMNO', 'EDRSUMM.VEHNO', 'EDREVENT.*\n\n**(If you want to be more explicit about the foreign key chain', 'EDRSUMM.EDRSUMMNO', 'EDRSUMM.CASEID'}</t>
+          <t>{'EDREVENT.*\n\n**(If you want to be more explicit about the foreign key chain', 'EDRSUMM.VEHNO', 'EDRSUMM.EDRSUMMNO', 'EDREVENT.EDRSUMMNO', 'EDRSUMM.CASEID', 'just EDREVENT.* is sufficient', 'you could add: EDREVENT.VEHNO', 'EDREVENT.CASEID'}</t>
         </is>
       </c>
       <c r="U205" t="n">
@@ -16935,7 +16935,7 @@
       </c>
       <c r="T206" t="inlineStr">
         <is>
-          <t>{'OCC.OCCNO', 'EMSCARE.CASEID', 'OCC.VEHNO', 'EMSCARE.OCCNO', 'OCC.CASEID', 'EMSCARE.VEHNO'}</t>
+          <t>{'OCC.CASEID', 'OCC.VEHNO', 'OCC.OCCNO', 'EMSCARE.VEHNO', 'EMSCARE.CASEID', 'EMSCARE.OCCNO'}</t>
         </is>
       </c>
       <c r="U206" t="n">
@@ -17240,7 +17240,7 @@
       </c>
       <c r="Q210" t="inlineStr">
         <is>
-          <t>{'CRASH', 'OCC'}</t>
+          <t>{'OCC', 'CRASH'}</t>
         </is>
       </c>
       <c r="R210" t="inlineStr">
@@ -17255,7 +17255,7 @@
       </c>
       <c r="T210" t="inlineStr">
         <is>
-          <t>{'CRASH.CASEID', 'OCC.ROLE', 'OCC.ALCTESTRESULT', 'OCC.CASEID'}</t>
+          <t>{'OCC.ROLE', 'OCC.ALCTESTRESULT', 'OCC.CASEID', 'CRASH.CASEID'}</t>
         </is>
       </c>
       <c r="U210" t="n">
@@ -17325,12 +17325,12 @@
       </c>
       <c r="R211" t="inlineStr">
         <is>
-          <t>{'GV.MAKE', 'GV.CURBWT', 'GV.MODEL'}</t>
+          <t>{'GV.CURBWT', 'GV.MODEL', 'GV.MAKE'}</t>
         </is>
       </c>
       <c r="S211" t="inlineStr">
         <is>
-          <t>{'VPICDECODE.CASEID', 'GV.CASEID', 'VPICDECODE.VEHNO', 'VPICDECODE.Model', 'GV.VEHNO', 'VPICDECODE.Make'}</t>
+          <t>{'GV.CASEID', 'VPICDECODE.VEHNO', 'GV.VEHNO', 'VPICDECODE.CASEID', 'VPICDECODE.Model', 'VPICDECODE.Make'}</t>
         </is>
       </c>
       <c r="T211" t="inlineStr">
@@ -17485,7 +17485,7 @@
       </c>
       <c r="R213" t="inlineStr">
         <is>
-          <t>{'GV.CASEID', 'GV.LIGHTCOND'}</t>
+          <t>{'GV.LIGHTCOND', 'GV.CASEID'}</t>
         </is>
       </c>
       <c r="S213" t="inlineStr">
@@ -17495,7 +17495,7 @@
       </c>
       <c r="T213" t="inlineStr">
         <is>
-          <t>{'CRASH.CASEID', 'CRASH.CASEID**'}</t>
+          <t>{'CRASH.CASEID**', 'CRASH.CASEID'}</t>
         </is>
       </c>
       <c r="U213" t="n">
@@ -17725,17 +17725,17 @@
       </c>
       <c r="R216" t="inlineStr">
         <is>
-          <t>{'GV.CASEID', 'GV.SPEEDLIMIT', 'GV.VEHNO'}</t>
+          <t>{'GV.SPEEDLIMIT', 'GV.CASEID', 'GV.VEHNO'}</t>
         </is>
       </c>
       <c r="S216" t="inlineStr">
         <is>
-          <t>{'EDRPRECRASH.PCODE', 'EDRPRECRASH.CASEID', 'EDRPRECRASH.PVALUE', 'EDRPRECRASH.VEHNO'}</t>
+          <t>{'EDRPRECRASH.PCODE', 'EDRPRECRASH.VEHNO', 'EDRPRECRASH.CASEID', 'EDRPRECRASH.PVALUE'}</t>
         </is>
       </c>
       <c r="T216" t="inlineStr">
         <is>
-          <t>{'EDREVENT.MAXDVSPEED', 'EDREVENT.CASEID', 'EDREVENT.VEHNO'}</t>
+          <t>{'EDREVENT.CASEID', 'EDREVENT.MAXDVSPEED', 'EDREVENT.VEHNO'}</t>
         </is>
       </c>
       <c r="U216" t="n">
@@ -17895,7 +17895,7 @@
       </c>
       <c r="T218" t="inlineStr">
         <is>
-          <t>{'GV.CASEID', 'GV.VEHNO', 'these are the relevant columns and value.)**'}</t>
+          <t>{'these are the relevant columns and value.)**', 'GV.CASEID', 'GV.VEHNO'}</t>
         </is>
       </c>
       <c r="U218" t="n">
@@ -17970,7 +17970,7 @@
       </c>
       <c r="S219" t="inlineStr">
         <is>
-          <t>{'INTRUSION.CASEID', 'INTRUSION.INTMAG'}</t>
+          <t>{'INTRUSION.INTMAG', 'INTRUSION.CASEID'}</t>
         </is>
       </c>
       <c r="T219" t="inlineStr">
@@ -18045,7 +18045,7 @@
       </c>
       <c r="R220" t="inlineStr">
         <is>
-          <t>{'INTRUSION.CASEID', 'INTRUSION.INTMAG'}</t>
+          <t>{'INTRUSION.INTMAG', 'INTRUSION.CASEID'}</t>
         </is>
       </c>
       <c r="S220" t="inlineStr">
@@ -18055,7 +18055,7 @@
       </c>
       <c r="T220" t="inlineStr">
         <is>
-          <t>{'CRASH.CASEID', 'CRASH.CASEID**'}</t>
+          <t>{'CRASH.CASEID**', 'CRASH.CASEID'}</t>
         </is>
       </c>
       <c r="U220" t="n">
@@ -18125,7 +18125,7 @@
       </c>
       <c r="R221" t="inlineStr">
         <is>
-          <t>{'INTRUSION.INTCOMP', 'INTRUSION.CASEID', 'INTRUSION.VEHNO', 'INTRUSION.INTDIRECT', 'INTRUSION.INTMAG'}</t>
+          <t>{'INTRUSION.INTCOMP', 'INTRUSION.VEHNO', 'INTRUSION.INTDIRECT', 'INTRUSION.INTMAG', 'INTRUSION.CASEID'}</t>
         </is>
       </c>
       <c r="S221" t="inlineStr">
@@ -18295,7 +18295,7 @@
       </c>
       <c r="T223" t="inlineStr">
         <is>
-          <t>{'COUNT(INJURY.*)**', 'INJURY.BODYREGION'}</t>
+          <t>{'INJURY.BODYREGION', 'COUNT(INJURY.*)**'}</t>
         </is>
       </c>
       <c r="U223" t="n">
@@ -18375,7 +18375,7 @@
       </c>
       <c r="T224" t="inlineStr">
         <is>
-          <t>{'INJURY.INJLEVEL', 'INJURY.***'}</t>
+          <t>{'INJURY.***', 'INJURY.INJLEVEL'}</t>
         </is>
       </c>
       <c r="U224" t="n">
@@ -18455,7 +18455,7 @@
       </c>
       <c r="T225" t="inlineStr">
         <is>
-          <t>{'CDC.VEHNO', 'INJURY.CASEID', 'INJURY.VEHNO', 'CDC.DVENERGY', 'CDC.CASEID', 'INJURY.*'}</t>
+          <t>{'INJURY.CASEID', 'CDC.CASEID', 'INJURY.VEHNO', 'INJURY.*', 'CDC.VEHNO', 'CDC.DVENERGY'}</t>
         </is>
       </c>
       <c r="U225" t="n">
@@ -18615,7 +18615,7 @@
       </c>
       <c r="T227" t="inlineStr">
         <is>
-          <t>{'INJURY.INJLEVEL', 'INJURY.BODYREGION', 'INJURY.*'}</t>
+          <t>{'INJURY.BODYREGION', 'INJURY.INJLEVEL', 'INJURY.*'}</t>
         </is>
       </c>
       <c r="U227" t="n">
@@ -18690,12 +18690,12 @@
       </c>
       <c r="S228" t="inlineStr">
         <is>
-          <t>{'INJURY.AIS', 'VPICDECODE.CASEID', 'VPICDECODE.Make', 'VPICDECODE.VEHNO'}</t>
+          <t>{'VPICDECODE.CASEID', 'VPICDECODE.Make', 'INJURY.AIS', 'VPICDECODE.VEHNO'}</t>
         </is>
       </c>
       <c r="T228" t="inlineStr">
         <is>
-          <t>{'INJURY.INJLEVEL', 'GV.VEHNO', 'GV.CASEID', 'GV.MAKE'}</t>
+          <t>{'GV.VEHNO', 'GV.CASEID', 'INJURY.INJLEVEL', 'GV.MAKE'}</t>
         </is>
       </c>
       <c r="U228" t="n">
@@ -18722,60 +18722,60 @@
         <v>11059</v>
       </c>
       <c r="F229" t="n">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="G229" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="I229" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J229" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K229" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="L229" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M229" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="N229" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="O229" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'INJURY'}</t>
         </is>
       </c>
       <c r="P229" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'VPICDECODE'}</t>
         </is>
       </c>
       <c r="Q229" t="inlineStr">
         <is>
-          <t>{'GV', 'INJURY', 'OCC'}</t>
+          <t>{'GV', 'OCC'}</t>
         </is>
       </c>
       <c r="R229" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'INJURY.VEHNO', 'INJURY.REGION'}</t>
         </is>
       </c>
       <c r="S229" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'INJURY.CASEID', 'VPICDECODE.CASEID', 'VPICDECODE.Make', 'VPICDECODE.VEHNO'}</t>
         </is>
       </c>
       <c r="T229" t="inlineStr">
         <is>
-          <t>{'INJURY.AISCODE', 'GV.MAKE', 'OCC.VEHNO', 'INJURY.VEHNO', 'INJURY.REGION', 'INJURY.OCCNO'}</t>
+          <t>{'INJURY.OCCNO', 'INJURY.AISCODE', 'GV.MAKE', 'OCC.VEHNO'}</t>
         </is>
       </c>
       <c r="U229" t="n">
@@ -18935,7 +18935,7 @@
       </c>
       <c r="T231" t="inlineStr">
         <is>
-          <t>{'CRASH.CASEID', 'EMSCARE.CASEID'}</t>
+          <t>{'EMSCARE.CASEID', 'CRASH.CASEID'}</t>
         </is>
       </c>
       <c r="U231" t="n">
@@ -19015,7 +19015,7 @@
       </c>
       <c r="T232" t="inlineStr">
         <is>
-          <t>{'CRASH.CASEID', 'EMSCARE.CASEID', 'CRASH.CRASHTIME'}</t>
+          <t>{'EMSCARE.CASEID', 'CRASH.CRASHTIME', 'CRASH.CASEID'}</t>
         </is>
       </c>
       <c r="U232" t="n">
@@ -19095,7 +19095,7 @@
       </c>
       <c r="T233" t="inlineStr">
         <is>
-          <t>{'CRASH.CASEID', 'EMSCARE.CASEID', 'CRASH.CRASHTIME'}</t>
+          <t>{'EMSCARE.CASEID', 'CRASH.CRASHTIME', 'CRASH.CASEID'}</t>
         </is>
       </c>
       <c r="U233" t="n">
@@ -19165,7 +19165,7 @@
       </c>
       <c r="R234" t="inlineStr">
         <is>
-          <t>{'EMSCARE.ARRMEDICAL', 'EMSCARE.EMSTYPE', 'EMSCARE.SCENEARR', 'EMSCARE.CASEID', 'EMSCARE.NOTIFIED', 'EMSCARE.SCENEDEP'}</t>
+          <t>{'EMSCARE.ARRMEDICAL', 'EMSCARE.NOTIFIED', 'EMSCARE.CASEID', 'EMSCARE.SCENEARR', 'EMSCARE.EMSTYPE', 'EMSCARE.SCENEDEP'}</t>
         </is>
       </c>
       <c r="S234" t="inlineStr">
@@ -19250,12 +19250,12 @@
       </c>
       <c r="S235" t="inlineStr">
         <is>
-          <t>{'VPICDECODE.Make', 'VPICDECODE.Model'}</t>
+          <t>{'VPICDECODE.Model', 'VPICDECODE.Make'}</t>
         </is>
       </c>
       <c r="T235" t="inlineStr">
         <is>
-          <t>{'GV.MAKE', 'GV.MODEL'}</t>
+          <t>{'GV.MODEL', 'GV.MAKE'}</t>
         </is>
       </c>
       <c r="U235" t="n">
@@ -19335,7 +19335,7 @@
       </c>
       <c r="T236" t="inlineStr">
         <is>
-          <t>{'VPICDECODE.ModelYear', 'VPICDECODE.VEHNO'}</t>
+          <t>{'VPICDECODE.VEHNO', 'VPICDECODE.ModelYear'}</t>
         </is>
       </c>
       <c r="U236" t="n">
@@ -19395,7 +19395,7 @@
       </c>
       <c r="P237" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'VPICDECODE'}</t>
         </is>
       </c>
       <c r="Q237" t="inlineStr">
@@ -19410,7 +19410,7 @@
       </c>
       <c r="S237" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'VPICDECODE.Make', 'VPICDECODE.ModelYear'}</t>
         </is>
       </c>
       <c r="T237" t="inlineStr">
@@ -19480,7 +19480,7 @@
       </c>
       <c r="Q238" t="inlineStr">
         <is>
-          <t>{'we use the phrase', 'e'}</t>
+          <t>{'e', 'we use the phrase'}</t>
         </is>
       </c>
       <c r="R238" t="inlineStr">
@@ -19735,7 +19735,7 @@
       </c>
       <c r="T241" t="inlineStr">
         <is>
-          <t>{'GLAZING.CATEGORY', 'GLAZING.GLAZPRE**'}</t>
+          <t>{'GLAZING.GLAZPRE**', 'GLAZING.CATEGORY'}</t>
         </is>
       </c>
       <c r="U241" t="n">
@@ -19895,7 +19895,7 @@
       </c>
       <c r="T243" t="inlineStr">
         <is>
-          <t>{'CRASH.CASEID', 'OCCONTACT.CONTAREA', 'OCCONTACT.CONTCOMP', "CRASH.CASEID\n\n*(Note: Replace 'glazing' with the actual value/code used in your database to represent glass/glazing in OCCONTACT", 'OCCONTACT.CASEID'}</t>
+          <t>{'OCCONTACT.CONTAREA', 'OCCONTACT.CASEID', 'OCCONTACT.CONTCOMP', 'CRASH.CASEID', "CRASH.CASEID\n\n*(Note: Replace 'glazing' with the actual value/code used in your database to represent glass/glazing in OCCONTACT"}</t>
         </is>
       </c>
       <c r="U243" t="n">
@@ -19922,35 +19922,35 @@
         <v>10744</v>
       </c>
       <c r="F244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'TIREPLAC'}</t>
         </is>
       </c>
       <c r="P244" t="inlineStr">
@@ -19960,12 +19960,12 @@
       </c>
       <c r="Q244" t="inlineStr">
         <is>
-          <t>{'TIREPLAC'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R244" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'TIREPLAC.RECFRONT1'}</t>
         </is>
       </c>
       <c r="S244" t="inlineStr">
@@ -19975,7 +19975,7 @@
       </c>
       <c r="T244" t="inlineStr">
         <is>
-          <t>{'TIREPLAC.RECFRONT1'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="U244" t="n">
@@ -20055,7 +20055,7 @@
       </c>
       <c r="T245" t="inlineStr">
         <is>
-          <t>{'but these are the columns and likely values to use.)*', 'GLAZING.GLAZIMP', 'GLAZING.VEHNO'}</t>
+          <t>{'GLAZING.GLAZIMP', 'but these are the columns and likely values to use.)*', 'GLAZING.VEHNO'}</t>
         </is>
       </c>
       <c r="U245" t="n">
@@ -20110,7 +20110,7 @@
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>{'GLAZING', 'GV'}</t>
+          <t>{'GV', 'GLAZING'}</t>
         </is>
       </c>
       <c r="P246" t="inlineStr">
@@ -20125,7 +20125,7 @@
       </c>
       <c r="R246" t="inlineStr">
         <is>
-          <t>{'GLAZING.VEHNO', 'GV.CASEID', 'GLAZING.GLAZIMP', 'GV.VEHNO', 'GLAZING.CASEID'}</t>
+          <t>{'GV.CASEID', 'GLAZING.GLAZIMP', 'GV.VEHNO', 'GLAZING.VEHNO', 'GLAZING.CASEID'}</t>
         </is>
       </c>
       <c r="S246" t="inlineStr">
@@ -20200,7 +20200,7 @@
       </c>
       <c r="Q247" t="inlineStr">
         <is>
-          <t>{'CRASH', 'GV'}</t>
+          <t>{'GV', 'CRASH'}</t>
         </is>
       </c>
       <c r="R247" t="inlineStr">
@@ -20215,7 +20215,7 @@
       </c>
       <c r="T247" t="inlineStr">
         <is>
-          <t>{'CRASH.CASEID', 'ADAPT.ADAPT', 'ADAPT.CASEID', 'GV.CASEID', 'GV.VEHNO', 'ADAPT.VEHNO'}</t>
+          <t>{'GV.CASEID', 'ADAPT.ADAPT', 'ADAPT.CASEID', 'CRASH.CASEID', 'GV.VEHNO', 'ADAPT.VEHNO'}</t>
         </is>
       </c>
       <c r="U247" t="n">
@@ -20242,35 +20242,35 @@
         <v>11033</v>
       </c>
       <c r="F248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'EDRPOSTCRASH'}</t>
         </is>
       </c>
       <c r="P248" t="inlineStr">
@@ -20280,12 +20280,12 @@
       </c>
       <c r="Q248" t="inlineStr">
         <is>
-          <t>{'EDRPOSTCRASH'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R248" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'EDRPOSTCRASH.PCODE', 'EDRPOSTCRASH.PVALUE'}</t>
         </is>
       </c>
       <c r="S248" t="inlineStr">
@@ -20295,7 +20295,7 @@
       </c>
       <c r="T248" t="inlineStr">
         <is>
-          <t>{'EDRPOSTCRASH.PCODE', 'EDRPOSTCRASH.PVALUE'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="U248" t="n">
@@ -20450,12 +20450,12 @@
       </c>
       <c r="S250" t="inlineStr">
         <is>
-          <t>{'EDRPRECRASH.PCODE', 'EDRPRECRASH.CASEID', 'EDRPRECRASH.PVALUE'}</t>
+          <t>{'EDRPRECRASH.PCODE', 'EDRPRECRASH.PVALUE', 'EDRPRECRASH.CASEID'}</t>
         </is>
       </c>
       <c r="T250" t="inlineStr">
         <is>
-          <t>{'EDREVENT.DVSPEED', 'EDREVENT.CASEID'}</t>
+          <t>{'EDREVENT.CASEID', 'EDREVENT.DVSPEED'}</t>
         </is>
       </c>
       <c r="U250" t="n">
@@ -20515,12 +20515,12 @@
       </c>
       <c r="P251" t="inlineStr">
         <is>
-          <t>{'EDRPRECRASH', 'VPICDECODE'}</t>
+          <t>{'VPICDECODE', 'EDRPRECRASH'}</t>
         </is>
       </c>
       <c r="Q251" t="inlineStr">
         <is>
-          <t>{'GV', 'so those columns are included', 'EDREVENT'}</t>
+          <t>{'so those columns are included', 'GV', 'EDREVENT'}</t>
         </is>
       </c>
       <c r="R251" t="inlineStr">
@@ -20530,12 +20530,12 @@
       </c>
       <c r="S251" t="inlineStr">
         <is>
-          <t>{'EDRPRECRASH.PCODE', 'VPICDECODE.CASEID', 'EDRPRECRASH.PVALUE', 'EDRPRECRASH.VEHNO', 'VPICDECODE.VEHNO', 'EDRPRECRASH.CASEID', 'VPICDECODE.Model', 'VPICDECODE.Make'}</t>
+          <t>{'VPICDECODE.VEHNO', 'EDRPRECRASH.PCODE', 'VPICDECODE.CASEID', 'VPICDECODE.Model', 'EDRPRECRASH.CASEID', 'EDRPRECRASH.VEHNO', 'EDRPRECRASH.PVALUE', 'VPICDECODE.Make'}</t>
         </is>
       </c>
       <c r="T251" t="inlineStr">
         <is>
-          <t>{'EDREVENT.CASEID', 'GV.CASEID', 'EDREVENT.VEHNO', 'GV.MODEL', 'so those columns are included.- We need to join EDREVENT and GV on CASEID and VEHNO', 'EDREVENT.DVSPEED', 'GV.MAKE', 'GV.VEHNO'}</t>
+          <t>{'GV.CASEID', 'EDREVENT.VEHNO', 'GV.MAKE', 'so those columns are included.- We need to join EDREVENT and GV on CASEID and VEHNO', 'GV.VEHNO', 'EDREVENT.DVSPEED', 'GV.MODEL', 'EDREVENT.CASEID'}</t>
         </is>
       </c>
       <c r="U251" t="n">
@@ -20760,7 +20760,7 @@
       </c>
       <c r="Q254" t="inlineStr">
         <is>
-          <t>{'INJURY', 'but INJURY'}</t>
+          <t>{'but INJURY', 'INJURY'}</t>
         </is>
       </c>
       <c r="R254" t="inlineStr">
@@ -20775,7 +20775,7 @@
       </c>
       <c r="T254" t="inlineStr">
         <is>
-          <t>{'INJURY.BODYREGION', 'but INJURY.BODYREGION', 'INJURY.***\n\n(You could also write INJURY', 'INJURY.INJNO if you want to be more specific about the count', 'INJURY.* is sufficient for schema linking'}</t>
+          <t>{'INJURY.BODYREGION', 'INJURY.***\n\n(You could also write INJURY', 'INJURY.INJNO if you want to be more specific about the count', 'INJURY.* is sufficient for schema linking', 'but INJURY.BODYREGION'}</t>
         </is>
       </c>
       <c r="U254" t="n">
@@ -21165,7 +21165,7 @@
       </c>
       <c r="R259" t="inlineStr">
         <is>
-          <t>{'OCC.BELTUSE', 'OCC.CASEID'}</t>
+          <t>{'OCC.CASEID', 'OCC.BELTUSE'}</t>
         </is>
       </c>
       <c r="S259" t="inlineStr">
@@ -21320,7 +21320,7 @@
       </c>
       <c r="Q261" t="inlineStr">
         <is>
-          <t>{'1)\n- OCC', '1\n```\n\n**Explanation:**  \n- OCC'}</t>
+          <t>{'1\n```\n\n**Explanation:**  \n- OCC', '1)\n- OCC'}</t>
         </is>
       </c>
       <c r="R261" t="inlineStr">
@@ -21335,7 +21335,7 @@
       </c>
       <c r="T261" t="inlineStr">
         <is>
-          <t>{'1)\n- OCC.BELTUSE: to group by belt use category\n- 1: the lookup code for fatality\n\n**No foreign keys are needed for this query', '1\n```\n\n**Explanation:**  \n- OCC.MORTALITY: to filter for fatalities (where value'}</t>
+          <t>{'1\n```\n\n**Explanation:**  \n- OCC.MORTALITY: to filter for fatalities (where value', '1)\n- OCC.BELTUSE: to group by belt use category\n- 1: the lookup code for fatality\n\n**No foreign keys are needed for this query'}</t>
         </is>
       </c>
       <c r="U261" t="n">
@@ -21485,7 +21485,7 @@
       </c>
       <c r="R263" t="inlineStr">
         <is>
-          <t>{'CDC.CASEID', 'CDC.PDOF', 'CDC.VEHNO'}</t>
+          <t>{'CDC.CASEID', 'CDC.VEHNO', 'CDC.PDOF'}</t>
         </is>
       </c>
       <c r="S263" t="inlineStr">
@@ -21602,35 +21602,35 @@
         <v>10802</v>
       </c>
       <c r="F265" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G265" t="n">
-        <v>0</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="I265" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J265" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K265" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="L265" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M265" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="N265" t="n">
-        <v>0</v>
+        <v>0.3333333333333334</v>
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'CDC'}</t>
         </is>
       </c>
       <c r="P265" t="inlineStr">
@@ -21640,12 +21640,12 @@
       </c>
       <c r="Q265" t="inlineStr">
         <is>
-          <t>{'CDC', 'include both', '999', 'use CDC'}</t>
+          <t>{'999', 'use CDC', 'include both'}</t>
         </is>
       </c>
       <c r="R265" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'CDC.CMAX'}</t>
         </is>
       </c>
       <c r="S265" t="inlineStr">
@@ -21655,7 +21655,7 @@
       </c>
       <c r="T265" t="inlineStr">
         <is>
-          <t>{'CDC.CMAX', 'use CDC.CMAX', 'include both.)*', 'CDC.CMAXHEIGHT', '999.If you want to cover both possible columns'}</t>
+          <t>{'include both.)*', 'CDC.CMAXHEIGHT', 'use CDC.CMAX', '999.If you want to cover both possible columns'}</t>
         </is>
       </c>
       <c r="U265" t="n">
@@ -21725,7 +21725,7 @@
       </c>
       <c r="R266" t="inlineStr">
         <is>
-          <t>{'CDC.CASEID', 'CDC.DAMAPILLAR', 'CDC.VEHNO'}</t>
+          <t>{'CDC.CASEID', 'CDC.VEHNO', 'CDC.DAMAPILLAR'}</t>
         </is>
       </c>
       <c r="S266" t="inlineStr">
@@ -21815,7 +21815,7 @@
       </c>
       <c r="T267" t="inlineStr">
         <is>
-          <t>{'GV.CASEID', 'CDC.DAMBPILLAR', 'GV.VEHNO', 'CDC.DAMCPILLAR', 'CDC.DAMAPILLAR'}</t>
+          <t>{'GV.CASEID', 'CDC.DAMAPILLAR', 'CDC.DAMCPILLAR', 'GV.VEHNO', 'CDC.DAMBPILLAR'}</t>
         </is>
       </c>
       <c r="U267" t="n">
@@ -21955,7 +21955,7 @@
       </c>
       <c r="P269" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'CDC'}</t>
         </is>
       </c>
       <c r="Q269" t="inlineStr">
@@ -21970,7 +21970,7 @@
       </c>
       <c r="S269" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'CDC.DVBARRIER'}</t>
         </is>
       </c>
       <c r="T269" t="inlineStr">
@@ -22050,12 +22050,12 @@
       </c>
       <c r="S270" t="inlineStr">
         <is>
-          <t>{'CDC.C1', 'CDC.C4', 'CDC.CMAX', 'CDC.C2', 'CDC.C6', 'CDC.VEHNO', 'CDC.CASEID', 'CDC.C3', 'CDC.C5'}</t>
+          <t>{'CDC.C1', 'CDC.C2', 'CDC.CASEID', 'CDC.C3', 'CDC.CMAX', 'CDC.VEHNO', 'CDC.C5', 'CDC.C6', 'CDC.C4'}</t>
         </is>
       </c>
       <c r="T270" t="inlineStr">
         <is>
-          <t>{'VEHMEAS.FRNTHOOD', 'VEHMEAS.RROH', 'VEHMEAS.SIDEGLAZ', 'VEHMEAS.WBRIGHT', 'VEHMEAS.WBLEFT', 'VEHMEAS.CASEID', 'VEHMEAS.SIDEDOOR', 'VEHMEAS.VERTDOOR', 'VEHMEAS.SIDEROOF', 'VEHMEAS.FRNTPILL', 'VEHMEAS.RRBC', 'VEHMEAS.LFBC', 'VEHMEAS.BACKLIGHT', 'VEHMEAS.FRNTBUMP', 'VEHMEAS.BACKTRUNK', 'VEHMEAS.VERTROOF', 'VEHMEAS.BACKBPILL', 'VEHMEAS.LRBC', 'VEHMEAS.REARBUMP', 'VEHMEAS.PBED', 'VEHMEAS.RFBC', 'VEHMEAS.LROH', 'VEHMEAS.FRNTWIND', 'VEHMEAS.RFOH', 'VEHMEAS.BACKPICKUP', 'VEHMEAS.VEHNO', 'VEHMEAS.VERTGLAZ', 'VEHMEAS.LFOH'}</t>
+          <t>{'VEHMEAS.BACKLIGHT', 'VEHMEAS.LFOH', 'VEHMEAS.VEHNO', 'VEHMEAS.SIDEGLAZ', 'VEHMEAS.RFBC', 'VEHMEAS.BACKBPILL', 'VEHMEAS.FRNTWIND', 'VEHMEAS.RFOH', 'VEHMEAS.SIDEROOF', 'VEHMEAS.BACKTRUNK', 'VEHMEAS.SIDEDOOR', 'VEHMEAS.RRBC', 'VEHMEAS.WBLEFT', 'VEHMEAS.BACKPICKUP', 'VEHMEAS.CASEID', 'VEHMEAS.FRNTHOOD', 'VEHMEAS.REARBUMP', 'VEHMEAS.FRNTPILL', 'VEHMEAS.VERTROOF', 'VEHMEAS.LRBC', 'VEHMEAS.VERTDOOR', 'VEHMEAS.LROH', 'VEHMEAS.RROH', 'VEHMEAS.FRNTBUMP', 'VEHMEAS.WBRIGHT', 'VEHMEAS.VERTGLAZ', 'VEHMEAS.PBED', 'VEHMEAS.LFBC'}</t>
         </is>
       </c>
       <c r="U270" t="n">
@@ -22130,12 +22130,12 @@
       </c>
       <c r="S271" t="inlineStr">
         <is>
-          <t>{'EDREVENT.EDRSUMMNO', 'EDREVENT.CASEID', 'EDREVENT.VEHNO'}</t>
+          <t>{'EDREVENT.CASEID', 'EDREVENT.VEHNO', 'EDREVENT.EDRSUMMNO'}</t>
         </is>
       </c>
       <c r="T271" t="inlineStr">
         <is>
-          <t>{'EDRSUMM.CASEID', 'EDRSUMM.NUMEVENTS', 'EDRSUMM.VEHNO', 'EDRSUMM.EDRSUMMNO'}</t>
+          <t>{'EDRSUMM.VEHNO', 'EDRSUMM.CASEID', 'EDRSUMM.EDRSUMMNO', 'EDRSUMM.NUMEVENTS'}</t>
         </is>
       </c>
       <c r="U271" t="n">
@@ -22190,7 +22190,7 @@
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>{'EDRPRECRASH', 'EDREVENT'}</t>
+          <t>{'EDREVENT', 'EDRPRECRASH'}</t>
         </is>
       </c>
       <c r="P272" t="inlineStr">
@@ -22205,7 +22205,7 @@
       </c>
       <c r="R272" t="inlineStr">
         <is>
-          <t>{'EDRPRECRASH.CASEID', 'EDREVENT.CASEID', 'EDREVENT.EDREVENTNO'}</t>
+          <t>{'EDRPRECRASH.CASEID', 'EDREVENT.EDREVENTNO', 'EDREVENT.CASEID'}</t>
         </is>
       </c>
       <c r="S272" t="inlineStr">
@@ -22215,7 +22215,7 @@
       </c>
       <c r="T272" t="inlineStr">
         <is>
-          <t>{'CRASH.CASENUMBER', 'EDRPRECRASH.EDRSUMMNO'}</t>
+          <t>{'EDRPRECRASH.EDRSUMMNO', 'CRASH.CASENUMBER'}</t>
         </is>
       </c>
       <c r="U272" t="n">
@@ -22285,17 +22285,17 @@
       </c>
       <c r="R273" t="inlineStr">
         <is>
-          <t>{'VPICDECODE.CASEID', 'VPICDECODE.ModelYear', 'VPICDECODE.VEHNO', 'VPICDECODE.Model', 'VPICDECODE.Make'}</t>
+          <t>{'VPICDECODE.VEHNO', 'VPICDECODE.CASEID', 'VPICDECODE.Model', 'VPICDECODE.Make', 'VPICDECODE.ModelYear'}</t>
         </is>
       </c>
       <c r="S273" t="inlineStr">
         <is>
-          <t>{'EDREVENT.IGCYCRASH', 'EDREVENT.CASEID', 'EDREVENT.VEHNO'}</t>
+          <t>{'EDREVENT.CASEID', 'EDREVENT.IGCYCRASH', 'EDREVENT.VEHNO'}</t>
         </is>
       </c>
       <c r="T273" t="inlineStr">
         <is>
-          <t>{'you may also note the sort order: VPICDECODE.ModelYear', 'EDRSUMM.VEHNO', 'EDRSUMM.IGCYCDOWN', 'EDRSUMM.CASEID'}</t>
+          <t>{'you may also note the sort order: VPICDECODE.ModelYear', 'EDRSUMM.VEHNO', 'EDRSUMM.CASEID', 'EDRSUMM.IGCYCDOWN'}</t>
         </is>
       </c>
       <c r="U273" t="n">
@@ -22370,12 +22370,12 @@
       </c>
       <c r="S274" t="inlineStr">
         <is>
-          <t>{'EDREVENT.IGCYCRASH', 'EDREVENT.CASEID', 'EDREVENT.VEHNO'}</t>
+          <t>{'EDREVENT.CASEID', 'EDREVENT.IGCYCRASH', 'EDREVENT.VEHNO'}</t>
         </is>
       </c>
       <c r="T274" t="inlineStr">
         <is>
-          <t>{'EDRSUMM.VEHNO', 'EDRSUMM.IGCYCDOWN', 'EDRSUMM.CASEID'}</t>
+          <t>{'EDRSUMM.VEHNO', 'EDRSUMM.CASEID', 'EDRSUMM.IGCYCDOWN'}</t>
         </is>
       </c>
       <c r="U274" t="n">
@@ -22445,7 +22445,7 @@
       </c>
       <c r="R275" t="inlineStr">
         <is>
-          <t>{'INJURY.CASEID', 'INJURY.VEHNO', 'INJURY.INJNO', 'INJURY.OCCNO'}</t>
+          <t>{'INJURY.CASEID', 'INJURY.OCCNO', 'INJURY.VEHNO', 'INJURY.INJNO'}</t>
         </is>
       </c>
       <c r="S275" t="inlineStr">
@@ -22510,7 +22510,7 @@
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>{'FUEL', 'FIRE'}</t>
+          <t>{'FIRE', 'FUEL'}</t>
         </is>
       </c>
       <c r="P276" t="inlineStr">
@@ -22525,7 +22525,7 @@
       </c>
       <c r="R276" t="inlineStr">
         <is>
-          <t>{'FIRE.VEHNO', 'FUEL.FUELTYPE', 'FIRE.CASEID', 'FUEL.CASEID'}</t>
+          <t>{'FIRE.VEHNO', 'FUEL.FUELTYPE', 'FUEL.CASEID', 'FIRE.CASEID'}</t>
         </is>
       </c>
       <c r="S276" t="inlineStr">
@@ -22535,7 +22535,7 @@
       </c>
       <c r="T276" t="inlineStr">
         <is>
-          <t>{'FIRE.FIRE', 'FUEL.VEHNO**'}</t>
+          <t>{'FUEL.VEHNO**', 'FIRE.FIRE'}</t>
         </is>
       </c>
       <c r="U276" t="n">
@@ -22590,7 +22590,7 @@
       </c>
       <c r="O277" t="inlineStr">
         <is>
-          <t>{'EJECT', 'OCC'}</t>
+          <t>{'OCC', 'EJECT'}</t>
         </is>
       </c>
       <c r="P277" t="inlineStr">
@@ -22605,7 +22605,7 @@
       </c>
       <c r="R277" t="inlineStr">
         <is>
-          <t>{'OCC.OCCNO', 'OCC.VEHNO', 'OCC.SEX', 'EJECT.VEHNO', 'OCC.CASEID', 'EJECT.CASEID', 'EJECT.OCCNO'}</t>
+          <t>{'OCC.CASEID', 'OCC.VEHNO', 'OCC.OCCNO', 'EJECT.OCCNO', 'EJECT.CASEID', 'OCC.SEX', 'EJECT.VEHNO'}</t>
         </is>
       </c>
       <c r="S277" t="inlineStr">
@@ -22680,7 +22680,7 @@
       </c>
       <c r="Q278" t="inlineStr">
         <is>
-          <t>{'CRASH', 'GV'}</t>
+          <t>{'GV', 'CRASH'}</t>
         </is>
       </c>
       <c r="R278" t="inlineStr">
@@ -22695,7 +22695,7 @@
       </c>
       <c r="T278" t="inlineStr">
         <is>
-          <t>{'GV.MAKE', 'CRASH.CASEID', 'GV.CASEID', 'CRASH.CASEID\n```\n\n**Explanation:**  \n- GV'}</t>
+          <t>{'CRASH.CASEID\n```\n\n**Explanation:**  \n- GV', 'GV.MAKE', 'GV.CASEID', 'CRASH.CASEID'}</t>
         </is>
       </c>
       <c r="U278" t="n">
@@ -22760,7 +22760,7 @@
       </c>
       <c r="Q279" t="inlineStr">
         <is>
-          <t>{'CRASH', 'GV'}</t>
+          <t>{'GV', 'CRASH'}</t>
         </is>
       </c>
       <c r="R279" t="inlineStr">
@@ -22775,7 +22775,7 @@
       </c>
       <c r="T279" t="inlineStr">
         <is>
-          <t>{'CRASH.CASEID', 'AVOID.VEHNO', 'GV.CASEID', 'AVOID.EQUIP', 'GV.VEHNO'}</t>
+          <t>{'GV.CASEID', 'GV.VEHNO', 'AVOID.VEHNO', 'AVOID.EQUIP', 'CRASH.CASEID'}</t>
         </is>
       </c>
       <c r="U279" t="n">
@@ -22802,35 +22802,35 @@
         <v>10853</v>
       </c>
       <c r="F280" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G280" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I280" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J280" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K280" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L280" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="M280" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N280" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="O280" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'AVOID'}</t>
         </is>
       </c>
       <c r="P280" t="inlineStr">
@@ -22840,22 +22840,22 @@
       </c>
       <c r="Q280" t="inlineStr">
         <is>
-          <t>{'AVOID'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R280" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'AVOID.EQUIP'}</t>
         </is>
       </c>
       <c r="S280" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'AVOID.AVAIL'}</t>
         </is>
       </c>
       <c r="T280" t="inlineStr">
         <is>
-          <t>{'AVOID.EQUIP'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="U280" t="n">
@@ -23015,7 +23015,7 @@
       </c>
       <c r="T282" t="inlineStr">
         <is>
-          <t>{'TIREDAMAGE.VEHNO**\n\n(Optionally', 'if you want to be explicit about the table: TIREDAMAGE.* is also valid', 'but the above is more precise for the question.)'}</t>
+          <t>{'if you want to be explicit about the table: TIREDAMAGE.* is also valid', 'TIREDAMAGE.VEHNO**\n\n(Optionally', 'but the above is more precise for the question.)'}</t>
         </is>
       </c>
       <c r="U282" t="n">
@@ -23095,7 +23095,7 @@
       </c>
       <c r="T283" t="inlineStr">
         <is>
-          <t>{'VPICDECODE.GrossVehicleWeightRatingFrom', 'VPICDECODE.GrossVehicleWeightRatingTo', 'VPICDECODE.VEHNO'}</t>
+          <t>{'VPICDECODE.GrossVehicleWeightRatingTo', 'VPICDECODE.GrossVehicleWeightRatingFrom', 'VPICDECODE.VEHNO'}</t>
         </is>
       </c>
       <c r="U283" t="n">
@@ -23245,7 +23245,7 @@
       </c>
       <c r="R285" t="inlineStr">
         <is>
-          <t>{'TIREPLAC.GVWR', 'TIREPLAC.RECFRPRESS1', 'TIREPLAC.RECRRPRESS1'}</t>
+          <t>{'TIREPLAC.GVWR', 'TIREPLAC.RECRRPRESS1', 'TIREPLAC.RECFRPRESS1'}</t>
         </is>
       </c>
       <c r="S285" t="inlineStr">
@@ -23405,7 +23405,7 @@
       </c>
       <c r="R287" t="inlineStr">
         <is>
-          <t>{'TIREPLAC.RECFRONT1', 'TIREPLAC.VEHNO', 'TIREPLAC.CASEID', 'TIREPLAC.RECREAR1'}</t>
+          <t>{'TIREPLAC.CASEID', 'TIREPLAC.RECFRONT1', 'TIREPLAC.RECREAR1', 'TIREPLAC.VEHNO'}</t>
         </is>
       </c>
       <c r="S287" t="inlineStr">
@@ -23415,7 +23415,7 @@
       </c>
       <c r="T287" t="inlineStr">
         <is>
-          <t>{'GV.CASEID', 'GV.VEHNO', 'GV.MAKE', 'GV.MODEL'}</t>
+          <t>{'GV.MODEL', 'GV.CASEID', 'GV.VEHNO', 'GV.MAKE'}</t>
         </is>
       </c>
       <c r="U287" t="n">
@@ -23485,7 +23485,7 @@
       </c>
       <c r="R288" t="inlineStr">
         <is>
-          <t>{'VPICDECODE.CASEID', 'TIREPLAC.RECFRONT1', 'TIREPLAC.VEHNO', 'VPICDECODE.ModelYear', 'TIREPLAC.RECREAR1', 'VPICDECODE.VEHNO', 'TIREPLAC.RECFRPRESS1', 'VPICDECODE.Model', 'VPICDECODE.Make', 'TIREPLAC.CASEID', 'TIREPLAC.RECRRPRESS1'}</t>
+          <t>{'TIREPLAC.RECFRONT1', 'VPICDECODE.VEHNO', 'TIREPLAC.VEHNO', 'TIREPLAC.RECRRPRESS1', 'TIREPLAC.RECFRPRESS1', 'VPICDECODE.CASEID', 'VPICDECODE.Model', 'TIREPLAC.CASEID', 'TIREPLAC.RECREAR1', 'VPICDECODE.Make', 'VPICDECODE.ModelYear'}</t>
         </is>
       </c>
       <c r="S288" t="inlineStr">
@@ -23565,7 +23565,7 @@
       </c>
       <c r="R289" t="inlineStr">
         <is>
-          <t>{'TIRE.VEHNO', 'TIRE.TIREMODEL', 'TIRE.CASEID'}</t>
+          <t>{'TIRE.TIREMODEL', 'TIRE.CASEID', 'TIRE.VEHNO'}</t>
         </is>
       </c>
       <c r="S289" t="inlineStr">
@@ -23645,7 +23645,7 @@
       </c>
       <c r="R290" t="inlineStr">
         <is>
-          <t>{'TIRE.VEHNO', 'TIRE.TIREMODEL', 'TIRE.CASEID'}</t>
+          <t>{'TIRE.TIREMODEL', 'TIRE.CASEID', 'TIRE.VEHNO'}</t>
         </is>
       </c>
       <c r="S290" t="inlineStr">
@@ -23655,7 +23655,7 @@
       </c>
       <c r="T290" t="inlineStr">
         <is>
-          <t>{'GV.CASEID', 'GV.VEHNO', 'GV.MAKE', 'GV.MODEL'}</t>
+          <t>{'GV.MODEL', 'GV.CASEID', 'GV.VEHNO', 'GV.MAKE'}</t>
         </is>
       </c>
       <c r="U290" t="n">
@@ -23725,7 +23725,7 @@
       </c>
       <c r="R291" t="inlineStr">
         <is>
-          <t>{'TIRE.VEHNO', 'TIRE.TIREMODEL'}</t>
+          <t>{'TIRE.TIREMODEL', 'TIRE.VEHNO'}</t>
         </is>
       </c>
       <c r="S291" t="inlineStr">
@@ -23805,7 +23805,7 @@
       </c>
       <c r="R292" t="inlineStr">
         <is>
-          <t>{'TIREDAMAGE.DAMAGE', 'TIREDAMAGE.VEHNO', 'TIRE.TIREMODEL', 'TIRE.CASEID', 'TIRE.VEHNO', 'TIREDAMAGE.CASEID'}</t>
+          <t>{'TIRE.CASEID', 'TIRE.TIREMODEL', 'TIREDAMAGE.CASEID', 'TIREDAMAGE.VEHNO', 'TIRE.VEHNO', 'TIREDAMAGE.DAMAGE'}</t>
         </is>
       </c>
       <c r="S292" t="inlineStr">
@@ -23815,7 +23815,7 @@
       </c>
       <c r="T292" t="inlineStr">
         <is>
-          <t>{'GV.CASEID', 'GV.VEHNO', 'TIREDAMAGE.TIRELOC', 'TIRE.TIRELOC'}</t>
+          <t>{'TIREDAMAGE.TIRELOC', 'GV.CASEID', 'GV.VEHNO', 'TIRE.TIRELOC'}</t>
         </is>
       </c>
       <c r="U292" t="n">
@@ -23870,7 +23870,7 @@
       </c>
       <c r="O293" t="inlineStr">
         <is>
-          <t>{'TIRE', 'TIREPLAC'}</t>
+          <t>{'TIREPLAC', 'TIRE'}</t>
         </is>
       </c>
       <c r="P293" t="inlineStr">
@@ -23880,12 +23880,12 @@
       </c>
       <c r="Q293" t="inlineStr">
         <is>
-          <t>{'`TIRE', "'LF'`)", "'LF'\n\n```\n\n**Explanation:**  \n- We need the case ID and vehicle number (`TIRE"}</t>
+          <t>{'`TIRE', "'LF'\n\n```\n\n**Explanation:**  \n- We need the case ID and vehicle number (`TIRE", "'LF'`)"}</t>
         </is>
       </c>
       <c r="R293" t="inlineStr">
         <is>
-          <t>{'TIREPLAC.RECFRONT1', 'TIREPLAC.VEHNO', 'TIRE.CASEID', 'TIRE.VEHNO', 'TIRE.TIRELOC', 'TIREPLAC.CASEID', 'TIRE.TIRESIZE'}</t>
+          <t>{'TIREPLAC.RECFRONT1', 'TIRE.CASEID', 'TIRE.TIRELOC', 'TIREPLAC.VEHNO', 'TIRE.TIRESIZE', 'TIRE.VEHNO', 'TIREPLAC.CASEID'}</t>
         </is>
       </c>
       <c r="S293" t="inlineStr">
@@ -23895,7 +23895,7 @@
       </c>
       <c r="T293" t="inlineStr">
         <is>
-          <t>{"'LF'`).- We need to join `TIRE` and `TIREPLAC` on `CASEID` and `VEH", "'LF'\n\n```\n\n**Explanation:**  \n- We need the case ID and vehicle number (`TIRE.CASEID`", '`TIRE.VEHNO`)'}</t>
+          <t>{'`TIRE.VEHNO`)', "'LF'`).- We need to join `TIRE` and `TIREPLAC` on `CASEID` and `VEH", "'LF'\n\n```\n\n**Explanation:**  \n- We need the case ID and vehicle number (`TIRE.CASEID`"}</t>
         </is>
       </c>
       <c r="U293" t="n">
@@ -23950,7 +23950,7 @@
       </c>
       <c r="O294" t="inlineStr">
         <is>
-          <t>{'TIRE', 'TIREPLAC'}</t>
+          <t>{'TIREPLAC', 'TIRE'}</t>
         </is>
       </c>
       <c r="P294" t="inlineStr">
@@ -23965,7 +23965,7 @@
       </c>
       <c r="R294" t="inlineStr">
         <is>
-          <t>{'TIREPLAC.RECFRONT1', 'TIREPLAC.VEHNO', 'TIRE.CASEID', 'TIRE.VEHNO', 'TIRE.TIRELOC', 'TIREPLAC.CASEID', 'TIRE.TIRESIZE'}</t>
+          <t>{'TIREPLAC.RECFRONT1', 'TIRE.CASEID', 'TIRE.TIRELOC', 'TIREPLAC.VEHNO', 'TIRE.TIRESIZE', 'TIRE.VEHNO', 'TIREPLAC.CASEID'}</t>
         </is>
       </c>
       <c r="S294" t="inlineStr">
@@ -23975,7 +23975,7 @@
       </c>
       <c r="T294" t="inlineStr">
         <is>
-          <t>{'GV.CASEID', 'GV.VEHNO', 'GV.MAKE', 'GV.MODEL'}</t>
+          <t>{'GV.MODEL', 'GV.CASEID', 'GV.VEHNO', 'GV.MAKE'}</t>
         </is>
       </c>
       <c r="U294" t="n">
@@ -24002,60 +24002,60 @@
         <v>11263</v>
       </c>
       <c r="F295" t="n">
-        <v>0</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="G295" t="n">
-        <v>0</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>0.5625</v>
       </c>
       <c r="I295" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="J295" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K295" t="n">
-        <v>0</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L295" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="M295" t="n">
-        <v>0</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="N295" t="n">
-        <v>0</v>
+        <v>0.608695652173913</v>
       </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'TIREPLAC', 'TIRE'}</t>
         </is>
       </c>
       <c r="P295" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'VPICDECODE'}</t>
         </is>
       </c>
       <c r="Q295" t="inlineStr">
         <is>
-          <t>{'filter TIRE', 'and group/count by GV', 'TIREPLAC', 'GV', 'TIRE', 'compare TIRE'}</t>
+          <t>{'and group/count by GV', 'filter TIRE', 'compare TIRE', 'GV'}</t>
         </is>
       </c>
       <c r="R295" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'TIREPLAC.RECFRONT1', 'TIRE.CASEID', 'TIRE.TIRELOC', 'TIREPLAC.VEHNO', 'TIRE.TIRESIZE', 'TIRE.VEHNO', 'TIREPLAC.CASEID'}</t>
         </is>
       </c>
       <c r="S295" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'VPICDECODE.CASEID', 'VPICDECODE.Make', 'VPICDECODE.VEHNO'}</t>
         </is>
       </c>
       <c r="T295" t="inlineStr">
         <is>
-          <t>{'filter TIRE.TIRELOC', 'GV.CASEID', 'TIREPLAC.RECFRONT1', 'TIREPLAC.VEHNO', 'compare TIRE.TIRESIZE and TIREPLAC', 'TIRE.CASEID', 'and group/count by GV.MAKE', 'TIRE.VEHNO', 'GV.MAKE', 'GV.VEHNO', 'TIRE.TIRELOC', 'TIREPLAC.CASEID', 'TIRE.TIRESIZE'}</t>
+          <t>{'GV.CASEID', 'GV.MAKE', 'and group/count by GV.MAKE', 'compare TIRE.TIRESIZE and TIREPLAC', 'GV.VEHNO', 'filter TIRE.TIRELOC'}</t>
         </is>
       </c>
       <c r="U295" t="n">
@@ -24135,7 +24135,7 @@
       </c>
       <c r="T296" t="inlineStr">
         <is>
-          <t>{'CRASH.CASEID', 'DISTRACT.DISTRACTN'}</t>
+          <t>{'DISTRACT.DISTRACTN', 'CRASH.CASEID'}</t>
         </is>
       </c>
       <c r="U296" t="n">
@@ -24210,12 +24210,12 @@
       </c>
       <c r="S297" t="inlineStr">
         <is>
-          <t>{'CHILDSEAT.OCCNO', 'DISTRACT.CASEID'}</t>
+          <t>{'DISTRACT.CASEID', 'CHILDSEAT.OCCNO'}</t>
         </is>
       </c>
       <c r="T297" t="inlineStr">
         <is>
-          <t>{'CRASH.CASEID', 'OCC.VEHNO', 'CHILDSEAT.VEHNO', 'OCC.CASEID'}</t>
+          <t>{'OCC.CASEID', 'CHILDSEAT.VEHNO', 'CRASH.CASEID', 'OCC.VEHNO'}</t>
         </is>
       </c>
       <c r="U297" t="n">
@@ -24295,7 +24295,7 @@
       </c>
       <c r="T298" t="inlineStr">
         <is>
-          <t>{'GV.CASEID', 'GV.VEHNO', 'GV.MAKE', 'GV.MODEL'}</t>
+          <t>{'GV.MODEL', 'GV.CASEID', 'GV.VEHNO', 'GV.MAKE'}</t>
         </is>
       </c>
       <c r="U298" t="n">
@@ -24350,7 +24350,7 @@
       </c>
       <c r="O299" t="inlineStr">
         <is>
-          <t>{'CHILDSEAT', 'DISTRACT'}</t>
+          <t>{'DISTRACT', 'CHILDSEAT'}</t>
         </is>
       </c>
       <c r="P299" t="inlineStr">
@@ -24365,17 +24365,17 @@
       </c>
       <c r="R299" t="inlineStr">
         <is>
-          <t>{'DISTRACT.VEHNO', 'CHILDSEAT.VEHNO', 'DISTRACT.CASEID', 'CHILDSEAT.CASEID'}</t>
+          <t>{'CHILDSEAT.VEHNO', 'DISTRACT.CASEID', 'DISTRACT.VEHNO', 'CHILDSEAT.CASEID'}</t>
         </is>
       </c>
       <c r="S299" t="inlineStr">
         <is>
-          <t>{'VPICDECODE.CASEID', 'DISTRACT.DISTRACTN', 'VPICDECODE.VEHNO', 'VPICDECODE.Model', 'VPICDECODE.Make'}</t>
+          <t>{'VPICDECODE.VEHNO', 'VPICDECODE.CASEID', 'VPICDECODE.Model', 'VPICDECODE.Make', 'DISTRACT.DISTRACTN'}</t>
         </is>
       </c>
       <c r="T299" t="inlineStr">
         <is>
-          <t>{'GV.CASEID', 'GV.VEHNO', 'GV.MAKE', 'GV.MODEL'}</t>
+          <t>{'GV.MODEL', 'GV.CASEID', 'GV.VEHNO', 'GV.MAKE'}</t>
         </is>
       </c>
       <c r="U299" t="n">
@@ -24445,7 +24445,7 @@
       </c>
       <c r="R300" t="inlineStr">
         <is>
-          <t>{'DISTRACT.VEHNO', 'DISTRACT.CASEID', 'DISTRACT.DISTRACTN'}</t>
+          <t>{'DISTRACT.CASEID', 'DISTRACT.VEHNO', 'DISTRACT.DISTRACTN'}</t>
         </is>
       </c>
       <c r="S300" t="inlineStr">
@@ -24455,7 +24455,7 @@
       </c>
       <c r="T300" t="inlineStr">
         <is>
-          <t>{'GV.CASEID', 'GV.VEHNO', 'GV.MAKE', 'GV.MODEL'}</t>
+          <t>{'GV.MODEL', 'GV.CASEID', 'GV.VEHNO', 'GV.MAKE'}</t>
         </is>
       </c>
       <c r="U300" t="n">
@@ -24520,7 +24520,7 @@
       </c>
       <c r="Q301" t="inlineStr">
         <is>
-          <t>{'CRASH', 'GV'}</t>
+          <t>{'GV', 'CRASH'}</t>
         </is>
       </c>
       <c r="R301" t="inlineStr">
@@ -24535,7 +24535,7 @@
       </c>
       <c r="T301" t="inlineStr">
         <is>
-          <t>{'CRASH.CASEID', 'GV.VEHNO', 'GV.CASEID', 'GV.MAKE'}</t>
+          <t>{'CRASH.CASEID', 'GV.CASEID', 'GV.VEHNO', 'GV.MAKE'}</t>
         </is>
       </c>
       <c r="U301" t="n">
@@ -24605,7 +24605,7 @@
       </c>
       <c r="R302" t="inlineStr">
         <is>
-          <t>{'Accountability_Levels.LEVEL', 'Accountability_Levels.INDICATOR', 'Accountability_Levels.ENTITY_NAME', 'Accountability_Levels.SUBGROUP_NAME', 'Accountability_Levels.INSTITUTION_ID'}</t>
+          <t>{'Accountability_Levels.INDICATOR', 'Accountability_Levels.ENTITY_NAME', 'Accountability_Levels.INSTITUTION_ID', 'Accountability_Levels.SUBGROUP_NAME', 'Accountability_Levels.LEVEL'}</t>
         </is>
       </c>
       <c r="S302" t="inlineStr">
@@ -24685,7 +24685,7 @@
       </c>
       <c r="R303" t="inlineStr">
         <is>
-          <t>{'Annual_EM_ELA.SUBGROUP_NAME', 'Annual_EM_ELA.PCT_NOT_TESTED', 'Annual_EM_ELA.ASSESSMENT_NAME', 'Annual_EM_ELA.YEAR', 'Annual_EM_ELA.ENTITY_NAME'}</t>
+          <t>{'Annual_EM_ELA.PCT_NOT_TESTED', 'Annual_EM_ELA.SUBGROUP_NAME', 'Annual_EM_ELA.YEAR', 'Annual_EM_ELA.ENTITY_NAME', 'Annual_EM_ELA.ASSESSMENT_NAME'}</t>
         </is>
       </c>
       <c r="S303" t="inlineStr">
@@ -24845,7 +24845,7 @@
       </c>
       <c r="R305" t="inlineStr">
         <is>
-          <t>{'Expenditures_per_Pupil.PUPIL_COUNT_TOT', 'Expenditures_per_Pupil.YEAR', 'Expenditures_per_Pupil.ENTITY_NAME', 'Expenditures_per_Pupil.PER_FEDERAL_EXP', 'Expenditures_per_Pupil.FEDERAL_EXP'}</t>
+          <t>{'Expenditures_per_Pupil.ENTITY_NAME', 'Expenditures_per_Pupil.PER_FEDERAL_EXP', 'Expenditures_per_Pupil.PUPIL_COUNT_TOT', 'Expenditures_per_Pupil.YEAR', 'Expenditures_per_Pupil.FEDERAL_EXP'}</t>
         </is>
       </c>
       <c r="S305" t="inlineStr">
@@ -24930,7 +24930,7 @@
       </c>
       <c r="S306" t="inlineStr">
         <is>
-          <t>{'Annual_EM_MATH.MEAN_SCORE', 'Annual_EM_MATH.ENTITY_NAME', 'Expenditures_per_Pupil.PUPIL_COUNT_TOT', 'Expenditures_per_Pupil.ENTITY_CD', 'Annual_EM_MATH.ASSESSMENT_NAME', 'Expenditures_per_Pupil.YEAR', 'Expenditures_per_Pupil.ENTITY_NAME', 'Annual_EM_MATH.ENTITY_CD', 'Annual_EM_MATH.YEAR', 'Annual_EM_MATH.SUBGROUP_NAME', 'Expenditures_per_Pupil.PER_FEDERAL_EXP'}</t>
+          <t>{'Expenditures_per_Pupil.ENTITY_NAME', 'Expenditures_per_Pupil.PER_FEDERAL_EXP', 'Annual_EM_MATH.ENTITY_NAME', 'Annual_EM_MATH.ASSESSMENT_NAME', 'Expenditures_per_Pupil.ENTITY_CD', 'Annual_EM_MATH.YEAR', 'Annual_EM_MATH.ENTITY_CD', 'Expenditures_per_Pupil.PUPIL_COUNT_TOT', 'Expenditures_per_Pupil.YEAR', 'Annual_EM_MATH.MEAN_SCORE', 'Annual_EM_MATH.SUBGROUP_NAME'}</t>
         </is>
       </c>
       <c r="T306" t="inlineStr">
@@ -24990,7 +24990,7 @@
       </c>
       <c r="O307" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Participation_Rate', 'ACC_HS_Graduation_Rate'}</t>
+          <t>{'ACC_HS_Graduation_Rate', 'ACC_HS_Participation_Rate'}</t>
         </is>
       </c>
       <c r="P307" t="inlineStr">
@@ -25005,12 +25005,12 @@
       </c>
       <c r="R307" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Participation_Rate.RATE', 'ACC_HS_Graduation_Rate.YEAR', 'ACC_HS_Participation_Rate.YEAR', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'ACC_HS_Graduation_Rate.GRAD_RATE'}</t>
+          <t>{'ACC_HS_Graduation_Rate.YEAR', 'ACC_HS_Graduation_Rate.GRAD_RATE', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.RATE', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'ACC_HS_Participation_Rate.YEAR'}</t>
         </is>
       </c>
       <c r="S307" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Participation_Rate.INSTITUTION_ID', 'ACC_HS_Graduation_Rate.ENTITY_CD', 'ACC_HS_Participation_Rate.ENTITY_CD', 'ACC_HS_Graduation_Rate.INSTITUTION_ID'}</t>
+          <t>{'ACC_HS_Participation_Rate.INSTITUTION_ID', 'ACC_HS_Participation_Rate.ENTITY_CD', 'ACC_HS_Graduation_Rate.INSTITUTION_ID', 'ACC_HS_Graduation_Rate.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="T307" t="inlineStr">
@@ -25085,7 +25085,7 @@
       </c>
       <c r="R308" t="inlineStr">
         <is>
-          <t>{'ACC_EM_Chronic_Absenteeism.ENROLLMENT', 'ACC_EM_Chronic_Absenteeism.YEAR', 'ACC_EM_Chronic_Absenteeism.ABSENT_RATE', 'ACC_EM_Chronic_Absenteeism.ABSENT_COUNT', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.ENTITY_NAME'}</t>
+          <t>{'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.ENROLLMENT', 'ACC_EM_Chronic_Absenteeism.ABSENT_COUNT', 'ACC_EM_Chronic_Absenteeism.YEAR', 'ACC_EM_Chronic_Absenteeism.ABSENT_RATE'}</t>
         </is>
       </c>
       <c r="S308" t="inlineStr">
@@ -25165,7 +25165,7 @@
       </c>
       <c r="R309" t="inlineStr">
         <is>
-          <t>{'Annual_Regents_Exams.PER_LEVEL3', 'Annual_Regents_Exams.ENTITY_NAME', 'Annual_Regents_Exams.PER_LEVEL2', 'Annual_Regents_Exams.PER_LEVEL1', 'Annual_Regents_Exams.TESTED', 'Annual_Regents_Exams.SUBGROUP_NAME', 'Annual_Regents_Exams.SUBJECT', 'Annual_Regents_Exams.YEAR', 'Annual_Regents_Exams.PER_LEVEL5', 'Annual_Regents_Exams.PER_LEVEL4'}</t>
+          <t>{'Annual_Regents_Exams.PER_LEVEL2', 'Annual_Regents_Exams.SUBGROUP_NAME', 'Annual_Regents_Exams.SUBJECT', 'Annual_Regents_Exams.YEAR', 'Annual_Regents_Exams.PER_LEVEL4', 'Annual_Regents_Exams.PER_LEVEL5', 'Annual_Regents_Exams.PER_LEVEL3', 'Annual_Regents_Exams.PER_LEVEL1', 'Annual_Regents_Exams.TESTED', 'Annual_Regents_Exams.ENTITY_NAME'}</t>
         </is>
       </c>
       <c r="S309" t="inlineStr">
@@ -25325,7 +25325,7 @@
       </c>
       <c r="R311" t="inlineStr">
         <is>
-          <t>{'Accountability_Status.ENTITY_NAME', 'Accountability_Status.OVERALL_STATUS', 'Accountability_Status.MADE_PROGRESS', 'Accountability_Status.YEAR'}</t>
+          <t>{'Accountability_Status.YEAR', 'Accountability_Status.ENTITY_NAME', 'Accountability_Status.OVERALL_STATUS', 'Accountability_Status.MADE_PROGRESS'}</t>
         </is>
       </c>
       <c r="S311" t="inlineStr">
@@ -25405,12 +25405,12 @@
       </c>
       <c r="R312" t="inlineStr">
         <is>
-          <t>{'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBJECT', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME'}</t>
+          <t>{'ACC_EM_Core_and_Weighted_Performance.SUBJECT', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME'}</t>
         </is>
       </c>
       <c r="S312" t="inlineStr">
         <is>
-          <t>{'ACC_EM_Core_and_Weighted_Performance.WEIGHTED_COHORT', 'ACC_EM_Core_and_Weighted_Performance.CORE_COHORT'}</t>
+          <t>{'ACC_EM_Core_and_Weighted_Performance.CORE_COHORT', 'ACC_EM_Core_and_Weighted_Performance.WEIGHTED_COHORT'}</t>
         </is>
       </c>
       <c r="T312" t="inlineStr">
@@ -25485,12 +25485,12 @@
       </c>
       <c r="R313" t="inlineStr">
         <is>
-          <t>{'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_CD', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME'}</t>
+          <t>{'ACC_EM_Core_and_Weighted_Performance.ENTITY_CD', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME'}</t>
         </is>
       </c>
       <c r="S313" t="inlineStr">
         <is>
-          <t>{'Institution_Grouping.GROUP_NAME', 'Institution_Grouping.ENTITY_NAME', 'Institution_Grouping.ENTITY_CD'}</t>
+          <t>{'Institution_Grouping.GROUP_NAME', 'Institution_Grouping.ENTITY_CD', 'Institution_Grouping.ENTITY_NAME'}</t>
         </is>
       </c>
       <c r="T313" t="inlineStr">
@@ -25565,7 +25565,7 @@
       </c>
       <c r="R314" t="inlineStr">
         <is>
-          <t>{'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_CD'}</t>
+          <t>{'ACC_EM_Core_and_Weighted_Performance.ENTITY_CD', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME'}</t>
         </is>
       </c>
       <c r="S314" t="inlineStr">
@@ -25730,12 +25730,12 @@
       </c>
       <c r="S316" t="inlineStr">
         <is>
-          <t>{'ACC_EM_ELP.ELL_COUNT', 'Institution_Grouping.GROUP_NAME', 'Institution_Grouping.ENTITY_CD'}</t>
+          <t>{'Institution_Grouping.GROUP_NAME', 'ACC_EM_ELP.ELL_COUNT', 'Institution_Grouping.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="T316" t="inlineStr">
         <is>
-          <t>{'ACC_EM_ELP.ENTITY_CD and Institution_Grouping', "also include 'White' and 'English Language Learners' as possible values.If filtering for public elementary schools requires Institution_Grouping", 'add Institution_Grouping.ENTITY_CD', 'ACC_EM_ELP.ENTITY_NAME'}</t>
+          <t>{'add Institution_Grouping.ENTITY_CD', "also include 'White' and 'English Language Learners' as possible values.If filtering for public elementary schools requires Institution_Grouping", 'ACC_EM_ELP.ENTITY_NAME', 'ACC_EM_ELP.ENTITY_CD and Institution_Grouping'}</t>
         </is>
       </c>
       <c r="U316" t="n">
@@ -25805,7 +25805,7 @@
       </c>
       <c r="R317" t="inlineStr">
         <is>
-          <t>{'ACC_EM_ELP.ELL_COUNT', 'ACC_EM_ELP.BENCHMARK', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_EM_ELP.PROGRESS_RATE', 'ACC_EM_ELP.SUCCESS_RATIO', 'ACC_EM_ELP.ENTITY_NAME'}</t>
+          <t>{'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_EM_ELP.PROGRESS_RATE', 'ACC_EM_ELP.SUCCESS_RATIO', 'ACC_EM_ELP.BENCHMARK', 'ACC_EM_ELP.ELL_COUNT', 'ACC_EM_ELP.ENTITY_NAME'}</t>
         </is>
       </c>
       <c r="S317" t="inlineStr">
@@ -25890,12 +25890,12 @@
       </c>
       <c r="S318" t="inlineStr">
         <is>
-          <t>{'Institution_Grouping.GROUP_NAME', 'ACC_EM_NYSESLAT_for_Participation.NYSESLAT_PART', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_CD', 'Institution_Grouping.ENTITY_CD'}</t>
+          <t>{'Institution_Grouping.GROUP_NAME', 'Institution_Grouping.ENTITY_CD', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_CD', 'ACC_EM_NYSESLAT_for_Participation.NYSESLAT_PART'}</t>
         </is>
       </c>
       <c r="T318" t="inlineStr">
         <is>
-          <t>{'Institution_Grouping.ENTITY', 'Annual_NYSESLAT.TESTED', 'Annual_NYSESLAT.ENTITY_CD', 'Annual_NYSESLAT.ENTITY_NAME', '0\n\nIf you need to filter for "public elementary school entities" via a join:\n- Annual_NYSESLAT.ENTITY_CD'}</t>
+          <t>{'0\n\nIf you need to filter for "public elementary school entities" via a join:\n- Annual_NYSESLAT.ENTITY_CD', 'Annual_NYSESLAT.ENTITY_NAME', 'Annual_NYSESLAT.ENTITY_CD', 'Institution_Grouping.ENTITY', 'Annual_NYSESLAT.TESTED'}</t>
         </is>
       </c>
       <c r="U318" t="n">
@@ -26045,7 +26045,7 @@
       </c>
       <c r="R320" t="inlineStr">
         <is>
-          <t>{'ACC_EM_ELP.ELL_COUNT', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_EM_ELP.LEVEL', 'ACC_EM_ELP.ENTITY_CD', 'ACC_EM_ELP.ENTITY_NAME'}</t>
+          <t>{'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_EM_ELP.ENTITY_CD', 'ACC_EM_ELP.LEVEL', 'ACC_EM_ELP.ELL_COUNT', 'ACC_EM_ELP.ENTITY_NAME'}</t>
         </is>
       </c>
       <c r="S320" t="inlineStr">
@@ -26055,7 +26055,7 @@
       </c>
       <c r="T320" t="inlineStr">
         <is>
-          <t>{'Annual_NYSESLAT.TESTED', 'ACC_EM_ELP.YEAR', 'Annual_NYSESLAT.ENTITY_CD', 'Annual_NYSESLAT.YEAR', 'Annual_NYSESLAT.SUBGROUP_NAME'}</t>
+          <t>{'Annual_NYSESLAT.ENTITY_CD', 'ACC_EM_ELP.YEAR', 'Annual_NYSESLAT.SUBGROUP_NAME', 'Annual_NYSESLAT.YEAR', 'Annual_NYSESLAT.TESTED'}</t>
         </is>
       </c>
       <c r="U320" t="n">
@@ -26125,7 +26125,7 @@
       </c>
       <c r="R321" t="inlineStr">
         <is>
-          <t>{'ACC_EM_Participation_Rate.ENTITY_NAME', 'ACC_EM_Participation_Rate.YEAR', 'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.RATE', 'ACC_EM_Participation_Rate.SUBJECT', 'ACC_EM_Participation_Rate.COHORT'}</t>
+          <t>{'ACC_EM_Participation_Rate.ENTITY_NAME', 'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.SUBJECT', 'ACC_EM_Participation_Rate.COHORT', 'ACC_EM_Participation_Rate.RATE', 'ACC_EM_Participation_Rate.YEAR'}</t>
         </is>
       </c>
       <c r="S321" t="inlineStr">
@@ -26205,7 +26205,7 @@
       </c>
       <c r="R322" t="inlineStr">
         <is>
-          <t>{'ACC_EM_Participation_Rate.ENTITY_CD', 'ACC_EM_Participation_Rate.MET_95_PERCENT', 'Institution_Grouping.GROUP_NAME', 'Institution_Grouping.ENTITY_CD'}</t>
+          <t>{'Institution_Grouping.GROUP_NAME', 'Institution_Grouping.ENTITY_CD', 'ACC_EM_Participation_Rate.ENTITY_CD', 'ACC_EM_Participation_Rate.MET_95_PERCENT'}</t>
         </is>
       </c>
       <c r="S322" t="inlineStr">
@@ -26215,7 +26215,7 @@
       </c>
       <c r="T322" t="inlineStr">
         <is>
-          <t>{'ACC_EM_Participation_Rate.SUBJECT', '1\n\n---\n\n**Summary Table:**\n\n| Type         | Value                                                                                 |\n|--------------|---------------------------------------------------------------------------------------|\n| Columns      | ACC_EM_Participation_Rate.ENTITY_CD'}</t>
+          <t>{'1\n\n---\n\n**Summary Table:**\n\n| Type         | Value                                                                                 |\n|--------------|---------------------------------------------------------------------------------------|\n| Columns      | ACC_EM_Participation_Rate.ENTITY_CD', 'ACC_EM_Participation_Rate.SUBJECT'}</t>
         </is>
       </c>
       <c r="U322" t="n">
@@ -26290,12 +26290,12 @@
       </c>
       <c r="S323" t="inlineStr">
         <is>
-          <t>{'ACC_EM_Participation_Rate.ENTITY_CD', 'Institution_Grouping.GROUP_NAME', 'Institution_Grouping.ENTITY_CD'}</t>
+          <t>{'Institution_Grouping.GROUP_NAME', 'Institution_Grouping.ENTITY_CD', 'ACC_EM_Participation_Rate.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="T323" t="inlineStr">
         <is>
-          <t>{'ACC_EM_Participation_Rate.SUBJECT', 'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.RATE !'}</t>
+          <t>{'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.RATE !', 'ACC_EM_Participation_Rate.SUBJECT'}</t>
         </is>
       </c>
       <c r="U323" t="n">
@@ -26370,12 +26370,12 @@
       </c>
       <c r="S324" t="inlineStr">
         <is>
-          <t>{'ACC_EM_Chronic_Absenteeism.SUBJECT', 'ACC_EM_Chronic_Absenteeism.ENTITY_CD', 'ACC_EM_Chronic_Absenteeism.ABSENT_RATE', 'Institution_Grouping.GROUP_NAME', 'Institution_Grouping.ENTITY_CD'}</t>
+          <t>{'ACC_EM_Chronic_Absenteeism.ENTITY_CD', 'Institution_Grouping.GROUP_NAME', 'Institution_Grouping.ENTITY_CD', 'ACC_EM_Chronic_Absenteeism.SUBJECT', 'ACC_EM_Chronic_Absenteeism.ABSENT_RATE'}</t>
         </is>
       </c>
       <c r="T324" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Chronic_Absenteeism.SUBJECT', 'ACC_HS_Chronic_Absenteeism.ABSENT_RATE'}</t>
+          <t>{'ACC_HS_Chronic_Absenteeism.ABSENT_RATE', 'ACC_HS_Chronic_Absenteeism.SUBJECT'}</t>
         </is>
       </c>
       <c r="U324" t="n">
@@ -26402,35 +26402,35 @@
         <v>7092</v>
       </c>
       <c r="F325" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G325" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I325" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J325" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K325" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L325" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M325" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="N325" t="n">
-        <v>0</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="O325" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'ACC_EM_Chronic_Absenteeism'}</t>
         </is>
       </c>
       <c r="P325" t="inlineStr">
@@ -26440,12 +26440,12 @@
       </c>
       <c r="Q325" t="inlineStr">
         <is>
-          <t>{'ENTITY_NAME is the best candidate', 'ACC_EM_Chronic_Absenteeism'}</t>
+          <t>{'ENTITY_NAME is the best candidate'}</t>
         </is>
       </c>
       <c r="R325" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.ABSENT_RATE'}</t>
         </is>
       </c>
       <c r="S325" t="inlineStr">
@@ -26455,7 +26455,7 @@
       </c>
       <c r="T325" t="inlineStr">
         <is>
-          <t>{'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'ENTITY_NAME is the best candidate.)*', 'ACC_EM_Chronic_Absenteeism.ABSENT_RATE', 'ACC_EM_Chronic_Absenteeism.ENTITY_NAME'}</t>
+          <t>{'ENTITY_NAME is the best candidate.)*'}</t>
         </is>
       </c>
       <c r="U325" t="n">
@@ -26525,12 +26525,12 @@
       </c>
       <c r="R326" t="inlineStr">
         <is>
-          <t>{'ACC_EM_Chronic_Absenteeism.ENROLLMENT', 'ACC_EM_Chronic_Absenteeism.YEAR', 'ACC_EM_Chronic_Absenteeism.ABSENT_RATE', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.ENTITY_NAME'}</t>
+          <t>{'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.ENROLLMENT', 'ACC_EM_Chronic_Absenteeism.YEAR', 'ACC_EM_Chronic_Absenteeism.ABSENT_RATE'}</t>
         </is>
       </c>
       <c r="S326" t="inlineStr">
         <is>
-          <t>{'ACC_EM_Chronic_Absenteeism.ENTITY_CD', 'Institution_Grouping.GROUP_NAME', 'Institution_Grouping.ENTITY_NAME', 'Institution_Grouping.ENTITY_CD'}</t>
+          <t>{'Institution_Grouping.GROUP_NAME', 'Institution_Grouping.ENTITY_CD', 'Institution_Grouping.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="T326" t="inlineStr">
@@ -26605,12 +26605,12 @@
       </c>
       <c r="R327" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.ABSENT_RATE'}</t>
+          <t>{'ACC_HS_Chronic_Absenteeism.ABSENT_RATE', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME'}</t>
         </is>
       </c>
       <c r="S327" t="inlineStr">
         <is>
-          <t>{'Institution_Grouping.GROUP_NAME', 'ACC_HS_Chronic_Absenteeism.ENTITY_CD', 'Institution_Grouping.ENTITY_CD'}</t>
+          <t>{'Institution_Grouping.GROUP_NAME', 'Institution_Grouping.ENTITY_CD', 'ACC_HS_Chronic_Absenteeism.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="T327" t="inlineStr">
@@ -26642,60 +26642,60 @@
         <v>7140</v>
       </c>
       <c r="F328" t="n">
-        <v>0</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="G328" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="I328" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J328" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K328" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L328" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="M328" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N328" t="n">
-        <v>0</v>
+        <v>0.7499999999999999</v>
       </c>
       <c r="O328" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'ACC_HS_Chronic_Absenteeism'}</t>
         </is>
       </c>
       <c r="P328" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'Institution_Grouping'}</t>
         </is>
       </c>
       <c r="Q328" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Chronic_Absenteeism'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R328" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'ACC_HS_Chronic_Absenteeism.YEAR', 'ACC_HS_Chronic_Absenteeism.ENROLLMENT', 'ACC_HS_Chronic_Absenteeism.ABSENT_COUNT', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME', 'ACC_HS_Chronic_Absenteeism.ABSENT_RATE', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME'}</t>
         </is>
       </c>
       <c r="S328" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'Institution_Grouping.GROUP_NAME', 'Institution_Grouping.ENTITY_CD', 'ACC_HS_Chronic_Absenteeism.ENTITY_CD', 'Institution_Grouping.ENTITY_NAME'}</t>
         </is>
       </c>
       <c r="T328" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Chronic_Absenteeism.ABSENT_COUNT', 'ACC_HS_Chronic_Absenteeism.ABSENT_RATE', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.ENROLLMENT', 'ACC_HS_Chronic_Absenteeism.YEAR'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="U328" t="n">
@@ -26765,7 +26765,7 @@
       </c>
       <c r="R329" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Core_and_Weighted_Performance.WEIGHTED_COHORT', 'ACC_HS_Core_and_Weighted_Performance.WEIGHTED_INDEX', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.YEAR', 'ACC_HS_Core_and_Weighted_Performance.SUBJECT', 'ACC_HS_Core_and_Weighted_Performance.CORE_INDEX', 'ACC_HS_Core_and_Weighted_Performance.CORE_COHORT'}</t>
+          <t>{'ACC_HS_Core_and_Weighted_Performance.WEIGHTED_COHORT', 'ACC_HS_Core_and_Weighted_Performance.YEAR', 'ACC_HS_Core_and_Weighted_Performance.CORE_COHORT', 'ACC_HS_Core_and_Weighted_Performance.CORE_INDEX', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.WEIGHTED_INDEX', 'ACC_HS_Core_and_Weighted_Performance.SUBJECT'}</t>
         </is>
       </c>
       <c r="S329" t="inlineStr">
@@ -26802,60 +26802,60 @@
         <v>7144</v>
       </c>
       <c r="F330" t="n">
-        <v>0</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="G330" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="I330" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J330" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K330" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L330" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M330" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N330" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O330" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'ACC_HS_Core_and_Weighted_Performance'}</t>
         </is>
       </c>
       <c r="P330" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'Institution_Grouping'}</t>
         </is>
       </c>
       <c r="Q330" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Core_and_Weighted_Performance'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R330" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.WEIGHTED_INDEX', 'ACC_HS_Core_and_Weighted_Performance.SUBJECT'}</t>
         </is>
       </c>
       <c r="S330" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'ACC_HS_Core_and_Weighted_Performance.YEAR', 'Institution_Grouping.GROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_CD', 'Institution_Grouping.ENTITY_CD', 'Institution_Grouping.ENTITY_NAME'}</t>
         </is>
       </c>
       <c r="T330" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Core_and_Weighted_Performance.WEIGHTED_INDEX', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBJECT'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="U330" t="n">
@@ -26915,7 +26915,7 @@
       </c>
       <c r="P331" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'Institution_Grouping', 'ACC_HS_Core_and_Weighted_Performance'}</t>
         </is>
       </c>
       <c r="Q331" t="inlineStr">
@@ -26930,12 +26930,12 @@
       </c>
       <c r="S331" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'Institution_Grouping.GROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_CD', 'ACC_HS_Core_and_Weighted_Performance.WEIGHTED_INDEX', 'Institution_Grouping.ENTITY_CD', 'Institution_Grouping.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBJECT'}</t>
         </is>
       </c>
       <c r="T331" t="inlineStr">
         <is>
-          <t>{'BOCES_and_N/RC.YEAR', 'BOCES_and_N/RC.DISTRICT_NAME', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_CD', 'BOCES_and_N/RC.DISTRICT_CD', 'ACC_EM_Core_and_Weighted_Performance.YEAR', 'ACC_EM_Core_and_Weighted_Performance.WEIGHTED_INDEX', 'ACC_EM_Core_and_Weighted_Performance.SUBJECT'}</t>
+          <t>{'BOCES_and_N/RC.YEAR', 'ACC_EM_Core_and_Weighted_Performance.SUBJECT', 'BOCES_and_N/RC.DISTRICT_CD', 'ACC_EM_Core_and_Weighted_Performance.WEIGHTED_INDEX', 'ACC_EM_Core_and_Weighted_Performance.YEAR', 'BOCES_and_N/RC.DISTRICT_NAME', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="U331" t="n">
@@ -27005,7 +27005,7 @@
       </c>
       <c r="R332" t="inlineStr">
         <is>
-          <t>{'ACC_HS_ELP.LEVEL', 'ACC_HS_ELP.YEAR', 'ACC_HS_ELP.ELL_COUNT', 'ACC_HS_ELP.PROGRESS_RATE', 'ACC_HS_ELP.BENCHMARK', 'ACC_HS_ELP.SUCCESS_RATIO', 'ACC_HS_ELP.ENTITY_NAME', 'ACC_HS_ELP.SUBGROUP_NAME'}</t>
+          <t>{'ACC_HS_ELP.BENCHMARK', 'ACC_HS_ELP.SUCCESS_RATIO', 'ACC_HS_ELP.SUBGROUP_NAME', 'ACC_HS_ELP.ENTITY_NAME', 'ACC_HS_ELP.LEVEL', 'ACC_HS_ELP.ELL_COUNT', 'ACC_HS_ELP.PROGRESS_RATE', 'ACC_HS_ELP.YEAR'}</t>
         </is>
       </c>
       <c r="S332" t="inlineStr">
@@ -27090,12 +27090,12 @@
       </c>
       <c r="S333" t="inlineStr">
         <is>
-          <t>{'ACC_HS_ELP.ENTITY_CD', 'ACC_HS_ELP.SUBGROUP_NAME', 'Institution_Grouping.GROUP_NAME', 'Institution_Grouping.ENTITY_CD'}</t>
+          <t>{'Institution_Grouping.GROUP_NAME', 'Institution_Grouping.ENTITY_CD', 'ACC_HS_ELP.SUBGROUP_NAME', 'ACC_HS_ELP.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="T333" t="inlineStr">
         <is>
-          <t>{'but the schema does not provide a way to distinguish public/private in this context.---\n\n**', 'ACC_HS_ELP.SUBGROUP_NAME\n\n---\n\n**Explanation:**  \n- We need the ELL count and subgroup name from the high school English Language Proficiency table'}</t>
+          <t>{'ACC_HS_ELP.SUBGROUP_NAME\n\n---\n\n**Explanation:**  \n- We need the ELL count and subgroup name from the high school English Language Proficiency table', 'but the schema does not provide a way to distinguish public/private in this context.---\n\n**'}</t>
         </is>
       </c>
       <c r="U333" t="n">
@@ -27122,60 +27122,60 @@
         <v>7478</v>
       </c>
       <c r="F334" t="n">
-        <v>0</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="G334" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="I334" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="J334" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K334" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="L334" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="M334" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="N334" t="n">
-        <v>0</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="O334" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'ACC_HS_ELP', 'Expenditures_per_Pupil'}</t>
         </is>
       </c>
       <c r="P334" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'Institution_Grouping'}</t>
         </is>
       </c>
       <c r="Q334" t="inlineStr">
         <is>
-          <t>{'Expenditures_per_Pupil', 'ACC_HS_ELP'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R334" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'Expenditures_per_Pupil.ENTITY_NAME', 'ACC_HS_ELP.SUBGROUP_NAME', 'Expenditures_per_Pupil.YEAR', 'ACC_HS_ELP.ENTITY_NAME', 'ACC_HS_ELP.ELL_COUNT', 'ACC_HS_ELP.YEAR'}</t>
         </is>
       </c>
       <c r="S334" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'Expenditures_per_Pupil.PER_FED_STATE_LOCAL_EXP', 'Institution_Grouping.GROUP_NAME', 'Expenditures_per_Pupil.ENTITY_CD', 'ACC_HS_ELP.ENTITY_CD', 'Institution_Grouping.ENTITY_CD', 'Institution_Grouping.ENTITY_NAME'}</t>
         </is>
       </c>
       <c r="T334" t="inlineStr">
         <is>
-          <t>{'ACC_HS_ELP.YEAR', 'ACC_HS_ELP.SUBJECT', 'ACC_HS_ELP.ELL_COUNT', 'ACC_HS_ELP.INSTITUTION_ID', 'Expenditures_per_Pupil.YEAR', 'Expenditures_per_Pupil.ENTITY_NAME', 'Expenditures_per_Pupil.INSTITUTION_ID', 'ACC_HS_ELP.ENTITY_NAME', 'Expenditures_per_Pupil.PER_FEDERAL_EXP', 'ACC_HS_ELP.SUBGROUP_NAME'}</t>
+          <t>{'Expenditures_per_Pupil.PER_FEDERAL_EXP', 'ACC_HS_ELP.SUBJECT', 'Expenditures_per_Pupil.INSTITUTION_ID', 'ACC_HS_ELP.INSTITUTION_ID'}</t>
         </is>
       </c>
       <c r="U334" t="n">
@@ -27325,7 +27325,7 @@
       </c>
       <c r="R336" t="inlineStr">
         <is>
-          <t>{'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.SCHOOL_TYPE', 'Accountability_Status_by_Subgroup.YEAR'}</t>
+          <t>{'Accountability_Status_by_Subgroup.SCHOOL_TYPE', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.YEAR'}</t>
         </is>
       </c>
       <c r="S336" t="inlineStr">
@@ -27405,7 +27405,7 @@
       </c>
       <c r="R337" t="inlineStr">
         <is>
-          <t>{'Accountability_Status_by_Subgroup.OVERALL_STATUS', 'Accountability_Status_by_Subgroup.YEAR', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.SCHOOL_TYPE', 'Accountability_Status_by_Subgroup.ENTITY_NAME'}</t>
+          <t>{'Accountability_Status_by_Subgroup.OVERALL_STATUS', 'Accountability_Status_by_Subgroup.SCHOOL_TYPE', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.ENTITY_NAME', 'Accountability_Status_by_Subgroup.YEAR'}</t>
         </is>
       </c>
       <c r="S337" t="inlineStr">
@@ -27490,7 +27490,7 @@
       </c>
       <c r="S338" t="inlineStr">
         <is>
-          <t>{'Annual_EM_SCIENCE.LEVEL4_%TESTED', 'Annual_EM_SCIENCE.LEVEL2_%TESTED', 'Institution_Grouping.GROUP_NAME', 'Institution_Grouping.ENTITY_CD', 'Annual_EM_SCIENCE.LEVEL3_%TESTED', 'Annual_EM_SCIENCE.LEVEL1_%TESTED', 'Annual_EM_SCIENCE.ENTITY_CD'}</t>
+          <t>{'Annual_EM_SCIENCE.LEVEL2_%TESTED', 'Annual_EM_SCIENCE.LEVEL4_%TESTED', 'Institution_Grouping.GROUP_NAME', 'Annual_EM_SCIENCE.LEVEL1_%TESTED', 'Institution_Grouping.ENTITY_CD', 'Annual_EM_SCIENCE.LEVEL3_%TESTED', 'Annual_EM_SCIENCE.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="T338" t="inlineStr">
@@ -27565,12 +27565,12 @@
       </c>
       <c r="R339" t="inlineStr">
         <is>
-          <t>{'Annual_EM_SCIENCE.SUBGROUP_NAME', 'Annual_EM_SCIENCE.LEVEL4_%TESTED', 'Annual_EM_SCIENCE.ASSESSMENT_NAME', 'Annual_EM_SCIENCE.LEVEL2_%TESTED', 'Annual_EM_SCIENCE.LEVEL3_%TESTED', 'Annual_EM_SCIENCE.LEVEL1_%TESTED'}</t>
+          <t>{'Annual_EM_SCIENCE.LEVEL4_%TESTED', 'Annual_EM_SCIENCE.ASSESSMENT_NAME', 'Annual_EM_SCIENCE.LEVEL2_%TESTED', 'Annual_EM_SCIENCE.LEVEL1_%TESTED', 'Annual_EM_SCIENCE.LEVEL3_%TESTED', 'Annual_EM_SCIENCE.SUBGROUP_NAME'}</t>
         </is>
       </c>
       <c r="S339" t="inlineStr">
         <is>
-          <t>{'Institution_Grouping.GROUP_NAME', 'Annual_EM_SCIENCE.ENTITY_CD', 'Institution_Grouping.ENTITY_CD'}</t>
+          <t>{'Institution_Grouping.GROUP_NAME', 'Institution_Grouping.ENTITY_CD', 'Annual_EM_SCIENCE.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="T339" t="inlineStr">
@@ -27725,7 +27725,7 @@
       </c>
       <c r="R341" t="inlineStr">
         <is>
-          <t>{'Annual_NYSESLAT.SUBJECT', 'Annual_NYSESLAT.SUBGROUP_NAME', 'Annual_NYSESLAT.YEAR', 'Annual_NYSESLAT.ENTITY_NAME'}</t>
+          <t>{'Annual_NYSESLAT.SUBJECT', 'Annual_NYSESLAT.ENTITY_NAME', 'Annual_NYSESLAT.SUBGROUP_NAME', 'Annual_NYSESLAT.YEAR'}</t>
         </is>
       </c>
       <c r="S341" t="inlineStr">
@@ -27805,7 +27805,7 @@
       </c>
       <c r="R342" t="inlineStr">
         <is>
-          <t>{'Annual_NYSESLAT.PER_EMER', 'Annual_NYSESLAT.PER_EXP', 'Annual_NYSESLAT.SUBJECT', 'Annual_NYSESLAT.PER_TRAN', 'Annual_NYSESLAT.PER_ENT', 'Annual_NYSESLAT.YEAR', 'Annual_NYSESLAT.ENTITY_NAME', 'Annual_NYSESLAT.SUBGROUP_NAME'}</t>
+          <t>{'Annual_NYSESLAT.ENTITY_NAME', 'Annual_NYSESLAT.PER_EMER', 'Annual_NYSESLAT.PER_ENT', 'Annual_NYSESLAT.SUBJECT', 'Annual_NYSESLAT.PER_TRAN', 'Annual_NYSESLAT.YEAR', 'Annual_NYSESLAT.SUBGROUP_NAME', 'Annual_NYSESLAT.PER_EXP'}</t>
         </is>
       </c>
       <c r="S342" t="inlineStr">
@@ -27890,12 +27890,12 @@
       </c>
       <c r="S343" t="inlineStr">
         <is>
-          <t>{'Annual_NYSESLAT.SUBJECT', 'Annual_NYSESLAT.ENTITY_CD', 'Institution_Grouping.GROUP_NAME', 'Institution_Grouping.ENTITY_CD'}</t>
+          <t>{'Institution_Grouping.GROUP_NAME', 'Institution_Grouping.ENTITY_CD', 'Annual_NYSESLAT.ENTITY_CD', 'Annual_NYSESLAT.SUBJECT'}</t>
         </is>
       </c>
       <c r="T343" t="inlineStr">
         <is>
-          <t>{'Annual_NYSESLAT.subject', 'Annual_NYSESLAT.ENTITY_NAME'}</t>
+          <t>{'Annual_NYSESLAT.ENTITY_NAME', 'Annual_NYSESLAT.subject'}</t>
         </is>
       </c>
       <c r="U343" t="n">
@@ -27965,17 +27965,17 @@
       </c>
       <c r="R344" t="inlineStr">
         <is>
-          <t>{'Annual_NYSESLAT.PER_EMER', 'Annual_NYSESLAT.PER_EXP', 'Annual_NYSESLAT.PER_TRAN', 'Annual_NYSESLAT.PER_ENT', 'Annual_NYSESLAT.PER_COM', 'Annual_NYSESLAT.YEAR'}</t>
+          <t>{'Annual_NYSESLAT.PER_EMER', 'Annual_NYSESLAT.PER_ENT', 'Annual_NYSESLAT.PER_TRAN', 'Annual_NYSESLAT.PER_COM', 'Annual_NYSESLAT.YEAR', 'Annual_NYSESLAT.PER_EXP'}</t>
         </is>
       </c>
       <c r="S344" t="inlineStr">
         <is>
-          <t>{'Annual_NYSESLAT.SUBJECT', 'Annual_NYSESLAT.ENTITY_CD', 'Institution_Grouping.GROUP_NAME', 'Institution_Grouping.ENTITY_CD'}</t>
+          <t>{'Institution_Grouping.GROUP_NAME', 'Institution_Grouping.ENTITY_CD', 'Annual_NYSESLAT.ENTITY_CD', 'Annual_NYSESLAT.SUBJECT'}</t>
         </is>
       </c>
       <c r="T344" t="inlineStr">
         <is>
-          <t>{'Annual_NYSESLAT.subject', 'Annual_NYSESLAT.ENTITY_NAME'}</t>
+          <t>{'Annual_NYSESLAT.ENTITY_NAME', 'Annual_NYSESLAT.subject'}</t>
         </is>
       </c>
       <c r="U344" t="n">
@@ -28050,7 +28050,7 @@
       </c>
       <c r="S345" t="inlineStr">
         <is>
-          <t>{'Annual_NYSESLAT.NUM_EXP', 'Annual_NYSESLAT.SUBJECT', 'Annual_NYSESLAT.NUM_ENT', 'Annual_NYSESLAT.NUM_TRAN', 'Annual_NYSESLAT.YEAR', 'Annual_NYSESLAT.ENTITY_NAME', 'Annual_NYSESLAT.SUBGROUP_NAME', 'Annual_NYSESLAT.NUM_EMER'}</t>
+          <t>{'Annual_NYSESLAT.ENTITY_NAME', 'Annual_NYSESLAT.NUM_EMER', 'Annual_NYSESLAT.SUBJECT', 'Annual_NYSESLAT.NUM_ENT', 'Annual_NYSESLAT.SUBGROUP_NAME', 'Annual_NYSESLAT.YEAR', 'Annual_NYSESLAT.NUM_EXP', 'Annual_NYSESLAT.NUM_TRAN'}</t>
         </is>
       </c>
       <c r="T345" t="inlineStr">
@@ -28125,7 +28125,7 @@
       </c>
       <c r="R346" t="inlineStr">
         <is>
-          <t>{'BOCES_and_N/RC.SCHOOL_NAME', 'BOCES_and_N/RC.YEAR', 'BOCES_and_N/RC.BOCES_NAME'}</t>
+          <t>{'BOCES_and_N/RC.BOCES_NAME', 'BOCES_and_N/RC.SCHOOL_NAME', 'BOCES_and_N/RC.YEAR'}</t>
         </is>
       </c>
       <c r="S346" t="inlineStr">
@@ -28205,7 +28205,7 @@
       </c>
       <c r="R347" t="inlineStr">
         <is>
-          <t>{'BOCES_and_N/RC.SCHOOL_NAME', 'BOCES_and_N/RC.COUNTY_NAME', 'BOCES_and_N/RC.YEAR'}</t>
+          <t>{'BOCES_and_N/RC.SCHOOL_NAME', 'BOCES_and_N/RC.YEAR', 'BOCES_and_N/RC.COUNTY_NAME'}</t>
         </is>
       </c>
       <c r="S347" t="inlineStr">
@@ -28270,7 +28270,7 @@
       </c>
       <c r="O348" t="inlineStr">
         <is>
-          <t>{'Expenditures_per_Pupil', 'BOCES_and_N/RC'}</t>
+          <t>{'BOCES_and_N/RC', 'Expenditures_per_Pupil'}</t>
         </is>
       </c>
       <c r="P348" t="inlineStr">
@@ -28285,7 +28285,7 @@
       </c>
       <c r="R348" t="inlineStr">
         <is>
-          <t>{'Expenditures_per_Pupil.ENTITY_CD', 'BOCES_and_N/RC.BOCES_NAME', 'Expenditures_per_Pupil.YEAR', 'BOCES_and_N/RC.YEAR', 'BOCES_and_N/RC.ENTITY_CD', 'Expenditures_per_Pupil.PER_STATE_LOCAL_EXP', 'Expenditures_per_Pupil.PER_FEDERAL_EXP'}</t>
+          <t>{'Expenditures_per_Pupil.PER_FEDERAL_EXP', 'BOCES_and_N/RC.YEAR', 'Expenditures_per_Pupil.ENTITY_CD', 'BOCES_and_N/RC.BOCES_NAME', 'Expenditures_per_Pupil.YEAR', 'BOCES_and_N/RC.ENTITY_CD', 'Expenditures_per_Pupil.PER_STATE_LOCAL_EXP'}</t>
         </is>
       </c>
       <c r="S348" t="inlineStr">
@@ -28375,7 +28375,7 @@
       </c>
       <c r="T349" t="inlineStr">
         <is>
-          <t>{'BOCES_and_N/RC.BOCES_CD', 'BOCES_and_N/RC.BOCES_NAME**\n\n(You would typically use COUNT(DISTINCT BOCES_CD) or COUNT(DISTINCT BOCES_NAME) to answer the question'}</t>
+          <t>{'BOCES_and_N/RC.BOCES_NAME**\n\n(You would typically use COUNT(DISTINCT BOCES_CD) or COUNT(DISTINCT BOCES_NAME) to answer the question', 'BOCES_and_N/RC.BOCES_CD'}</t>
         </is>
       </c>
       <c r="U349" t="n">
@@ -28445,7 +28445,7 @@
       </c>
       <c r="R350" t="inlineStr">
         <is>
-          <t>{'BOCES_and_N/RC.COUNTY_NAME', 'BOCES_and_N/RC.BOCES_NAME'}</t>
+          <t>{'BOCES_and_N/RC.BOCES_NAME', 'BOCES_and_N/RC.COUNTY_NAME'}</t>
         </is>
       </c>
       <c r="S350" t="inlineStr">
@@ -28525,7 +28525,7 @@
       </c>
       <c r="R351" t="inlineStr">
         <is>
-          <t>{'Inexperienced_Teachers_and_Principals.PER_TEACH_INEXP', 'Inexperienced_Teachers_and_Principals.NUM_TEACH_INEXP', 'Inexperienced_Teachers_and_Principals.YEAR', 'Inexperienced_Teachers_and_Principals.ENTITY_NAME', 'Inexperienced_Teachers_and_Principals.NUM_TEACH'}</t>
+          <t>{'Inexperienced_Teachers_and_Principals.NUM_TEACH', 'Inexperienced_Teachers_and_Principals.NUM_TEACH_INEXP', 'Inexperienced_Teachers_and_Principals.PER_TEACH_INEXP', 'Inexperienced_Teachers_and_Principals.YEAR', 'Inexperienced_Teachers_and_Principals.ENTITY_NAME'}</t>
         </is>
       </c>
       <c r="S351" t="inlineStr">
@@ -28562,60 +28562,60 @@
         <v>7020</v>
       </c>
       <c r="F352" t="n">
-        <v>0</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="G352" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="I352" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J352" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K352" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L352" t="n">
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="M352" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N352" t="n">
-        <v>0</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="O352" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'Inexperienced_Teachers_and_Principals'}</t>
         </is>
       </c>
       <c r="P352" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'Institution_Grouping'}</t>
         </is>
       </c>
       <c r="Q352" t="inlineStr">
         <is>
-          <t>{'Inexperienced_Teachers_and_Principals'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R352" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'Inexperienced_Teachers_and_Principals.ENTITY_CD', 'Inexperienced_Teachers_and_Principals.YEAR', 'Inexperienced_Teachers_and_Principals.ENTITY_NAME', 'Inexperienced_Teachers_and_Principals.PER_TEACH_INEXP'}</t>
         </is>
       </c>
       <c r="S352" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'Institution_Grouping.GROUP_NAME', 'Institution_Grouping.ENTITY_CD', 'Institution_Grouping.ENTITY_NAME'}</t>
         </is>
       </c>
       <c r="T352" t="inlineStr">
         <is>
-          <t>{'Inexperienced_Teachers_and_Principals.ENTITY_NAME', 'Inexperienced_Teachers_and_Principals.PER_TEACH_INEXP', 'Inexperienced_Teachers_and_Principals.ENTITY_CD', 'Inexperienced_Teachers_and_Principals.YEAR'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="U352" t="n">
@@ -28642,35 +28642,35 @@
         <v>7127</v>
       </c>
       <c r="F353" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G353" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>0.7272727272727272</v>
       </c>
       <c r="I353" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J353" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K353" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L353" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="M353" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="N353" t="n">
-        <v>0</v>
+        <v>0.5714285714285715</v>
       </c>
       <c r="O353" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'BOCES_and_N/RC', 'Inexperienced_Teachers_and_Principals'}</t>
         </is>
       </c>
       <c r="P353" t="inlineStr">
@@ -28680,22 +28680,22 @@
       </c>
       <c r="Q353" t="inlineStr">
         <is>
-          <t>{'Inexperienced_Teachers_and_Principals', 'BOCES_and_N/RC'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R353" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'Inexperienced_Teachers_and_Principals.ENTITY_CD', 'Inexperienced_Teachers_and_Principals.PER_TEACH_INEXP'}</t>
         </is>
       </c>
       <c r="S353" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'BOCES_and_N/RC.DISTRICT_NAME', 'BOCES_and_N/RC.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="T353" t="inlineStr">
         <is>
-          <t>{'BOCES_and_N/RC.ENTITY', 'Inexperienced_Teachers_and_Principals.PER_TEACH_INEXP', 'Inexperienced_Teachers_and_Principals.ENTITY_CD'}</t>
+          <t>{'BOCES_and_N/RC.ENTITY'}</t>
         </is>
       </c>
       <c r="U353" t="n">
@@ -28770,7 +28770,7 @@
       </c>
       <c r="S354" t="inlineStr">
         <is>
-          <t>{'Inexperienced_Teachers_and_Principals.TOT_TEACH_LOW', 'Inexperienced_Teachers_and_Principals.TOT_PRINC_LOW'}</t>
+          <t>{'Inexperienced_Teachers_and_Principals.TOT_PRINC_LOW', 'Inexperienced_Teachers_and_Principals.TOT_TEACH_LOW'}</t>
         </is>
       </c>
       <c r="T354" t="inlineStr">
@@ -28925,7 +28925,7 @@
       </c>
       <c r="R356" t="inlineStr">
         <is>
-          <t>{'Postsecondary_Enrollment.YEAR', 'Postsecondary_Enrollment.ENTITY_NAME', 'Postsecondary_Enrollment.SUBGROUP_NAME', 'Postsecondary_Enrollment.PER_NYS_PUB_2_YR', 'Postsecondary_Enrollment.PER_NYS_PUB_4_YR'}</t>
+          <t>{'Postsecondary_Enrollment.YEAR', 'Postsecondary_Enrollment.PER_NYS_PUB_2_YR', 'Postsecondary_Enrollment.SUBGROUP_NAME', 'Postsecondary_Enrollment.PER_NYS_PUB_4_YR', 'Postsecondary_Enrollment.ENTITY_NAME'}</t>
         </is>
       </c>
       <c r="S356" t="inlineStr">
@@ -28962,60 +28962,60 @@
         <v>7123</v>
       </c>
       <c r="F357" t="n">
-        <v>0</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="G357" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I357" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J357" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K357" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L357" t="n">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="M357" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N357" t="n">
-        <v>0</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="O357" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'Teachers_Teaching_Out_of_Certification'}</t>
         </is>
       </c>
       <c r="P357" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'Institution_Grouping'}</t>
         </is>
       </c>
       <c r="Q357" t="inlineStr">
         <is>
-          <t>{'Teachers_Teaching_Out_of_Certification'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R357" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'Teachers_Teaching_Out_of_Certification.ENTITY_NAME'}</t>
         </is>
       </c>
       <c r="S357" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'Institution_Grouping.GROUP_NAME', 'Teachers_Teaching_Out_of_Certification.NUM_OUT_CERT', 'Teachers_Teaching_Out_of_Certification.YEAR', 'Institution_Grouping.ENTITY_CD', 'Institution_Grouping.ENTITY_NAME', 'Teachers_Teaching_Out_of_Certification.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="T357" t="inlineStr">
         <is>
-          <t>{'Teachers_Teaching_Out_of_Certification.ENTITY_NAME', 'Teachers_Teaching_Out_of_Certification.NUM_TEACH_OC'}</t>
+          <t>{'Teachers_Teaching_Out_of_Certification.NUM_TEACH_OC'}</t>
         </is>
       </c>
       <c r="U357" t="n">
@@ -29085,7 +29085,7 @@
       </c>
       <c r="R358" t="inlineStr">
         <is>
-          <t>{'Teachers_Teaching_Out_of_Certification.PER_OUT_CERT', 'Teachers_Teaching_Out_of_Certification.ENTITY_NAME', 'Teachers_Teaching_Out_of_Certification.YEAR', 'Teachers_Teaching_Out_of_Certification.NUM_OUT_CERT'}</t>
+          <t>{'Teachers_Teaching_Out_of_Certification.ENTITY_NAME', 'Teachers_Teaching_Out_of_Certification.NUM_OUT_CERT', 'Teachers_Teaching_Out_of_Certification.YEAR', 'Teachers_Teaching_Out_of_Certification.PER_OUT_CERT'}</t>
         </is>
       </c>
       <c r="S358" t="inlineStr">
@@ -29170,7 +29170,7 @@
       </c>
       <c r="S359" t="inlineStr">
         <is>
-          <t>{'Teachers_Teaching_Out_of_Certification.ENTITY_CD', 'BOCES_and_N/RC.ENTITY_CD', 'Teachers_Teaching_Out_of_Certification.NUM_OUT_CERT'}</t>
+          <t>{'Teachers_Teaching_Out_of_Certification.NUM_OUT_CERT', 'BOCES_and_N/RC.ENTITY_CD', 'Teachers_Teaching_Out_of_Certification.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="T359" t="inlineStr">
@@ -29245,12 +29245,12 @@
       </c>
       <c r="R360" t="inlineStr">
         <is>
-          <t>{'Total_Cohort_Regents_Exams.LEVEL2_COUNT', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'Total_Cohort_Regents_Exams.COHORT', 'Total_Cohort_Regents_Exams.COHORT_COUNT', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.LEVEL4_COUNT', 'Total_Cohort_Regents_Exams.LEVEL1_COUNT', 'Total_Cohort_Regents_Exams.LEVEL3_COUNT'}</t>
+          <t>{'Total_Cohort_Regents_Exams.LEVEL1_COUNT', 'Total_Cohort_Regents_Exams.LEVEL4_COUNT', 'Total_Cohort_Regents_Exams.LEVEL2_COUNT', 'Total_Cohort_Regents_Exams.COHORT_COUNT', 'Total_Cohort_Regents_Exams.COHORT', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'Total_Cohort_Regents_Exams.LEVEL3_COUNT', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME'}</t>
         </is>
       </c>
       <c r="S360" t="inlineStr">
         <is>
-          <t>{'Total_Cohort_Regents_Exams.SUBJECT', 'Total_Cohort_Regents_Exams.TEST_COUNT'}</t>
+          <t>{'Total_Cohort_Regents_Exams.TEST_COUNT', 'Total_Cohort_Regents_Exams.SUBJECT'}</t>
         </is>
       </c>
       <c r="T360" t="inlineStr">
@@ -29315,7 +29315,7 @@
       </c>
       <c r="P361" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'Institution_Grouping', 'Total_Cohort_Regents_Exams'}</t>
         </is>
       </c>
       <c r="Q361" t="inlineStr">
@@ -29330,12 +29330,12 @@
       </c>
       <c r="S361" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'Total_Cohort_Regents_Exams.ENTITY_CD', 'Institution_Grouping.GROUP_NAME', 'Total_Cohort_Regents_Exams.COHORT', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'Total_Cohort_Regents_Exams.LEVEL4_%COHORT', 'Total_Cohort_Regents_Exams.SUBJECT', 'Institution_Grouping.ENTITY_CD', 'Institution_Grouping.ENTITY_NAME', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME'}</t>
         </is>
       </c>
       <c r="T361" t="inlineStr">
         <is>
-          <t>{'Annual_Regents_Exams.SUBGROUP_NAME', 'Annual_Regents_Exams.ENTITY_NAME', 'Annual_Regents_Exams.SUBJECT', 'Annual_Regents_Exams.YEAR', 'Annual_Regents_Exams.PER_LEVEL4'}</t>
+          <t>{'Annual_Regents_Exams.SUBJECT', 'Annual_Regents_Exams.YEAR', 'Annual_Regents_Exams.PER_LEVEL4', 'Annual_Regents_Exams.SUBGROUP_NAME', 'Annual_Regents_Exams.ENTITY_NAME'}</t>
         </is>
       </c>
       <c r="U361" t="n">
@@ -29485,7 +29485,7 @@
       </c>
       <c r="R363" t="inlineStr">
         <is>
-          <t>{'Annual_EM_SCIENCE.YEAR', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'Annual_EM_SCIENCE.ASSESSMENT_NAME', 'Annual_EM_SCIENCE.TOTAL_COUNT', 'Annual_EM_SCIENCE.ENTITY_NAME'}</t>
+          <t>{'Annual_EM_SCIENCE.ASSESSMENT_NAME', 'Annual_EM_SCIENCE.TOTAL_COUNT', 'Annual_EM_SCIENCE.ENTITY_NAME', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'Annual_EM_SCIENCE.YEAR'}</t>
         </is>
       </c>
       <c r="S363" t="inlineStr">
@@ -29522,60 +29522,60 @@
         <v>6872</v>
       </c>
       <c r="F364" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="G364" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>0.5714285714285715</v>
       </c>
       <c r="I364" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J364" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K364" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L364" t="n">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="M364" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N364" t="n">
-        <v>0</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="O364" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'Postsecondary_Enrollment'}</t>
         </is>
       </c>
       <c r="P364" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'Institution_Grouping'}</t>
         </is>
       </c>
       <c r="Q364" t="inlineStr">
         <is>
-          <t>{'Postsecondary_Enrollment'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R364" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'Postsecondary_Enrollment.PER_OUT_4_YR', 'Postsecondary_Enrollment.ENTITY_NAME', 'Postsecondary_Enrollment.YEAR'}</t>
         </is>
       </c>
       <c r="S364" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'Postsecondary_Enrollment.ENTITY_CD', 'Institution_Grouping.GROUP_NAME', 'Institution_Grouping.ENTITY_CD', 'Institution_Grouping.ENTITY_NAME', 'Postsecondary_Enrollment.SUBGROUP_NAME'}</t>
         </is>
       </c>
       <c r="T364" t="inlineStr">
         <is>
-          <t>{'Postsecondary_Enrollment.YEAR', 'Postsecondary_Enrollment.PER_OUT_4_YR', 'Postsecondary_Enrollment.ENTITY_NAME'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="U364" t="n">
@@ -29805,7 +29805,7 @@
       </c>
       <c r="R367" t="inlineStr">
         <is>
-          <t>{'tbl_Locations.Site_ID', 'tbl_Locations.Island'}</t>
+          <t>{'tbl_Locations.Island', 'tbl_Locations.Site_ID'}</t>
         </is>
       </c>
       <c r="S367" t="inlineStr">
@@ -30205,7 +30205,7 @@
       </c>
       <c r="R372" t="inlineStr">
         <is>
-          <t>{'tbl_Events.Station_ID', 'tbl_Events.Verified_by', 'tbl_Events.Repeat_Sample', 'tbl_Events.Start_Date', 'tbl_Events.Event_ID'}</t>
+          <t>{'tbl_Events.Station_ID', 'tbl_Events.Event_ID', 'tbl_Events.Start_Date', 'tbl_Events.Verified_by', 'tbl_Events.Repeat_Sample'}</t>
         </is>
       </c>
       <c r="S372" t="inlineStr">
@@ -30280,7 +30280,7 @@
       </c>
       <c r="Q373" t="inlineStr">
         <is>
-          <t>{'tbl_Habitat', 'e', 'substitute as appropriate', '`tbl_Habitat'}</t>
+          <t>{'`tbl_Habitat', 'substitute as appropriate', 'e', 'tbl_Habitat'}</t>
         </is>
       </c>
       <c r="R373" t="inlineStr">
@@ -30290,12 +30290,12 @@
       </c>
       <c r="S373" t="inlineStr">
         <is>
-          <t>{'tbl_Observations.Species_ID', 'tlu_Species.Habitat', 'tlu_Species.Species_ID'}</t>
+          <t>{'tlu_Species.Species_ID', 'tbl_Observations.Species_ID', 'tlu_Species.Habitat'}</t>
         </is>
       </c>
       <c r="T373" t="inlineStr">
         <is>
-          <t>{'tbl_Observations.Event_ID', 'e.g', 'tbl_Observations.Observation_ID', 'tbl_Habitat.Noted_Canopy_Spp_Common', 'substitute as appropriate.)*', 'tbl_Habitat.Event_ID', '`tbl_Habitat.Habitat`'}</t>
+          <t>{'tbl_Observations.Observation_ID', 'e.g', 'substitute as appropriate.)*', 'tbl_Habitat.Event_ID', 'tbl_Habitat.Noted_Canopy_Spp_Common', 'tbl_Observations.Event_ID', '`tbl_Habitat.Habitat`'}</t>
         </is>
       </c>
       <c r="U373" t="n">
@@ -30365,7 +30365,7 @@
       </c>
       <c r="R374" t="inlineStr">
         <is>
-          <t>{'tbl_Observations.Species_ID', 'tlu_Species.Habitat', 'tlu_Species.Species_ID'}</t>
+          <t>{'tlu_Species.Species_ID', 'tbl_Observations.Species_ID', 'tlu_Species.Habitat'}</t>
         </is>
       </c>
       <c r="S374" t="inlineStr">
@@ -30430,7 +30430,7 @@
       </c>
       <c r="O375" t="inlineStr">
         <is>
-          <t>{'tbl_Observations', 'tbl_Events'}</t>
+          <t>{'tbl_Events', 'tbl_Observations'}</t>
         </is>
       </c>
       <c r="P375" t="inlineStr">
@@ -30445,7 +30445,7 @@
       </c>
       <c r="R375" t="inlineStr">
         <is>
-          <t>{'tbl_Observations.Event_ID', 'tbl_Events.Event_ID'}</t>
+          <t>{'tbl_Events.Event_ID', 'tbl_Observations.Event_ID'}</t>
         </is>
       </c>
       <c r="S375" t="inlineStr">
@@ -30482,35 +30482,35 @@
         <v>5960</v>
       </c>
       <c r="F376" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G376" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="I376" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J376" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="K376" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="L376" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M376" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="N376" t="n">
-        <v>0</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="O376" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Observations', 'tlu_Species'}</t>
         </is>
       </c>
       <c r="P376" t="inlineStr">
@@ -30520,12 +30520,12 @@
       </c>
       <c r="Q376" t="inlineStr">
         <is>
-          <t>{'tbl_Observations', 'tlu_Species', '3  \n&gt; (If filtering for birds: add tlu_Species'}</t>
+          <t>{'3  \n&gt; (If filtering for birds: add tlu_Species'}</t>
         </is>
       </c>
       <c r="R376" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tlu_Species.Common_Name', 'tlu_Species.Scientific_Name', 'tlu_Species.Species_ID', 'tbl_Observations.Species_ID'}</t>
         </is>
       </c>
       <c r="S376" t="inlineStr">
@@ -30535,7 +30535,7 @@
       </c>
       <c r="T376" t="inlineStr">
         <is>
-          <t>{'tbl_Observations.Species_ID', 'tlu_Species.Scientific_Name', '3  \n&gt; (If filtering for birds: add tlu_Species.Family', 'tlu_Species.Common_Name', 'tlu_Species.Species_ID'}</t>
+          <t>{'3  \n&gt; (If filtering for birds: add tlu_Species.Family'}</t>
         </is>
       </c>
       <c r="U376" t="n">
@@ -30562,35 +30562,35 @@
         <v>5745</v>
       </c>
       <c r="F377" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G377" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I377" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J377" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K377" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L377" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M377" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N377" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O377" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Events', 'tbl_Habitat'}</t>
         </is>
       </c>
       <c r="P377" t="inlineStr">
@@ -30600,12 +30600,12 @@
       </c>
       <c r="Q377" t="inlineStr">
         <is>
-          <t>{'tbl_Habitat', 'tbl_Events'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R377" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Habitat.Understory_Comp', 'tbl_Events.Event_ID', 'tbl_Habitat.Event_ID', 'tbl_Events.Entered_by', 'tbl_Habitat.Canopy_Comp'}</t>
         </is>
       </c>
       <c r="S377" t="inlineStr">
@@ -30615,7 +30615,7 @@
       </c>
       <c r="T377" t="inlineStr">
         <is>
-          <t>{'tbl_Events.Event_ID', 'tbl_Habitat.Event_ID', 'tbl_Habitat.Understory_Comp', 'tbl_Habitat.Canopy_Comp', 'tbl_Events.Entered_by'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="U377" t="n">
@@ -30670,7 +30670,7 @@
       </c>
       <c r="O378" t="inlineStr">
         <is>
-          <t>{'tbl_Event_Details', 'tbl_Events'}</t>
+          <t>{'tbl_Events', 'tbl_Event_Details'}</t>
         </is>
       </c>
       <c r="P378" t="inlineStr">
@@ -30685,7 +30685,7 @@
       </c>
       <c r="R378" t="inlineStr">
         <is>
-          <t>{'tbl_Events.Entered_by', 'tbl_Event_Details.Wind', 'tbl_Events.Event_ID', 'tbl_Event_Details.Rain', 'tbl_Event_Details.Event_ID', 'tbl_Event_Details.Gust', 'tbl_Events.Updated_by', 'tbl_Event_Details.Cloud'}</t>
+          <t>{'tbl_Event_Details.Cloud', 'tbl_Events.Event_ID', 'tbl_Event_Details.Wind', 'tbl_Events.Entered_by', 'tbl_Events.Updated_by', 'tbl_Event_Details.Rain', 'tbl_Event_Details.Event_ID', 'tbl_Event_Details.Gust'}</t>
         </is>
       </c>
       <c r="S378" t="inlineStr">
@@ -30882,35 +30882,35 @@
         <v>5788</v>
       </c>
       <c r="F381" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G381" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I381" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J381" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K381" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L381" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M381" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N381" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O381" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Detections', 'tbl_Observations', 'tlu_Species'}</t>
         </is>
       </c>
       <c r="P381" t="inlineStr">
@@ -30920,12 +30920,12 @@
       </c>
       <c r="Q381" t="inlineStr">
         <is>
-          <t>{'tbl_Observations', 'tlu_Species', 'tbl_Detections'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R381" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Observations.Observation_ID', 'tlu_Species.Common_Name', 'tlu_Species.Species_ID', 'tbl_Observations.Species_ID', 'tbl_Detections.Distance', 'tbl_Detections.Observation_ID'}</t>
         </is>
       </c>
       <c r="S381" t="inlineStr">
@@ -30935,7 +30935,7 @@
       </c>
       <c r="T381" t="inlineStr">
         <is>
-          <t>{'tbl_Observations.Species_ID', 'tbl_Detections.Distance', 'tbl_Observations.Observation_ID', 'tlu_Species.Common_Name', 'tlu_Species.Species_ID', 'tbl_Detections.Observation_ID'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="U381" t="n">
@@ -31005,7 +31005,7 @@
       </c>
       <c r="R382" t="inlineStr">
         <is>
-          <t>{'xref_Species_Alternate_Names.Species_ID', 'tlu_Species.Species_ID', 'xref_Species_Alternate_Names.Alternate_Name', 'tlu_Species.Family', 'tlu_Species.Common_Name'}</t>
+          <t>{'tlu_Species.Common_Name', 'tlu_Species.Species_ID', 'tlu_Species.Family', 'xref_Species_Alternate_Names.Alternate_Name', 'xref_Species_Alternate_Names.Species_ID'}</t>
         </is>
       </c>
       <c r="S382" t="inlineStr">
@@ -31150,7 +31150,7 @@
       </c>
       <c r="O384" t="inlineStr">
         <is>
-          <t>{'tbl_Stations_UTMs', 'tbl_Stations'}</t>
+          <t>{'tbl_Stations', 'tbl_Stations_UTMs'}</t>
         </is>
       </c>
       <c r="P384" t="inlineStr">
@@ -31165,7 +31165,7 @@
       </c>
       <c r="R384" t="inlineStr">
         <is>
-          <t>{'tbl_Stations.Station', 'tbl_Stations_UTMs.X_final', 'tbl_Stations_UTMs.Y_final', 'tbl_Stations.Station_ID', 'tbl_Stations_UTMs.Station_ID'}</t>
+          <t>{'tbl_Stations_UTMs.X_final', 'tbl_Stations_UTMs.Station_ID', 'tbl_Stations.Station_ID', 'tbl_Stations.Station', 'tbl_Stations_UTMs.Y_final'}</t>
         </is>
       </c>
       <c r="S384" t="inlineStr">
@@ -31245,7 +31245,7 @@
       </c>
       <c r="R385" t="inlineStr">
         <is>
-          <t>{'tlu_Contacts.Organization', 'tlu_Contacts.Last_Name', 'tlu_Contacts.First_Name', 'tlu_Contacts.Position_Title'}</t>
+          <t>{'tlu_Contacts.Last_Name', 'tlu_Contacts.Organization', 'tlu_Contacts.First_Name', 'tlu_Contacts.Position_Title'}</t>
         </is>
       </c>
       <c r="S385" t="inlineStr">
@@ -31310,7 +31310,7 @@
       </c>
       <c r="O386" t="inlineStr">
         <is>
-          <t>{'tbl_Locations', 'tbl_Sites'}</t>
+          <t>{'tbl_Sites', 'tbl_Locations'}</t>
         </is>
       </c>
       <c r="P386" t="inlineStr">
@@ -31325,7 +31325,7 @@
       </c>
       <c r="R386" t="inlineStr">
         <is>
-          <t>{'tbl_Sites.Site_ID', 'tbl_Locations.Site_ID', 'tbl_Sites.Site_Name'}</t>
+          <t>{'tbl_Sites.Site_Name', 'tbl_Sites.Site_ID', 'tbl_Locations.Site_ID'}</t>
         </is>
       </c>
       <c r="S386" t="inlineStr">
@@ -31405,7 +31405,7 @@
       </c>
       <c r="R387" t="inlineStr">
         <is>
-          <t>{'tbl_Locations.Loc_Name', 'tbl_Locations.Island'}</t>
+          <t>{'tbl_Locations.Island', 'tbl_Locations.Loc_Name'}</t>
         </is>
       </c>
       <c r="S387" t="inlineStr">
@@ -31485,7 +31485,7 @@
       </c>
       <c r="R388" t="inlineStr">
         <is>
-          <t>{'tlu_Species.Habitat', 'tlu_Species.Scientific_Name', 'tlu_Species.Family', 'tlu_Species.Common_Name'}</t>
+          <t>{'tlu_Species.Common_Name', 'tlu_Species.Scientific_Name', 'tlu_Species.Family', 'tlu_Species.Habitat'}</t>
         </is>
       </c>
       <c r="S388" t="inlineStr">
@@ -31630,7 +31630,7 @@
       </c>
       <c r="O390" t="inlineStr">
         <is>
-          <t>{'tbl_Observations', 'tbl_Event_Details'}</t>
+          <t>{'tbl_Event_Details', 'tbl_Observations'}</t>
         </is>
       </c>
       <c r="P390" t="inlineStr">
@@ -31645,7 +31645,7 @@
       </c>
       <c r="R390" t="inlineStr">
         <is>
-          <t>{'tbl_Event_Details.Event_ID', 'tbl_Observations.Event_ID', 'tbl_Event_Details.Cloud'}</t>
+          <t>{'tbl_Event_Details.Event_ID', 'tbl_Event_Details.Cloud', 'tbl_Observations.Event_ID'}</t>
         </is>
       </c>
       <c r="S390" t="inlineStr">
@@ -31735,7 +31735,7 @@
       </c>
       <c r="T391" t="inlineStr">
         <is>
-          <t>{'max(tbl_Event_Details.Wind)', 'tbl_Events.Event_ID', 'tbl_Event_Details.Event_ID'}</t>
+          <t>{'tbl_Event_Details.Event_ID', 'tbl_Events.Event_ID', 'max(tbl_Event_Details.Wind)'}</t>
         </is>
       </c>
       <c r="U391" t="n">
@@ -31790,7 +31790,7 @@
       </c>
       <c r="O392" t="inlineStr">
         <is>
-          <t>{'tbl_Locations', 'tbl_Transect', 'tbl_Stations'}</t>
+          <t>{'tbl_Stations', 'tbl_Transect', 'tbl_Locations'}</t>
         </is>
       </c>
       <c r="P392" t="inlineStr">
@@ -31805,7 +31805,7 @@
       </c>
       <c r="R392" t="inlineStr">
         <is>
-          <t>{'tbl_Transect.Location_ID', 'tbl_Stations.Transect_ID', 'tbl_Transect.Transect_ID', 'tbl_Locations.Location_ID', 'tbl_Locations.Island'}</t>
+          <t>{'tbl_Locations.Location_ID', 'tbl_Locations.Island', 'tbl_Transect.Transect_ID', 'tbl_Transect.Location_ID', 'tbl_Stations.Transect_ID'}</t>
         </is>
       </c>
       <c r="S392" t="inlineStr">
@@ -31842,35 +31842,35 @@
         <v>5888</v>
       </c>
       <c r="F393" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G393" t="n">
-        <v>0</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="I393" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J393" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K393" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L393" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M393" t="n">
-        <v>0</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="N393" t="n">
-        <v>0</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="O393" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Stations', 'tbl_Transect', 'tbl_Locations'}</t>
         </is>
       </c>
       <c r="P393" t="inlineStr">
@@ -31880,12 +31880,12 @@
       </c>
       <c r="Q393" t="inlineStr">
         <is>
-          <t>{'tbl_Locations', 'tbl_Transect', 'tbl_Stations'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R393" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Locations.Location_ID', 'tbl_Locations.Island', 'tbl_Transect.Transect_ID', 'tbl_Transect.Location_ID', 'tbl_Stations.Transect_ID'}</t>
         </is>
       </c>
       <c r="S393" t="inlineStr">
@@ -31895,7 +31895,7 @@
       </c>
       <c r="T393" t="inlineStr">
         <is>
-          <t>{'tbl_Transect.Location_ID', 'tbl_Transect.Transect_ID', 'tbl_Locations.Location_ID', 'tbl_Stations.Station_ID', 'tbl_Stations.Transect_ID', 'tbl_Locations.Island'}</t>
+          <t>{'tbl_Stations.Station_ID'}</t>
         </is>
       </c>
       <c r="U393" t="n">
@@ -31950,7 +31950,7 @@
       </c>
       <c r="O394" t="inlineStr">
         <is>
-          <t>{'tbl_Observations', 'tlu_Species', 'tbl_Events', 'tbl_Event_Details'}</t>
+          <t>{'tbl_Events', 'tbl_Event_Details', 'tbl_Observations', 'tlu_Species'}</t>
         </is>
       </c>
       <c r="P394" t="inlineStr">
@@ -31965,7 +31965,7 @@
       </c>
       <c r="R394" t="inlineStr">
         <is>
-          <t>{'tbl_Observations.Species_ID', 'tbl_Observations.Event_ID', 'tlu_Species.Species_ID', 'tlu_Species.Species_Code', 'tbl_Event_Details.Rain', 'tbl_Event_Details.Event_ID', 'tlu_Species.Family', 'tbl_Events.Event_ID'}</t>
+          <t>{'tbl_Events.Event_ID', 'tlu_Species.Species_ID', 'tlu_Species.Family', 'tlu_Species.Species_Code', 'tbl_Event_Details.Rain', 'tbl_Observations.Species_ID', 'tbl_Observations.Event_ID', 'tbl_Event_Details.Event_ID'}</t>
         </is>
       </c>
       <c r="S394" t="inlineStr">
@@ -32030,7 +32030,7 @@
       </c>
       <c r="O395" t="inlineStr">
         <is>
-          <t>{'tlu_Contacts', 'tlu_Species', 'tbl_Observations', 'xref_Event_Contacts'}</t>
+          <t>{'tbl_Observations', 'tlu_Contacts', 'xref_Event_Contacts', 'tlu_Species'}</t>
         </is>
       </c>
       <c r="P395" t="inlineStr">
@@ -32045,7 +32045,7 @@
       </c>
       <c r="R395" t="inlineStr">
         <is>
-          <t>{'tbl_Observations.Species_ID', 'tlu_Contacts.Last_Name', 'tbl_Observations.Event_ID', 'tlu_Contacts.First_Name', 'tlu_Contacts.Contact_ID', 'xref_Event_Contacts.Contact_ID', 'tlu_Species.Species_ID', 'tlu_Species.Scientific_Name', 'xref_Event_Contacts.Event_ID', 'tlu_Species.Common_Name'}</t>
+          <t>{'tlu_Species.Scientific_Name', 'tlu_Contacts.Contact_ID', 'tlu_Contacts.Last_Name', 'tlu_Species.Common_Name', 'tlu_Species.Species_ID', 'xref_Event_Contacts.Event_ID', 'tbl_Observations.Species_ID', 'tbl_Observations.Event_ID', 'xref_Event_Contacts.Contact_ID', 'tlu_Contacts.First_Name'}</t>
         </is>
       </c>
       <c r="S395" t="inlineStr">
@@ -32110,7 +32110,7 @@
       </c>
       <c r="O396" t="inlineStr">
         <is>
-          <t>{'tbl_Observations', 'tbl_Events', 'tlu_Species', 'tbl_Stations'}</t>
+          <t>{'tbl_Events', 'tbl_Stations', 'tbl_Observations', 'tlu_Species'}</t>
         </is>
       </c>
       <c r="P396" t="inlineStr">
@@ -32125,7 +32125,7 @@
       </c>
       <c r="R396" t="inlineStr">
         <is>
-          <t>{'tbl_Observations.Species_ID', 'tbl_Observations.Event_ID', 'tbl_Stations.Station', 'tlu_Species.Species_ID', 'tbl_Events.Station_ID', 'tbl_Stations.Station_ID', 'tlu_Species.Common_Name', 'tbl_Events.Event_ID'}</t>
+          <t>{'tbl_Events.Station_ID', 'tbl_Events.Event_ID', 'tlu_Species.Common_Name', 'tlu_Species.Species_ID', 'tbl_Stations.Station_ID', 'tbl_Observations.Species_ID', 'tbl_Observations.Event_ID', 'tbl_Stations.Station'}</t>
         </is>
       </c>
       <c r="S396" t="inlineStr">
@@ -32205,7 +32205,7 @@
       </c>
       <c r="R397" t="inlineStr">
         <is>
-          <t>{'tbl_Events.Station_ID', 'tbl_Stations.Station', 'tbl_Stations.Station_ID'}</t>
+          <t>{'tbl_Stations.Station_ID', 'tbl_Events.Station_ID', 'tbl_Stations.Station'}</t>
         </is>
       </c>
       <c r="S397" t="inlineStr">
@@ -32215,7 +32215,7 @@
       </c>
       <c r="T397" t="inlineStr">
         <is>
-          <t>{'tbl_Events.Event_ID\n```\n\n**(Optionally', 'you can include COUNT(tbl_Events.Event_ID) if you want to be explicit about the aggregation'}</t>
+          <t>{'you can include COUNT(tbl_Events.Event_ID) if you want to be explicit about the aggregation', 'tbl_Events.Event_ID\n```\n\n**(Optionally'}</t>
         </is>
       </c>
       <c r="U397" t="n">
@@ -32242,35 +32242,35 @@
         <v>5710</v>
       </c>
       <c r="F398" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G398" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I398" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J398" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K398" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L398" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M398" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="N398" t="n">
-        <v>0</v>
+        <v>0.7499999999999999</v>
       </c>
       <c r="O398" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Stations'}</t>
         </is>
       </c>
       <c r="P398" t="inlineStr">
@@ -32280,12 +32280,12 @@
       </c>
       <c r="Q398" t="inlineStr">
         <is>
-          <t>{'tbl_Stations'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R398" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Stations.Lat_final', 'tbl_Stations.Long_final', 'tbl_Stations.Station'}</t>
         </is>
       </c>
       <c r="S398" t="inlineStr">
@@ -32295,7 +32295,7 @@
       </c>
       <c r="T398" t="inlineStr">
         <is>
-          <t>{'tbl_Stations.Long_Dir', 'tbl_Stations.Lat_final', 'tbl_Stations.Long_final', 'tbl_Stations.Station', 'tbl_Stations.Lat_Dir'}</t>
+          <t>{'tbl_Stations.Lat_Dir', 'tbl_Stations.Long_Dir'}</t>
         </is>
       </c>
       <c r="U398" t="n">
@@ -32350,7 +32350,7 @@
       </c>
       <c r="O399" t="inlineStr">
         <is>
-          <t>{'tbl_Observations', 'tlu_Species', 'tbl_Events', 'tbl_Stations'}</t>
+          <t>{'tbl_Events', 'tbl_Stations', 'tbl_Observations', 'tlu_Species'}</t>
         </is>
       </c>
       <c r="P399" t="inlineStr">
@@ -32365,7 +32365,7 @@
       </c>
       <c r="R399" t="inlineStr">
         <is>
-          <t>{'tbl_Observations.Species_ID', 'tbl_Observations.Event_ID', 'tlu_Species.Species_ID', 'tbl_Events.Station_ID', 'tbl_Stations.Station_ID', 'tlu_Species.Common_Name', 'tbl_Events.Event_ID'}</t>
+          <t>{'tbl_Events.Station_ID', 'tbl_Events.Event_ID', 'tlu_Species.Common_Name', 'tlu_Species.Species_ID', 'tbl_Stations.Station_ID', 'tbl_Observations.Species_ID', 'tbl_Observations.Event_ID'}</t>
         </is>
       </c>
       <c r="S399" t="inlineStr">
@@ -32430,7 +32430,7 @@
       </c>
       <c r="O400" t="inlineStr">
         <is>
-          <t>{'tbl_Observations', 'tlu_Species', 'tbl_Events', 'tbl_Stations'}</t>
+          <t>{'tbl_Events', 'tbl_Stations', 'tbl_Observations', 'tlu_Species'}</t>
         </is>
       </c>
       <c r="P400" t="inlineStr">
@@ -32445,7 +32445,7 @@
       </c>
       <c r="R400" t="inlineStr">
         <is>
-          <t>{'tbl_Observations.Species_ID', 'tbl_Observations.Event_ID', 'tlu_Species.Species_ID', 'tbl_Events.Station_ID', 'tbl_Stations.Station_ID', 'tlu_Species.Common_Name', 'tbl_Events.Event_ID'}</t>
+          <t>{'tbl_Events.Station_ID', 'tbl_Events.Event_ID', 'tlu_Species.Common_Name', 'tlu_Species.Species_ID', 'tbl_Stations.Station_ID', 'tbl_Observations.Species_ID', 'tbl_Observations.Event_ID'}</t>
         </is>
       </c>
       <c r="S400" t="inlineStr">
@@ -32525,7 +32525,7 @@
       </c>
       <c r="R401" t="inlineStr">
         <is>
-          <t>{'tlu_Contacts.Last_Name', 'tlu_Contacts.Organization', 'tlu_Contacts.First_Name', 'tlu_Contacts.Contact_ID', 'xref_Event_Contacts.Contact_ID'}</t>
+          <t>{'tlu_Contacts.Contact_ID', 'tlu_Contacts.Last_Name', 'tlu_Contacts.Organization', 'xref_Event_Contacts.Contact_ID', 'tlu_Contacts.First_Name'}</t>
         </is>
       </c>
       <c r="S401" t="inlineStr">
@@ -32590,7 +32590,7 @@
       </c>
       <c r="O402" t="inlineStr">
         <is>
-          <t>{'tbl_Habitat', 'tlu_Species', 'tbl_Events', 'tbl_Observations'}</t>
+          <t>{'tbl_Events', 'tbl_Habitat', 'tbl_Observations', 'tlu_Species'}</t>
         </is>
       </c>
       <c r="P402" t="inlineStr">
@@ -32605,7 +32605,7 @@
       </c>
       <c r="R402" t="inlineStr">
         <is>
-          <t>{'tbl_Observations.Species_ID', 'tbl_Habitat.Canopy_Height', 'tbl_Observations.Event_ID', 'tlu_Species.Species_ID', 'tlu_Species.Scientific_Name', 'tbl_Habitat.Event_ID', 'tlu_Species.Common_Name', 'tbl_Events.Event_ID'}</t>
+          <t>{'tlu_Species.Scientific_Name', 'tbl_Events.Event_ID', 'tlu_Species.Common_Name', 'tbl_Habitat.Event_ID', 'tlu_Species.Species_ID', 'tbl_Habitat.Canopy_Height', 'tbl_Observations.Species_ID', 'tbl_Observations.Event_ID'}</t>
         </is>
       </c>
       <c r="S402" t="inlineStr">
@@ -32670,7 +32670,7 @@
       </c>
       <c r="O403" t="inlineStr">
         <is>
-          <t>{'tbl_Locations', 'xref_Species_Alternate_Names', 'tbl_Stations', 'tbl_Observations', 'tbl_Sites', 'tlu_Species', 'xref_Event_Contacts', 'tbl_Transect', 'tlu_Contacts', 'tbl_Events'}</t>
+          <t>{'tbl_Events', 'xref_Species_Alternate_Names', 'tlu_Species', 'tbl_Locations', 'tbl_Transect', 'tbl_Stations', 'tbl_Observations', 'xref_Event_Contacts', 'tlu_Contacts', 'tbl_Sites'}</t>
         </is>
       </c>
       <c r="P403" t="inlineStr">
@@ -32685,7 +32685,7 @@
       </c>
       <c r="R403" t="inlineStr">
         <is>
-          <t>{'tbl_Stations.Station', 'tbl_Sites.Site_Name', 'xref_Species_Alternate_Names.Species_ID', 'tlu_Contacts.Last_Name', 'tlu_Contacts.Contact_ID', 'tlu_Species.Scientific_Name', 'xref_Event_Contacts.Event_ID', 'tlu_Species.Family', 'tbl_Locations.Island', 'tbl_Transect.Transect', 'tbl_Observations.Species_ID', 'tbl_Transect.Location_ID', 'tbl_Sites.Site_ID', 'tbl_Stations.Lat_final', 'xref_Event_Contacts.Contact_ID', 'tbl_Events.Station_ID', 'tbl_Locations.Location_ID', 'tbl_Stations.Station_ID', 'tbl_Observations.Event_ID', 'tbl_Stations.Transect_ID', 'tbl_Locations.Loc_Name', 'tlu_Species.Species_ID', 'tbl_Locations.Site_ID', 'tbl_Transect.Transect_ID', 'tbl_Transect.Transect_Type', 'tlu_Species.Common_Name', 'tbl_Events.Event_ID'}</t>
+          <t>{'tlu_Contacts.Contact_ID', 'tbl_Transect.Transect', 'tlu_Species.Common_Name', 'tbl_Locations.Island', 'tlu_Species.Species_ID', 'tlu_Species.Family', 'tbl_Stations.Station_ID', 'tbl_Stations.Station', 'tbl_Sites.Site_Name', 'xref_Species_Alternate_Names.Species_ID', 'tbl_Events.Station_ID', 'tbl_Transect.Transect_Type', 'tbl_Stations.Lat_final', 'tbl_Transect.Transect_ID', 'tbl_Stations.Transect_ID', 'tbl_Locations.Site_ID', 'tlu_Contacts.Last_Name', 'tbl_Observations.Species_ID', 'xref_Event_Contacts.Contact_ID', 'tbl_Sites.Site_ID', 'tlu_Species.Scientific_Name', 'tbl_Events.Event_ID', 'tbl_Locations.Location_ID', 'xref_Event_Contacts.Event_ID', 'tbl_Transect.Location_ID', 'tbl_Locations.Loc_Name', 'tbl_Observations.Event_ID'}</t>
         </is>
       </c>
       <c r="S403" t="inlineStr">
@@ -32695,7 +32695,7 @@
       </c>
       <c r="T403" t="inlineStr">
         <is>
-          <t>{'xref_Species_Alternate_Names.Alternate_Name\n\n```\n\n---\n\n**This set of schema links covers all the columns and foreign key relationships needed to generate the SQL for the question', 'tlu_Contacts.Contact_Notes'}</t>
+          <t>{'tlu_Contacts.Contact_Notes', 'xref_Species_Alternate_Names.Alternate_Name\n\n```\n\n---\n\n**This set of schema links covers all the columns and foreign key relationships needed to generate the SQL for the question'}</t>
         </is>
       </c>
       <c r="U403" t="n">
@@ -32722,60 +32722,60 @@
         <v>6034</v>
       </c>
       <c r="F404" t="n">
-        <v>0</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="G404" t="n">
-        <v>0</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="I404" t="n">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="J404" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K404" t="n">
-        <v>0</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="L404" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="M404" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="N404" t="n">
-        <v>0</v>
+        <v>0.3157894736842106</v>
       </c>
       <c r="O404" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Stations', 'tbl_Transect', 'tbl_Locations'}</t>
         </is>
       </c>
       <c r="P404" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Events', 'tlu_Species', 'tlu_Contacts', 'xref_Event_Contacts', 'tbl_Observations'}</t>
         </is>
       </c>
       <c r="Q404" t="inlineStr">
         <is>
-          <t>{'tbl_Locations', 'tbl_Transect', 'tbl_Stations'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R404" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Locations.Island', 'tbl_Transect.Location_ID', 'tbl_Locations.Location_ID'}</t>
         </is>
       </c>
       <c r="S404" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Events.Station_ID', 'tbl_Events.Event_ID', 'tlu_Contacts.Contact_ID', 'tlu_Species.Common_Name', 'tlu_Species.Species_ID', 'xref_Event_Contacts.Event_ID', 'tbl_Stations.Station_ID', 'tbl_Transect.Transect_ID', 'tbl_Observations.Species_ID', 'tbl_Observations.Event_ID', 'xref_Event_Contacts.Contact_ID', 'tbl_Stations.Transect_ID'}</t>
         </is>
       </c>
       <c r="T404" t="inlineStr">
         <is>
-          <t>{'tbl_Locations.Location_ID', 'tbl_Stations.Tran', 'tbl_Locations.Island', 'tbl_Transect.Location_ID'}</t>
+          <t>{'tbl_Stations.Tran'}</t>
         </is>
       </c>
       <c r="U404" t="n">
@@ -32855,7 +32855,7 @@
       </c>
       <c r="T405" t="inlineStr">
         <is>
-          <t>{'ORIT.Name', 'ORIT.Code'}</t>
+          <t>{'ORIT.Code', 'ORIT.Name'}</t>
         </is>
       </c>
       <c r="U405" t="n">
@@ -32925,7 +32925,7 @@
       </c>
       <c r="R406" t="inlineStr">
         <is>
-          <t>{'OPEX.PayeeCity', 'OPEX.PayeeZip', 'OPEX.PayeeName', 'OPEX.PayeeState', 'OPEX.Department', 'OPEX.PayeeStree', 'OPEX.PayCountry'}</t>
+          <t>{'OPEX.Department', 'OPEX.PayeeStree', 'OPEX.PayeeName', 'OPEX.PayeeZip', 'OPEX.PayeeCity', 'OPEX.PayCountry', 'OPEX.PayeeState'}</t>
         </is>
       </c>
       <c r="S406" t="inlineStr">
@@ -33000,7 +33000,7 @@
       </c>
       <c r="Q407" t="inlineStr">
         <is>
-          <t>{'OCHD', 'count(ACH1', 'ACH1'}</t>
+          <t>{'count(ACH1', 'ACH1', 'OCHD'}</t>
         </is>
       </c>
       <c r="R407" t="inlineStr">
@@ -33015,7 +33015,7 @@
       </c>
       <c r="T407" t="inlineStr">
         <is>
-          <t>{'OCHD.AcctNum', 'count(ACH1.LineId) &gt; 1', 'OCHD.CheckKey', 'ACH1.CheckKey'}</t>
+          <t>{'count(ACH1.LineId) &gt; 1', 'OCHD.AcctNum', 'ACH1.CheckKey', 'OCHD.CheckKey'}</t>
         </is>
       </c>
       <c r="U407" t="n">
@@ -33090,7 +33090,7 @@
       </c>
       <c r="S408" t="inlineStr">
         <is>
-          <t>{'OCHO.Deduction', 'OCHO.AcctNum', 'OCHO.DdctPrcnt'}</t>
+          <t>{'OCHO.DdctPrcnt', 'OCHO.AcctNum', 'OCHO.Deduction'}</t>
         </is>
       </c>
       <c r="T408" t="inlineStr">
@@ -33165,7 +33165,7 @@
       </c>
       <c r="R409" t="inlineStr">
         <is>
-          <t>{'ORCT.TrsfrSumFC', 'ORCT.Address', 'ORCT.CardCode', 'ORCT.CardName', 'ORCT.DocCurr', 'ORCT.CreateDate'}</t>
+          <t>{'ORCT.TrsfrSumFC', 'ORCT.CardCode', 'ORCT.CreateDate', 'ORCT.DocCurr', 'ORCT.Address', 'ORCT.CardName'}</t>
         </is>
       </c>
       <c r="S409" t="inlineStr">
@@ -33240,7 +33240,7 @@
       </c>
       <c r="Q410" t="inlineStr">
         <is>
-          <t>{'PTICodeRef\n    - Contains: Withholding tax summary for receipts', 'etc'}</t>
+          <t>{'etc', 'PTICodeRef\n    - Contains: Withholding tax summary for receipts'}</t>
         </is>
       </c>
       <c r="R410" t="inlineStr">
@@ -33250,12 +33250,12 @@
       </c>
       <c r="S410" t="inlineStr">
         <is>
-          <t>{'ORCT.CheckSumFC', 'RCT1.AcctNum', 'ORCT.WTOnhldPst', 'RCT1.DocNum', 'RCT1.CountryCod', 'ORCT.DocNum'}</t>
+          <t>{'ORCT.CheckSumFC', 'ORCT.WTOnhldPst', 'RCT1.AcctNum', 'RCT1.CountryCod', 'ORCT.DocNum', 'RCT1.DocNum'}</t>
         </is>
       </c>
       <c r="T410" t="inlineStr">
         <is>
-          <t>{'PTICodeRef\n    - Contains: Withholding tax summary for receipts.- **OCHH**: CheckKey', 'etc.- **WTC2**: AbsEntry', 'etc.- **OWTC**: AbsEntry'}</t>
+          <t>{'etc.- **WTC2**: AbsEntry', 'etc.- **OWTC**: AbsEntry', 'PTICodeRef\n    - Contains: Withholding tax summary for receipts.- **OCHH**: CheckKey'}</t>
         </is>
       </c>
       <c r="U410" t="n">
@@ -33405,7 +33405,7 @@
       </c>
       <c r="R412" t="inlineStr">
         <is>
-          <t>{'RCT3.DocNum', 'RCT3.FirstSum'}</t>
+          <t>{'RCT3.FirstSum', 'RCT3.DocNum'}</t>
         </is>
       </c>
       <c r="S412" t="inlineStr">
@@ -33480,7 +33480,7 @@
       </c>
       <c r="Q413" t="inlineStr">
         <is>
-          <t>{'', 'but the question only asks for fields from the deposit/payment record', 'if needed'}</t>
+          <t>{'', 'if needed', 'but the question only asks for fields from the deposit/payment record'}</t>
         </is>
       </c>
       <c r="R413" t="inlineStr">
@@ -33490,12 +33490,12 @@
       </c>
       <c r="S413" t="inlineStr">
         <is>
-          <t>{'OCRH.DepNum', 'OCRH.CardCode', 'OCRH.RctAbs', 'OCRH.DeposDate'}</t>
+          <t>{'OCRH.RctAbs', 'OCRH.CardCode', 'OCRH.DepNum', 'OCRH.DeposDate'}</t>
         </is>
       </c>
       <c r="T413" t="inlineStr">
         <is>
-          <t>{'if needed.**Step 4: Foreign keys**\n- No explicit foreign keys are needed for this query', '.', 'but the question only asks for fields from the deposit/payment record.**Step 5: List the schema links**'}</t>
+          <t>{'but the question only asks for fields from the deposit/payment record.**Step 5: List the schema links**', 'if needed.**Step 4: Foreign keys**\n- No explicit foreign keys are needed for this query', '.'}</t>
         </is>
       </c>
       <c r="U413" t="n">
@@ -33570,12 +33570,12 @@
       </c>
       <c r="S414" t="inlineStr">
         <is>
-          <t>{'OCTG.ExtraDays', 'OCTG.PymntGroup', 'OCTG.VATFirst', 'OCTG.InstNum'}</t>
+          <t>{'OCTG.InstNum', 'OCTG.ExtraDays', 'OCTG.VATFirst', 'OCTG.PymntGroup'}</t>
         </is>
       </c>
       <c r="T414" t="inlineStr">
         <is>
-          <t>{'ACTG.GroupNum', 'ACTG.ExtraDays', 'ACTG.NumOfPmnts', 'ACTG.VATFirst'}</t>
+          <t>{'ACTG.VATFirst', 'ACTG.ExtraDays', 'ACTG.GroupNum', 'ACTG.NumOfPmnts'}</t>
         </is>
       </c>
       <c r="U414" t="n">
@@ -33645,7 +33645,7 @@
       </c>
       <c r="R415" t="inlineStr">
         <is>
-          <t>{'OCRG.GroupName', 'OCRD.GroupCode', 'OCRG.GroupCode'}</t>
+          <t>{'OCRG.GroupCode', 'OCRD.GroupCode', 'OCRG.GroupName'}</t>
         </is>
       </c>
       <c r="S415" t="inlineStr">
@@ -33720,7 +33720,7 @@
       </c>
       <c r="Q416" t="inlineStr">
         <is>
-          <t>{'', 'or perhaps another table', 'People', '**People', 'or date_to is NULL', 'People_Addresses', 'OHEM', 'we need to join with **OHEM** (or AHEM)', 'but likely **People'}</t>
+          <t>{'', 'we need to join with **OHEM** (or AHEM)', 'People_Addresses', 'but likely **People', 'or perhaps another table', '**People', 'People', 'or date_to is NULL', 'OHEM'}</t>
         </is>
       </c>
       <c r="R416" t="inlineStr">
@@ -33730,12 +33730,12 @@
       </c>
       <c r="S416" t="inlineStr">
         <is>
-          <t>{'OCPR.Position', 'OCPR.Address', 'OCPR.Name', 'OCPR.Cellolar', 'OCPR.E_MailL'}</t>
+          <t>{'OCPR.Position', 'OCPR.Cellolar', 'OCPR.E_MailL', 'OCPR.Name', 'OCPR.Address'}</t>
         </is>
       </c>
       <c r="T416" t="inlineStr">
         <is>
-          <t>{'or date_to is NULL.## 5', 'People.last_name\n- **Address**: Addresses', 'People.middle_name', 'OHEM.empID**', 'we need to join with **OHEM** (or AHEM).## 3', '**People.person_id', 'but likely **People.person_id', "or perhaps another table.Let's check for a position/role:\n\n- **People**: person_id", '.', 'People_Addresses.person_id** and **People_Addresses', 'People.first_name'}</t>
+          <t>{"or perhaps another table.Let's check for a position/role:\n\n- **People**: person_id", 'or date_to is NULL.## 5', 'People.middle_name', 'People_Addresses.person_id** and **People_Addresses', 'but likely **People.person_id', '**People.person_id', 'we need to join with **OHEM** (or AHEM).## 3', 'OHEM.empID**', 'People.last_name\n- **Address**: Addresses', '.', 'People.first_name'}</t>
         </is>
       </c>
       <c r="U416" t="n">
@@ -33805,7 +33805,7 @@
       </c>
       <c r="R417" t="inlineStr">
         <is>
-          <t>{'OSLP.SlpName', 'OSLP.Commission'}</t>
+          <t>{'OSLP.Commission', 'OSLP.SlpName'}</t>
         </is>
       </c>
       <c r="S417" t="inlineStr">
@@ -33885,7 +33885,7 @@
       </c>
       <c r="R418" t="inlineStr">
         <is>
-          <t>{'OSLP.SlpName', 'OSLP.GroupCode'}</t>
+          <t>{'OSLP.GroupCode', 'OSLP.SlpName'}</t>
         </is>
       </c>
       <c r="S418" t="inlineStr">
@@ -33895,7 +33895,7 @@
       </c>
       <c r="T418" t="inlineStr">
         <is>
-          <t>{'OCRG.GroupName', 'OCRG.GroupCode'}</t>
+          <t>{'OCRG.GroupCode', 'OCRG.GroupName'}</t>
         </is>
       </c>
       <c r="U418" t="n">
@@ -33960,7 +33960,7 @@
       </c>
       <c r="Q419" t="inlineStr">
         <is>
-          <t>{'OHEM', 'OCRG'}</t>
+          <t>{'OCRG', 'OHEM'}</t>
         </is>
       </c>
       <c r="R419" t="inlineStr">
@@ -33970,12 +33970,12 @@
       </c>
       <c r="S419" t="inlineStr">
         <is>
-          <t>{'OCOG.GroupName', 'OSLP.SlpName', 'OSLP.Mobil', 'OCOG.GroupCode', 'OSLP.Email'}</t>
+          <t>{'OSLP.Mobil', 'OSLP.Email', 'OCOG.GroupCode', 'OSLP.SlpName', 'OCOG.GroupName'}</t>
         </is>
       </c>
       <c r="T419" t="inlineStr">
         <is>
-          <t>{'OCRG.Commission', 'OSLP.SlpCode', 'OHEM.middleName', 'OCRG.GroupName', 'OHEM.lastName', 'OHEM.salesPrson', 'OHEM.firstName', 'OHEM.email', 'OHEM.mobile', 'OCRG.GroupCode'}</t>
+          <t>{'OCRG.GroupCode', 'OHEM.email', 'OHEM.lastName', 'OHEM.firstName', 'OHEM.salesPrson', 'OSLP.SlpCode', 'OHEM.middleName', 'OHEM.mobile', 'OCRG.Commission', 'OCRG.GroupName'}</t>
         </is>
       </c>
       <c r="U419" t="n">
@@ -34035,7 +34035,7 @@
       </c>
       <c r="P420" t="inlineStr">
         <is>
-          <t>{'OCRD', 'CRD1'}</t>
+          <t>{'CRD1', 'OCRD'}</t>
         </is>
       </c>
       <c r="Q420" t="inlineStr">
@@ -34050,7 +34050,7 @@
       </c>
       <c r="S420" t="inlineStr">
         <is>
-          <t>{'OCRD.CDPNum', 'OCRD.PymCode', 'CRD1.TaxCode', 'CRD1.CardCode', 'OCRD.CardCode'}</t>
+          <t>{'OCRD.PymCode', 'CRD1.CardCode', 'OCRD.CardCode', 'OCRD.CDPNum', 'CRD1.TaxCode'}</t>
         </is>
       </c>
       <c r="T420" t="inlineStr">
@@ -34125,7 +34125,7 @@
       </c>
       <c r="R421" t="inlineStr">
         <is>
-          <t>{'OCLG.CreateDate', 'OCLG.CntctTime', 'OCLG.CntctDate', 'OCLG.Details', 'OCLG.ClgCode'}</t>
+          <t>{'OCLG.CntctDate', 'OCLG.CreateDate', 'OCLG.Details', 'OCLG.ClgCode', 'OCLG.CntctTime'}</t>
         </is>
       </c>
       <c r="S421" t="inlineStr">
@@ -34190,7 +34190,7 @@
       </c>
       <c r="O422" t="inlineStr">
         <is>
-          <t>{'OCRD', 'OCRB'}</t>
+          <t>{'OCRB', 'OCRD'}</t>
         </is>
       </c>
       <c r="P422" t="inlineStr">
@@ -34205,12 +34205,12 @@
       </c>
       <c r="R422" t="inlineStr">
         <is>
-          <t>{'OCRB.Country', 'OCRB.Branch', 'OCRD.CardCode', 'OCRD.CardName', 'OCRB.City', 'OCRB.CardCode', 'OCRB.BankCode', 'OCRB.Account'}</t>
+          <t>{'OCRB.BankCode', 'OCRB.CardCode', 'OCRB.Country', 'OCRD.CardCode', 'OCRB.Branch', 'OCRB.City', 'OCRD.CardName', 'OCRB.Account'}</t>
         </is>
       </c>
       <c r="S422" t="inlineStr">
         <is>
-          <t>{'OCRD.Country', 'OCRD.BankCode', 'OCRD.City'}</t>
+          <t>{'OCRD.City', 'OCRD.BankCode', 'OCRD.Country'}</t>
         </is>
       </c>
       <c r="T422" t="inlineStr">
@@ -34370,12 +34370,12 @@
       </c>
       <c r="S424" t="inlineStr">
         <is>
-          <t>{'TGG1.LicTradNum', 'TGG1.Position', 'OTGG.TargetCode', 'TGG1.E_Mail', 'OTGG.TargetType', 'TGG1.TargetCode'}</t>
+          <t>{'TGG1.Position', 'TGG1.E_Mail', 'TGG1.LicTradNum', 'TGG1.TargetCode', 'OTGG.TargetType', 'OTGG.TargetCode'}</t>
         </is>
       </c>
       <c r="T424" t="inlineStr">
         <is>
-          <t>{'OTBP.E_Mail', 'OTBP.Position', 'OTBP.TaxIdNum', 'OTBP.CardType'}</t>
+          <t>{'OTBP.Position', 'OTBP.CardType', 'OTBP.E_Mail', 'OTBP.TaxIdNum'}</t>
         </is>
       </c>
       <c r="U424" t="n">
@@ -34445,7 +34445,7 @@
       </c>
       <c r="R425" t="inlineStr">
         <is>
-          <t>{'OACT.AcctCode', 'OACT.AcctName', 'JDT1.Account'}</t>
+          <t>{'JDT1.Account', 'OACT.AcctName', 'OACT.AcctCode'}</t>
         </is>
       </c>
       <c r="S425" t="inlineStr">
@@ -34590,7 +34590,7 @@
       </c>
       <c r="O427" t="inlineStr">
         <is>
-          <t>{'OACT', 'BGT1'}</t>
+          <t>{'BGT1', 'OACT'}</t>
         </is>
       </c>
       <c r="P427" t="inlineStr">
@@ -34605,7 +34605,7 @@
       </c>
       <c r="R427" t="inlineStr">
         <is>
-          <t>{'BGT1.CredLTotal', 'BGT1.AcctCode', 'OACT.AcctName', 'OACT.AcctCode', 'BGT1.DebLTotal'}</t>
+          <t>{'OACT.AcctCode', 'BGT1.DebLTotal', 'BGT1.AcctCode', 'BGT1.CredLTotal', 'OACT.AcctName'}</t>
         </is>
       </c>
       <c r="S427" t="inlineStr">
@@ -34690,7 +34690,7 @@
       </c>
       <c r="S428" t="inlineStr">
         <is>
-          <t>{'OACT.Category', 'OACT.CurrTotal', 'OACT.AcctName', 'OACG.AbsId', 'OACG.Name'}</t>
+          <t>{'OACT.Category', 'OACT.CurrTotal', 'OACG.Name', 'OACG.AbsId', 'OACT.AcctName'}</t>
         </is>
       </c>
       <c r="T428" t="inlineStr">
@@ -34765,12 +34765,12 @@
       </c>
       <c r="R429" t="inlineStr">
         <is>
-          <t>{'TAX1.TaxCode', 'TAX1.VatPercent', 'TAX1.VatSum'}</t>
+          <t>{'TAX1.VatPercent', 'TAX1.VatSum', 'TAX1.TaxCode'}</t>
         </is>
       </c>
       <c r="S429" t="inlineStr">
         <is>
-          <t>{'OTAX.SrcObjAbs', 'OTAX.AbsEntry', 'TAX1.AbsEntry'}</t>
+          <t>{'TAX1.AbsEntry', 'OTAX.SrcObjAbs', 'OTAX.AbsEntry'}</t>
         </is>
       </c>
       <c r="T429" t="inlineStr">
@@ -34855,7 +34855,7 @@
       </c>
       <c r="T430" t="inlineStr">
         <is>
-          <t>{'ORTT.Currency', 'ORTT.RateDate', 'ORTT.DataSource', 'ORTT.Rate'}</t>
+          <t>{'ORTT.Rate', 'ORTT.Currency', 'ORTT.DataSource', 'ORTT.RateDate'}</t>
         </is>
       </c>
       <c r="U430" t="n">
@@ -34920,7 +34920,7 @@
       </c>
       <c r="Q431" t="inlineStr">
         <is>
-          <t>{'ORCP', 'the above is sufficient', 'you can add YEAR(ORCP'}</t>
+          <t>{'the above is sufficient', 'you can add YEAR(ORCP', 'ORCP'}</t>
         </is>
       </c>
       <c r="R431" t="inlineStr">
@@ -34935,7 +34935,7 @@
       </c>
       <c r="T431" t="inlineStr">
         <is>
-          <t>{'ORCP.AbsEntry\n```\n*(If you want to be explicit about the grouping', 'ORCP.EndDate', 'the above is sufficient.)*', 'you can add YEAR(ORCP.EndDate)'}</t>
+          <t>{'ORCP.AbsEntry\n```\n*(If you want to be explicit about the grouping', 'you can add YEAR(ORCP.EndDate)', 'ORCP.EndDate', 'the above is sufficient.)*'}</t>
         </is>
       </c>
       <c r="U431" t="n">
@@ -35005,7 +35005,7 @@
       </c>
       <c r="R432" t="inlineStr">
         <is>
-          <t>{'OFRC.FatherNum', 'OFRC.Name'}</t>
+          <t>{'OFRC.Name', 'OFRC.FatherNum'}</t>
         </is>
       </c>
       <c r="S432" t="inlineStr">
@@ -35085,7 +35085,7 @@
       </c>
       <c r="R433" t="inlineStr">
         <is>
-          <t>{'FRC1.CalcMethod', 'OFRC.CatId', 'FRC1.CatId', 'FRC1.CalMethod3', 'OFRC.Name', 'FRC1.CalMethod2'}</t>
+          <t>{'FRC1.CalMethod2', 'FRC1.CalcMethod', 'FRC1.CalMethod3', 'FRC1.CatId', 'OFRC.Name', 'OFRC.CatId'}</t>
         </is>
       </c>
       <c r="S433" t="inlineStr">
@@ -35095,7 +35095,7 @@
       </c>
       <c r="T433" t="inlineStr">
         <is>
-          <t>{'FRC1.LineID', 'OFRC.CatClass'}</t>
+          <t>{'OFRC.CatClass', 'FRC1.LineID'}</t>
         </is>
       </c>
       <c r="U433" t="n">
@@ -35170,12 +35170,12 @@
       </c>
       <c r="S434" t="inlineStr">
         <is>
-          <t>{'OPRJ.ValidFrom', 'OPRJ.PrjCode', 'OPRJ.PrjName'}</t>
+          <t>{'OPRJ.PrjCode', 'OPRJ.PrjName', 'OPRJ.ValidFrom'}</t>
         </is>
       </c>
       <c r="T434" t="inlineStr">
         <is>
-          <t>{'APRJ.ValidTo', 'APRJ.PrjName', 'APRJ.PrjCode', 'APRJ.ValidFrom'}</t>
+          <t>{'APRJ.ValidTo', 'APRJ.PrjName', 'APRJ.ValidFrom', 'APRJ.PrjCode'}</t>
         </is>
       </c>
       <c r="U434" t="n">
@@ -35245,7 +35245,7 @@
       </c>
       <c r="R435" t="inlineStr">
         <is>
-          <t>{'PMG1.START', 'PMG1.DSCRIPTION', 'PMG1.EXPCOSTS'}</t>
+          <t>{'PMG1.START', 'PMG1.EXPCOSTS', 'PMG1.DSCRIPTION'}</t>
         </is>
       </c>
       <c r="S435" t="inlineStr">
@@ -35410,7 +35410,7 @@
       </c>
       <c r="S437" t="inlineStr">
         <is>
-          <t>{'ODAB.AbsEntry', 'ODAB.DashbdCode'}</t>
+          <t>{'ODAB.DashbdCode', 'ODAB.AbsEntry'}</t>
         </is>
       </c>
       <c r="T437" t="inlineStr">
@@ -35475,12 +35475,12 @@
       </c>
       <c r="P438" t="inlineStr">
         <is>
-          <t>{'ODAB', 'DAB1'}</t>
+          <t>{'DAB1', 'ODAB'}</t>
         </is>
       </c>
       <c r="Q438" t="inlineStr">
         <is>
-          <t>{'etc', 'possibly "AC" or "DataSource" or "SubObject"', 'but likely ODAB', 'or ODAB', 'or in ODOX as a field', 'so maybe ODOX', 'likely on ODAB', 'ODOX'}</t>
+          <t>{'possibly "AC" or "DataSource" or "SubObject"', 'or in ODOX as a field', 'or ODAB', 'etc', 'so maybe ODOX', 'likely on ODAB', 'but likely ODAB', 'ODOX'}</t>
         </is>
       </c>
       <c r="R438" t="inlineStr">
@@ -35490,12 +35490,12 @@
       </c>
       <c r="S438" t="inlineStr">
         <is>
-          <t>{'DAB1.DsbEntry', 'ODAB.DashbdName', 'ODAB.AbsEntry', 'DAB1.QryCtgry', 'ODAB.Status', 'ODAB.DashbdPath', 'DAB1.QryName'}</t>
+          <t>{'ODAB.Status', 'ODAB.DashbdName', 'DAB1.QryCtgry', 'DAB1.QryName', 'ODAB.DashbdPath', 'DAB1.DsbEntry', 'ODAB.AbsEntry'}</t>
         </is>
       </c>
       <c r="T438" t="inlineStr">
         <is>
-          <t>{'possibly "AC" or "DataSource" or "SubObject".**Step 3: List the schema links**\n- "Dashboard name" → ODAB', 'ODOX.Object (if Object is a dashboard id)', 'likely on ODAB.AbsEntry', 'etc.)\n- There is no explicit foreign key', 'etc.**Step 2: Find the relationship between dashboards and queries**\n- ODAB is the dashboard table (DashbdName', 'or ODAB.AbsEntry', 'but likely ODAB.AbsEntry', 'ODOX.Object\n- "where the query category is 2" → ODOX', 'or in ODOX as a field.But from the question', 'etc.)\n- ODOX is the query table (QueryId', 'ODOX.Object (or similar)', 'so maybe ODOX.Object or ODOX'}</t>
+          <t>{'etc.**Step 2: Find the relationship between dashboards and queries**\n- ODAB is the dashboard table (DashbdName', 'but likely ODAB.AbsEntry', 'ODOX.Object (or similar)', 'ODOX.Object\n- "where the query category is 2" → ODOX', 'possibly "AC" or "DataSource" or "SubObject".**Step 3: List the schema links**\n- "Dashboard name" → ODAB', 'etc.)\n- There is no explicit foreign key', 'ODOX.Object (if Object is a dashboard id)', 'so maybe ODOX.Object or ODOX', 'likely on ODAB.AbsEntry', 'or in ODOX as a field.But from the question', 'or ODAB.AbsEntry', 'etc.)\n- ODOX is the query table (QueryId'}</t>
         </is>
       </c>
       <c r="U438" t="n">
@@ -35560,7 +35560,7 @@
       </c>
       <c r="Q439" t="inlineStr">
         <is>
-          <t>{'but KPI1 does: KPI1', 'or the question refers to KPI1', 'not per set', "or at least one field is of Type 'P'", 'we need to count the number of KPI1 rows per KPI set', "the only place 'Type' appears is in KPI1", 'so perhaps OKPI', 'Unit\n\nBut "number of fields" is not directly in OKPI', "'P' (but no such column)", "'P' for the fields", "or only counting fields of Type 'P' per set", "'P' (maybe in OKPI", 'OKPI'}</t>
+          <t>{'Unit\n\nBut "number of fields" is not directly in OKPI', "'P' (but no such column)", "or at least one field is of Type 'P'", 'we need to count the number of KPI1 rows per KPI set', "the only place 'Type' appears is in KPI1", 'not per set', 'so perhaps OKPI', "or only counting fields of Type 'P' per set", "'P' (maybe in OKPI", 'or the question refers to KPI1', "'P' for the fields", 'OKPI', 'but KPI1 does: KPI1'}</t>
         </is>
       </c>
       <c r="R439" t="inlineStr">
@@ -35570,12 +35570,12 @@
       </c>
       <c r="S439" t="inlineStr">
         <is>
-          <t>{'OKPS.KpsName', 'OKPS.KpsCode', 'OKPS.FieldsNum', 'OKPS.KpsType'}</t>
+          <t>{'OKPS.KpsName', 'OKPS.FieldsNum', 'OKPS.KpsCode', 'OKPS.KpsType'}</t>
         </is>
       </c>
       <c r="T439" t="inlineStr">
         <is>
-          <t>{'so perhaps OKPI.Type', 'not per set.So', 'Unit\n\nBut "number of fields" is not directly in OKPI.There is also **KPI1**:\n\n- KPI1', 'but KPI1 does: KPI1.Type)\n- But likely', "'P' (but no such column).Alternatively", 'or only counting fields of Type \'P\' per set.But the question says "sets of type P"', "or at least one field is of Type 'P'.But with the given schema", "the only place 'Type' appears is in KPI1.Type", 'OKPI.AbsEntry', 'we need to count the number of KPI1 rows per KPI set.## Step 2: Map question phrases to schema elements\n\n- "code" → OKPI', "'P' (maybe in OKPI.Type or similar)", "'P' for the fields.But in KPI1", 'or the question refers to KPI1.Type'}</t>
+          <t>{"or at least one field is of Type 'P'.But with the given schema", "'P' for the fields.But in KPI1", 'or the question refers to KPI1.Type', 'but KPI1 does: KPI1.Type)\n- But likely', "'P' (maybe in OKPI.Type or similar)", 'or only counting fields of Type \'P\' per set.But the question says "sets of type P"', "'P' (but no such column).Alternatively", 'not per set.So', 'OKPI.AbsEntry', 'we need to count the number of KPI1 rows per KPI set.## Step 2: Map question phrases to schema elements\n\n- "code" → OKPI', "the only place 'Type' appears is in KPI1.Type", 'so perhaps OKPI.Type', 'Unit\n\nBut "number of fields" is not directly in OKPI.There is also **KPI1**:\n\n- KPI1'}</t>
         </is>
       </c>
       <c r="U439" t="n">
@@ -35635,12 +35635,12 @@
       </c>
       <c r="P440" t="inlineStr">
         <is>
-          <t>{'ORSC', 'RSC4'}</t>
+          <t>{'RSC4', 'ORSC'}</t>
         </is>
       </c>
       <c r="Q440" t="inlineStr">
         <is>
-          <t>{'ARSC', 'ARSC4', 'ARSB'}</t>
+          <t>{'ARSC4', 'ARSB', 'ARSC'}</t>
         </is>
       </c>
       <c r="R440" t="inlineStr">
@@ -35650,12 +35650,12 @@
       </c>
       <c r="S440" t="inlineStr">
         <is>
-          <t>{'ORSC.ResName', 'ORSC.StdCost1', 'RSC4.EmpID', 'ORSC.ResCode', 'ORSC.ResGrpCod', 'ORSC.ResType', 'RSC4.ResCode'}</t>
+          <t>{'ORSC.ResType', 'ORSC.StdCost1', 'ORSC.ResGrpCod', 'ORSC.ResName', 'ORSC.ResCode', 'RSC4.ResCode', 'RSC4.EmpID'}</t>
         </is>
       </c>
       <c r="T440" t="inlineStr">
         <is>
-          <t>{'ARSC.ResType', 'ARSB.CostVal1', 'ARSB.ResGrpCod', 'ARSC.ResGrpCod', 'ARSC.ResCode', 'ARSC.ResName', 'ARSC4.ResCode', 'ARSC4.EmpID'}</t>
+          <t>{'ARSB.ResGrpCod', 'ARSC4.EmpID', 'ARSC.ResType', 'ARSC.ResName', 'ARSC.ResGrpCod', 'ARSB.CostVal1', 'ARSC4.ResCode', 'ARSC.ResCode'}</t>
         </is>
       </c>
       <c r="U440" t="n">
@@ -35720,7 +35720,7 @@
       </c>
       <c r="Q441" t="inlineStr">
         <is>
-          <t>{'ARSC', 'ARSC6'}</t>
+          <t>{'ARSC6', 'ARSC'}</t>
         </is>
       </c>
       <c r="R441" t="inlineStr">
@@ -35730,12 +35730,12 @@
       </c>
       <c r="S441" t="inlineStr">
         <is>
-          <t>{'RSC6.ResCode', 'RSC6.WeekDay', 'ORSC.ResCode', 'ORSC.ResName', 'RSC6.CapFactor1'}</t>
+          <t>{'RSC6.ResCode', 'RSC6.WeekDay', 'RSC6.CapFactor1', 'ORSC.ResName', 'ORSC.ResCode'}</t>
         </is>
       </c>
       <c r="T441" t="inlineStr">
         <is>
-          <t>{'ARSC6.ResCode', 'ARSC.ResCode', 'ARSC.ResName', 'ARSC6.WeekDay', 'ARSC6.CapFactor1'}</t>
+          <t>{'ARSC6.ResCode', 'ARSC6.WeekDay', 'ARSC6.CapFactor1', 'ARSC.ResName', 'ARSC.ResCode'}</t>
         </is>
       </c>
       <c r="U441" t="n">
@@ -35795,12 +35795,12 @@
       </c>
       <c r="P442" t="inlineStr">
         <is>
-          <t>{'PMG2', 'OPMG'}</t>
+          <t>{'OPMG', 'PMG2'}</t>
         </is>
       </c>
       <c r="Q442" t="inlineStr">
         <is>
-          <t>{'APRJ', 'OSCL'}</t>
+          <t>{'OSCL', 'APRJ'}</t>
         </is>
       </c>
       <c r="R442" t="inlineStr">
@@ -35810,12 +35810,12 @@
       </c>
       <c r="S442" t="inlineStr">
         <is>
-          <t>{'PMG2.REMARKS', 'OPMG.NAME', 'OPMG.AbsEntry', 'PMG2.AbsEntry', 'PMG2.SOLUTION'}</t>
+          <t>{'OPMG.AbsEntry', 'OPMG.NAME', 'PMG2.SOLUTION', 'PMG2.REMARKS', 'PMG2.AbsEntry'}</t>
         </is>
       </c>
       <c r="T442" t="inlineStr">
         <is>
-          <t>{'OSCL.BPProjCode', 'OSCL.descrption', 'OSCL.resolution', 'APRJ.PrjName', 'OSCL.status', 'APRJ.PrjCode'}</t>
+          <t>{'OSCL.descrption', 'OSCL.status', 'APRJ.PrjName', 'OSCL.resolution', 'APRJ.PrjCode', 'OSCL.BPProjCode'}</t>
         </is>
       </c>
       <c r="U442" t="n">
@@ -35875,12 +35875,12 @@
       </c>
       <c r="P443" t="inlineStr">
         <is>
-          <t>{'OCPT', 'CPT1'}</t>
+          <t>{'CPT1', 'OCPT'}</t>
         </is>
       </c>
       <c r="Q443" t="inlineStr">
         <is>
-          <t>{'UICU', 'UIC5'}</t>
+          <t>{'UIC5', 'UICU'}</t>
         </is>
       </c>
       <c r="R443" t="inlineStr">
@@ -35890,12 +35890,12 @@
       </c>
       <c r="S443" t="inlineStr">
         <is>
-          <t>{'CPT1._Top', 'OCPT._Left', 'OCPT.AbsEntry', 'OCPT._Top', 'CPT1._Bottom', 'CPT1._Left', 'CPT1.AbsEntry', 'OCPT.Name', 'CPT1._Right'}</t>
+          <t>{'CPT1._Left', 'CPT1._Bottom', 'CPT1.AbsEntry', 'OCPT.AbsEntry', 'CPT1._Right', 'OCPT.Name', 'OCPT._Left', 'CPT1._Top', 'OCPT._Top'}</t>
         </is>
       </c>
       <c r="T443" t="inlineStr">
         <is>
-          <t>{'UIC5.Left', 'UICU.TPLName', 'UIC5.TPLId', 'UICU.TPLId', 'UIC5.Right', 'UIC5.Top', 'UIC5.Bottom'}</t>
+          <t>{'UIC5.Left', 'UIC5.Bottom', 'UIC5.Top', 'UICU.TPLId', 'UIC5.TPLId', 'UIC5.Right', 'UICU.TPLName'}</t>
         </is>
       </c>
       <c r="U443" t="n">
@@ -36030,7 +36030,7 @@
       </c>
       <c r="O445" t="inlineStr">
         <is>
-          <t>{'OHEM', 'OHTM'}</t>
+          <t>{'OHTM', 'OHEM'}</t>
         </is>
       </c>
       <c r="P445" t="inlineStr">
@@ -36045,12 +36045,12 @@
       </c>
       <c r="R445" t="inlineStr">
         <is>
-          <t>{'OHTM.teamID', 'OHEM.firstName', 'OHEM.lastName', 'OHTM.name'}</t>
+          <t>{'OHEM.lastName', 'OHTM.teamID', 'OHTM.name', 'OHEM.firstName'}</t>
         </is>
       </c>
       <c r="S445" t="inlineStr">
         <is>
-          <t>{'HTM1.teamID', 'HTM1.empID', 'OHEM.empID'}</t>
+          <t>{'OHEM.empID', 'HTM1.teamID', 'HTM1.empID'}</t>
         </is>
       </c>
       <c r="T445" t="inlineStr">
@@ -36125,7 +36125,7 @@
       </c>
       <c r="R446" t="inlineStr">
         <is>
-          <t>{'HLD1.EndDate', 'HLD1.StrDate', 'HLD1.Rmrks'}</t>
+          <t>{'HLD1.StrDate', 'HLD1.EndDate', 'HLD1.Rmrks'}</t>
         </is>
       </c>
       <c r="S446" t="inlineStr">
@@ -36195,7 +36195,7 @@
       </c>
       <c r="P447" t="inlineStr">
         <is>
-          <t>{'OHTM', 'HTM1'}</t>
+          <t>{'HTM1', 'OHTM'}</t>
         </is>
       </c>
       <c r="Q447" t="inlineStr">
@@ -36210,7 +36210,7 @@
       </c>
       <c r="S447" t="inlineStr">
         <is>
-          <t>{'OHEM.empID', 'HTM1.teamID', 'HTM1.empID', 'OHTM.teamID', 'OHTM.name'}</t>
+          <t>{'OHTM.name', 'HTM1.empID', 'OHEM.empID', 'OHTM.teamID', 'HTM1.teamID'}</t>
         </is>
       </c>
       <c r="T447" t="inlineStr">
@@ -36285,7 +36285,7 @@
       </c>
       <c r="R448" t="inlineStr">
         <is>
-          <t>{'OHEM.pager', 'OHEM.officeTel', 'OHEM.firstName', 'OHEM.mobile', 'OHEM.homeTel', 'OHEM.lastName'}</t>
+          <t>{'OHEM.lastName', 'OHEM.firstName', 'OHEM.pager', 'OHEM.officeTel', 'OHEM.mobile', 'OHEM.homeTel'}</t>
         </is>
       </c>
       <c r="S448" t="inlineStr">
@@ -36365,7 +36365,7 @@
       </c>
       <c r="R449" t="inlineStr">
         <is>
-          <t>{'OHEM.firstName', 'OHEM.lastName', 'OHEM.SurnameSP', 'OHEM.FNameSP'}</t>
+          <t>{'OHEM.lastName', 'OHEM.firstName', 'OHEM.SurnameSP', 'OHEM.FNameSP'}</t>
         </is>
       </c>
       <c r="S449" t="inlineStr">
@@ -36445,7 +36445,7 @@
       </c>
       <c r="R450" t="inlineStr">
         <is>
-          <t>{'OHEM.type', 'OHEM.lastName', 'OHEM.nChildren'}</t>
+          <t>{'OHEM.lastName', 'OHEM.type', 'OHEM.nChildren'}</t>
         </is>
       </c>
       <c r="S450" t="inlineStr">
@@ -36605,7 +36605,7 @@
       </c>
       <c r="R452" t="inlineStr">
         <is>
-          <t>{'OHEM.HeaInsCode', 'OHEM.HeaInsType', 'OHEM.empID', 'OHEM.lastName', 'OHEM.HeaInsName'}</t>
+          <t>{'OHEM.HeaInsCode', 'OHEM.HeaInsName', 'OHEM.lastName', 'OHEM.HeaInsType', 'OHEM.empID'}</t>
         </is>
       </c>
       <c r="S452" t="inlineStr">
@@ -36685,7 +36685,7 @@
       </c>
       <c r="R453" t="inlineStr">
         <is>
-          <t>{'OHEM.JTCode', 'OHEM.lastName'}</t>
+          <t>{'OHEM.lastName', 'OHEM.JTCode'}</t>
         </is>
       </c>
       <c r="S453" t="inlineStr">
@@ -36755,12 +36755,12 @@
       </c>
       <c r="P454" t="inlineStr">
         <is>
-          <t>{'OHTM', 'HTM1'}</t>
+          <t>{'HTM1', 'OHTM'}</t>
         </is>
       </c>
       <c r="Q454" t="inlineStr">
         <is>
-          <t>{"'sales'\n\n(Choose the one that matches your database's actual usage", 'HEM5'}</t>
+          <t>{'HEM5', "'sales'\n\n(Choose the one that matches your database's actual usage"}</t>
         </is>
       </c>
       <c r="R454" t="inlineStr">
@@ -36770,12 +36770,12 @@
       </c>
       <c r="S454" t="inlineStr">
         <is>
-          <t>{'HTM1.teamID', 'OHTM.teamID', 'HTM1.empID', 'OHTM.name'}</t>
+          <t>{'OHTM.teamID', 'OHTM.name', 'HTM1.teamID', 'HTM1.empID'}</t>
         </is>
       </c>
       <c r="T454" t="inlineStr">
         <is>
-          <t>{'HEM5.empID', "'sales'\n\n(Choose the one that matches your database's actual usage.)", 'HEM5.Team'}</t>
+          <t>{"'sales'\n\n(Choose the one that matches your database's actual usage.)", 'HEM5.empID', 'HEM5.Team'}</t>
         </is>
       </c>
       <c r="U454" t="n">
@@ -36850,7 +36850,7 @@
       </c>
       <c r="S455" t="inlineStr">
         <is>
-          <t>{'HTM1.teamID', 'HTM1.empID', 'OHEM.empID'}</t>
+          <t>{'OHEM.empID', 'HTM1.teamID', 'HTM1.empID'}</t>
         </is>
       </c>
       <c r="T455" t="inlineStr">
@@ -36925,7 +36925,7 @@
       </c>
       <c r="R456" t="inlineStr">
         <is>
-          <t>{'OHEM.type', 'OHEM.InTaxLiabi', 'OHEM.MunKey', 'OHEM.TaxClass'}</t>
+          <t>{'OHEM.type', 'OHEM.TaxClass', 'OHEM.MunKey', 'OHEM.InTaxLiabi'}</t>
         </is>
       </c>
       <c r="S456" t="inlineStr">
@@ -36990,7 +36990,7 @@
       </c>
       <c r="O457" t="inlineStr">
         <is>
-          <t>{'OHEM', 'HEM6'}</t>
+          <t>{'HEM6', 'OHEM'}</t>
         </is>
       </c>
       <c r="P457" t="inlineStr">
@@ -37005,7 +37005,7 @@
       </c>
       <c r="R457" t="inlineStr">
         <is>
-          <t>{'HEM6.roleID', 'OHEM.salary', 'HEM6.empID', 'OHEM.empID'}</t>
+          <t>{'HEM6.empID', 'OHEM.salary', 'OHEM.empID', 'HEM6.roleID'}</t>
         </is>
       </c>
       <c r="S457" t="inlineStr">
@@ -37085,7 +37085,7 @@
       </c>
       <c r="R458" t="inlineStr">
         <is>
-          <t>{'OHEM.homeCountr', 'OHEM.birthDate', 'OHEM.brthCountr', 'OHEM.homeCounty', 'OHEM.jobTitle', 'OHEM.homeCity'}</t>
+          <t>{'OHEM.homeCountr', 'OHEM.jobTitle', 'OHEM.brthCountr', 'OHEM.homeCounty', 'OHEM.homeCity', 'OHEM.birthDate'}</t>
         </is>
       </c>
       <c r="S458" t="inlineStr">
@@ -37165,7 +37165,7 @@
       </c>
       <c r="R459" t="inlineStr">
         <is>
-          <t>{'OHEM.citizenshp', 'OHEM.lastName', 'OHEM.passportNo'}</t>
+          <t>{'OHEM.lastName', 'OHEM.passportNo', 'OHEM.citizenshp'}</t>
         </is>
       </c>
       <c r="S459" t="inlineStr">
@@ -37245,7 +37245,7 @@
       </c>
       <c r="R460" t="inlineStr">
         <is>
-          <t>{'OHEM.workCity', 'OHEM.firstName', 'OHEM.emplCost', 'OHEM.lastName', 'OHEM.homeCity'}</t>
+          <t>{'OHEM.emplCost', 'OHEM.lastName', 'OHEM.firstName', 'OHEM.homeCity', 'OHEM.workCity'}</t>
         </is>
       </c>
       <c r="S460" t="inlineStr">
@@ -37315,27 +37315,27 @@
       </c>
       <c r="P461" t="inlineStr">
         <is>
-          <t>{'OHTM', 'HTM1'}</t>
+          <t>{'HTM1', 'OHTM'}</t>
         </is>
       </c>
       <c r="Q461" t="inlineStr">
         <is>
-          <t>{'you could also include the foreign key:**\n- OHEM', 'OSLP', 'the above is sufficient'}</t>
+          <t>{'OSLP', 'the above is sufficient', 'you could also include the foreign key:**\n- OHEM'}</t>
         </is>
       </c>
       <c r="R461" t="inlineStr">
         <is>
-          <t>{'OHEM.officeTel', 'OHEM.workCity', 'OHEM.MunKey', 'OHEM.homeTel', 'OHEM.homeCity'}</t>
+          <t>{'OHEM.MunKey', 'OHEM.homeCity', 'OHEM.officeTel', 'OHEM.workCity', 'OHEM.homeTel'}</t>
         </is>
       </c>
       <c r="S461" t="inlineStr">
         <is>
-          <t>{'OHEM.empID', 'HTM1.teamID', 'HTM1.empID', 'OHTM.teamID', 'OHTM.name'}</t>
+          <t>{'OHTM.name', 'HTM1.empID', 'OHEM.empID', 'OHTM.teamID', 'HTM1.teamID'}</t>
         </is>
       </c>
       <c r="T461" t="inlineStr">
         <is>
-          <t>{'you could also include the foreign key:**\n- OHEM.salesPrson', 'OSLP.SlpCode\n\n**But for the columns requested', 'OHEM.salesPrson\n```\n\n**If you want to be more explicit about the sales team', 'the above is sufficient.**'}</t>
+          <t>{'OSLP.SlpCode\n\n**But for the columns requested', 'the above is sufficient.**', 'OHEM.salesPrson\n```\n\n**If you want to be more explicit about the sales team', 'you could also include the foreign key:**\n- OHEM.salesPrson'}</t>
         </is>
       </c>
       <c r="U461" t="n">
@@ -37395,12 +37395,12 @@
       </c>
       <c r="P462" t="inlineStr">
         <is>
-          <t>{'OHTM', 'HTM1'}</t>
+          <t>{'HTM1', 'OHTM'}</t>
         </is>
       </c>
       <c r="Q462" t="inlineStr">
         <is>
-          <t>{'', 'but likely not relevant)\n\n## Step 5: Cell values\n\n- "purchasing" (for department/team filter)\n\n## Step 6: Schema_links\n\n**Columns:**\n- OHEM', "that's the filter", 'but OHEM', "we'd need to join to that", 'there may be a team table (e', 'HEM2'}</t>
+          <t>{'', "we'd need to join to that", 'there may be a team table (e', 'but likely not relevant)\n\n## Step 5: Cell values\n\n- "purchasing" (for department/team filter)\n\n## Step 6: Schema_links\n\n**Columns:**\n- OHEM', 'HEM2', 'but OHEM', "that's the filter"}</t>
         </is>
       </c>
       <c r="R462" t="inlineStr">
@@ -37410,12 +37410,12 @@
       </c>
       <c r="S462" t="inlineStr">
         <is>
-          <t>{'OHEM.StatusOfE', 'OHEM.empID', 'HTM1.teamID', 'HTM1.empID', 'OHEM.StatusOfP', 'OHEM.StreetNoH', 'OHTM.teamID', 'OHTM.name', 'OHEM.StreetNoW'}</t>
+          <t>{'OHTM.name', 'OHEM.StatusOfP', 'HTM1.empID', 'OHEM.StatusOfE', 'OHEM.empID', 'OHTM.teamID', 'OHEM.StreetNoH', 'HTM1.teamID', 'OHEM.StreetNoW'}</t>
         </is>
       </c>
       <c r="T462" t="inlineStr">
         <is>
-          <t>{'but likely not relevant)\n\n## Step 5: Cell values\n\n- "purchasing" (for department/team filter)\n\n## Step 6: Schema_links\n\n**Columns:**\n- OHEM.status (professional status)\n- HEM2', 'OHEM.StreetNoW (home and work street numbers)\n- OHEM', "that's the filter.- Alternatively", 'but OHEM.dept or OHEM', "we'd need to join to that.## Step 4: Foreign keys\n\n- HEM2", 'there may be a team table (e.g', 'OHEM.empID (education info for employee)\n- HEM1', '.', 'HEM2.diploma (educational statuses)\n- OHEM'}</t>
+          <t>{'but likely not relevant)\n\n## Step 5: Cell values\n\n- "purchasing" (for department/team filter)\n\n## Step 6: Schema_links\n\n**Columns:**\n- OHEM.status (professional status)\n- HEM2', 'OHEM.empID (education info for employee)\n- HEM1', 'OHEM.StreetNoW (home and work street numbers)\n- OHEM', 'HEM2.diploma (educational statuses)\n- OHEM', 'but OHEM.dept or OHEM', "that's the filter.- Alternatively", 'there may be a team table (e.g', '.', "we'd need to join to that.## Step 4: Foreign keys\n\n- HEM2"}</t>
         </is>
       </c>
       <c r="U462" t="n">
@@ -37485,7 +37485,7 @@
       </c>
       <c r="R463" t="inlineStr">
         <is>
-          <t>{'OHEM.PymMeth', 'OHEM.TaxOName', 'OHEM.ExemptCurr', 'OHEM.AddiCurr'}</t>
+          <t>{'OHEM.ExemptCurr', 'OHEM.PymMeth', 'OHEM.TaxOName', 'OHEM.AddiCurr'}</t>
         </is>
       </c>
       <c r="S463" t="inlineStr">
@@ -37565,7 +37565,7 @@
       </c>
       <c r="R464" t="inlineStr">
         <is>
-          <t>{'OHEM.homeStreet', 'OHEM.homeZip', 'OHEM.martStatus', 'OHEM.homeBlock', 'OHEM.homeState', 'OHEM.lastName'}</t>
+          <t>{'OHEM.lastName', 'OHEM.martStatus', 'OHEM.homeZip', 'OHEM.homeStreet', 'OHEM.homeBlock', 'OHEM.homeState'}</t>
         </is>
       </c>
       <c r="S464" t="inlineStr">
@@ -37645,7 +37645,7 @@
       </c>
       <c r="R465" t="inlineStr">
         <is>
-          <t>{'OITM.ItemName', 'OITM.IsCommited', 'OITM.OnOrder', 'OITM.OnHand'}</t>
+          <t>{'OITM.OnOrder', 'OITM.ItemName', 'OITM.IsCommited', 'OITM.OnHand'}</t>
         </is>
       </c>
       <c r="S465" t="inlineStr">
@@ -37725,7 +37725,7 @@
       </c>
       <c r="R466" t="inlineStr">
         <is>
-          <t>{'OITM.ItemName', 'ITM1.ItemCode', 'ITM1.Price', 'OITM.ItemCode'}</t>
+          <t>{'OITM.ItemCode', 'ITM1.ItemCode', 'ITM1.Price', 'OITM.ItemName'}</t>
         </is>
       </c>
       <c r="S466" t="inlineStr">
@@ -37805,17 +37805,17 @@
       </c>
       <c r="R467" t="inlineStr">
         <is>
-          <t>{'OITM.ItemName', 'OITM.LastPurPrc'}</t>
+          <t>{'OITM.LastPurPrc', 'OITM.ItemName'}</t>
         </is>
       </c>
       <c r="S467" t="inlineStr">
         <is>
-          <t>{'ITM2.ItemCode', 'ITM2.VendorCode', 'OITM.ItemCode', 'OITM.Consig'}</t>
+          <t>{'OITM.Consig', 'OITM.ItemCode', 'ITM2.VendorCode', 'ITM2.ItemCode'}</t>
         </is>
       </c>
       <c r="T467" t="inlineStr">
         <is>
-          <t>{'OITM.PrefVendor', 'OITM.SuppCatNum'}</t>
+          <t>{'OITM.SuppCatNum', 'OITM.PrefVendor'}</t>
         </is>
       </c>
       <c r="U467" t="n">
@@ -37880,12 +37880,12 @@
       </c>
       <c r="Q468" t="inlineStr">
         <is>
-          <t>{'OPKG', 'Volume are the required dimensions', '24\n\n---\n\n**Explanation:**  \n- OITM'}</t>
+          <t>{'24\n\n---\n\n**Explanation:**  \n- OITM', 'Volume are the required dimensions', 'OPKG'}</t>
         </is>
       </c>
       <c r="R468" t="inlineStr">
         <is>
-          <t>{'ITM4.Volume', 'ITM4.Length1', 'ITM4.ItemCode', 'ITM4.QtyPerPack', 'OITM.ItemName', 'OITM.ItemCode', 'ITM4.Height1', 'ITM4.Width1'}</t>
+          <t>{'ITM4.Volume', 'ITM4.Length1', 'ITM4.Height1', 'ITM4.Width1', 'ITM4.QtyPerPack', 'OITM.ItemName', 'OITM.ItemCode', 'ITM4.ItemCode'}</t>
         </is>
       </c>
       <c r="S468" t="inlineStr">
@@ -37895,7 +37895,7 @@
       </c>
       <c r="T468" t="inlineStr">
         <is>
-          <t>{'OPKG.PkgCode', '24\n\n---\n\n**Explanation:**  \n- OITM.ItemName is used to filter the item', 'OITM.ItemCode links the item to its packaging info', "Volume are the required dimensions.- The cell values 'Printer Paper A4 White' and 24 are used for filtering", 'ITM4.PkgCode'}</t>
+          <t>{"Volume are the required dimensions.- The cell values 'Printer Paper A4 White' and 24 are used for filtering", 'ITM4.PkgCode', 'OPKG.PkgCode', 'OITM.ItemCode links the item to its packaging info', '24\n\n---\n\n**Explanation:**  \n- OITM.ItemName is used to filter the item'}</t>
         </is>
       </c>
       <c r="U468" t="n">
@@ -37965,7 +37965,7 @@
       </c>
       <c r="R469" t="inlineStr">
         <is>
-          <t>{'ITM7.RemainLife', 'ITM7.UsefulLife', 'ITM7.DprArea', 'ITM7.RemainDays'}</t>
+          <t>{'ITM7.DprArea', 'ITM7.UsefulLife', 'ITM7.RemainLife', 'ITM7.RemainDays'}</t>
         </is>
       </c>
       <c r="S469" t="inlineStr">
@@ -38125,7 +38125,7 @@
       </c>
       <c r="R471" t="inlineStr">
         <is>
-          <t>{'OBCD.ItemCode', 'OBCD.UomEntry', 'OITM.ItemName', 'OBCD.BcdCode', 'OITM.ItemCode'}</t>
+          <t>{'OBCD.ItemCode', 'OBCD.BcdCode', 'OITM.ItemName', 'OBCD.UomEntry', 'OITM.ItemCode'}</t>
         </is>
       </c>
       <c r="S471" t="inlineStr">
@@ -38205,7 +38205,7 @@
       </c>
       <c r="R472" t="inlineStr">
         <is>
-          <t>{'OBFC.DispName', 'OBFC.DataSource', 'OBFC.Activated', 'OBFC.UpdateDate'}</t>
+          <t>{'OBFC.Activated', 'OBFC.DispName', 'OBFC.DataSource', 'OBFC.UpdateDate'}</t>
         </is>
       </c>
       <c r="S472" t="inlineStr">
@@ -38270,7 +38270,7 @@
       </c>
       <c r="O473" t="inlineStr">
         <is>
-          <t>{'OITB', 'OITM'}</t>
+          <t>{'OITM', 'OITB'}</t>
         </is>
       </c>
       <c r="P473" t="inlineStr">
@@ -38285,7 +38285,7 @@
       </c>
       <c r="R473" t="inlineStr">
         <is>
-          <t>{'OITB.ItmsGrpNam', 'OITM.ItmsGrpCod', 'OITB.ItmsGrpCod'}</t>
+          <t>{'OITB.ItmsGrpCod', 'OITB.ItmsGrpNam', 'OITM.ItmsGrpCod'}</t>
         </is>
       </c>
       <c r="S473" t="inlineStr">
@@ -38295,7 +38295,7 @@
       </c>
       <c r="T473" t="inlineStr">
         <is>
-          <t>{'OITB.ItmsGrpCod\n```\n\n**(You may also include COUNT(OITM', 'OITM.ItemCode'}</t>
+          <t>{'OITM.ItemCode', 'OITB.ItmsGrpCod\n```\n\n**(You may also include COUNT(OITM'}</t>
         </is>
       </c>
       <c r="U473" t="n">
@@ -38350,7 +38350,7 @@
       </c>
       <c r="O474" t="inlineStr">
         <is>
-          <t>{'OITB', 'OITM'}</t>
+          <t>{'OITM', 'OITB'}</t>
         </is>
       </c>
       <c r="P474" t="inlineStr">
@@ -38365,12 +38365,12 @@
       </c>
       <c r="R474" t="inlineStr">
         <is>
-          <t>{'OITM.ItmsGrpCod', 'OITB.ItmsGrpNam', 'OITB.ItmsGrpCod'}</t>
+          <t>{'OITB.ItmsGrpCod', 'OITB.ItmsGrpNam', 'OITM.ItmsGrpCod'}</t>
         </is>
       </c>
       <c r="S474" t="inlineStr">
         <is>
-          <t>{'ITM4.Volume', 'ITM4.ItemCode', 'OITM.ItemCode'}</t>
+          <t>{'ITM4.ItemCode', 'ITM4.Volume', 'OITM.ItemCode'}</t>
         </is>
       </c>
       <c r="T474" t="inlineStr">
@@ -38450,7 +38450,7 @@
       </c>
       <c r="S475" t="inlineStr">
         <is>
-          <t>{'ECM1.Code', 'ECM1.ParamPrms', 'OECM.Descr', 'OECM.Code', 'ECM1.ParamName'}</t>
+          <t>{'OECM.Descr', 'ECM1.Code', 'ECM1.ParamName', 'OECM.Code', 'ECM1.ParamPrms'}</t>
         </is>
       </c>
       <c r="T475" t="inlineStr">
@@ -38525,12 +38525,12 @@
       </c>
       <c r="R476" t="inlineStr">
         <is>
-          <t>{'ECM4.ObjXPath', 'ECM4.Code', 'ECM4.FieldXPath'}</t>
+          <t>{'ECM4.ObjXPath', 'ECM4.FieldXPath', 'ECM4.Code'}</t>
         </is>
       </c>
       <c r="S476" t="inlineStr">
         <is>
-          <t>{'OECM.Descr', 'OECM.Code'}</t>
+          <t>{'OECM.Code', 'OECM.Descr'}</t>
         </is>
       </c>
       <c r="T476" t="inlineStr">
@@ -38685,7 +38685,7 @@
       </c>
       <c r="R478" t="inlineStr">
         <is>
-          <t>{'OQAG.LogInstanc', 'OQAG.AUTHGRPCD', 'OQAG.CreateDate', 'OQAG.UpdateDate', 'OQAG.AUTHGRPN'}</t>
+          <t>{'OQAG.AUTHGRPCD', 'OQAG.UpdateDate', 'OQAG.AUTHGRPN', 'OQAG.CreateDate', 'OQAG.LogInstanc'}</t>
         </is>
       </c>
       <c r="S478" t="inlineStr">
@@ -38850,7 +38850,7 @@
       </c>
       <c r="S480" t="inlineStr">
         <is>
-          <t>{'RDOC.EmailFont', 'RDOC.TypeCode', 'RDOC.ScreenFont'}</t>
+          <t>{'RDOC.ScreenFont', 'RDOC.TypeCode', 'RDOC.EmailFont'}</t>
         </is>
       </c>
       <c r="T480" t="inlineStr">
@@ -38930,12 +38930,12 @@
       </c>
       <c r="S481" t="inlineStr">
         <is>
-          <t>{'RTYP.DEFLT_REP', 'RTYP.CODE', 'RTYP.NAME', 'RDOC.DocCode'}</t>
+          <t>{'RTYP.DEFLT_REP', 'RDOC.DocCode', 'RTYP.NAME', 'RTYP.CODE'}</t>
         </is>
       </c>
       <c r="T481" t="inlineStr">
         <is>
-          <t>{'OEDT.TypeName', 'OEDT.TypeCode'}</t>
+          <t>{'OEDT.TypeCode', 'OEDT.TypeName'}</t>
         </is>
       </c>
       <c r="U481" t="n">
@@ -38990,7 +38990,7 @@
       </c>
       <c r="O482" t="inlineStr">
         <is>
-          <t>{'RDOC', 'RITM'}</t>
+          <t>{'RITM', 'RDOC'}</t>
         </is>
       </c>
       <c r="P482" t="inlineStr">
@@ -39005,7 +39005,7 @@
       </c>
       <c r="R482" t="inlineStr">
         <is>
-          <t>{'RDOC.DocCode', 'RDOC.DocName', 'RITM.DocCode'}</t>
+          <t>{'RDOC.DocCode', 'RITM.DocCode', 'RDOC.DocName'}</t>
         </is>
       </c>
       <c r="S482" t="inlineStr">
@@ -39085,7 +39085,7 @@
       </c>
       <c r="R483" t="inlineStr">
         <is>
-          <t>{'RDOC.ExtOnErr', 'RDOC.SwpInEmail', 'RDOC.NumRepArs'}</t>
+          <t>{'RDOC.ExtOnErr', 'RDOC.NumRepArs', 'RDOC.SwpInEmail'}</t>
         </is>
       </c>
       <c r="S483" t="inlineStr">
@@ -39165,12 +39165,12 @@
       </c>
       <c r="R484" t="inlineStr">
         <is>
-          <t>{'RITM.BrdrGreen', 'RITM.Height', 'RITM.BGGreen', 'RITM.BGRed', 'RITM.BGBlue', 'RITM.BrdrBlue', 'RITM.FGRed', 'RITM.FGGreen', 'RITM.FGBlue', 'RITM.BrdrRed'}</t>
+          <t>{'RITM.FGGreen', 'RITM.BGRed', 'RITM.BGGreen', 'RITM.FGBlue', 'RITM.Height', 'RITM.BGBlue', 'RITM.FGRed', 'RITM.BrdrRed', 'RITM.BrdrGreen', 'RITM.BrdrBlue'}</t>
         </is>
       </c>
       <c r="S484" t="inlineStr">
         <is>
-          <t>{'RITM.MrkrRed', 'RITM.MrkrBlue', 'RITM.MrkrGreen'}</t>
+          <t>{'RITM.MrkrBlue', 'RITM.MrkrGreen', 'RITM.MrkrRed'}</t>
         </is>
       </c>
       <c r="T484" t="inlineStr">
@@ -39245,7 +39245,7 @@
       </c>
       <c r="R485" t="inlineStr">
         <is>
-          <t>{'OOPR.MaxSumLoc', 'OOPR.CardGroup'}</t>
+          <t>{'OOPR.CardGroup', 'OOPR.MaxSumLoc'}</t>
         </is>
       </c>
       <c r="S485" t="inlineStr">
@@ -39255,7 +39255,7 @@
       </c>
       <c r="T485" t="inlineStr">
         <is>
-          <t>{'OCRG.GroupName', 'OCRG.GroupCode'}</t>
+          <t>{'OCRG.GroupCode', 'OCRG.GroupName'}</t>
         </is>
       </c>
       <c r="U485" t="n">
@@ -39335,7 +39335,7 @@
       </c>
       <c r="T486" t="inlineStr">
         <is>
-          <t>{'OOPR.GrosProfFC', 'OOPR.GrosProfit'}</t>
+          <t>{'OOPR.GrosProfit', 'OOPR.GrosProfFC'}</t>
         </is>
       </c>
       <c r="U486" t="n">
@@ -39405,7 +39405,7 @@
       </c>
       <c r="R487" t="inlineStr">
         <is>
-          <t>{'OPR1.OpprId', 'OOPR.OpprId', 'OOPR.CardCode'}</t>
+          <t>{'OPR1.OpprId', 'OOPR.CardCode', 'OOPR.OpprId'}</t>
         </is>
       </c>
       <c r="S487" t="inlineStr">
@@ -39575,7 +39575,7 @@
       </c>
       <c r="T489" t="inlineStr">
         <is>
-          <t>{'OOCR.Active', 'OOCR.OcrTotal', 'OOCR.OcrName', 'OOCR.OcrCode', 'OOCR.ValidTo', 'OOCR.ValidFrom', 'OOCR.DimCode'}</t>
+          <t>{'OOCR.ValidTo', 'OOCR.Active', 'OOCR.OcrCode', 'OOCR.OcrTotal', 'OOCR.OcrName', 'OOCR.ValidFrom', 'OOCR.DimCode'}</t>
         </is>
       </c>
       <c r="U489" t="n">
@@ -39640,12 +39640,12 @@
       </c>
       <c r="Q490" t="inlineStr">
         <is>
-          <t>{'SUM(OOPR', 'OCRD', 'AVG(OOPR'}</t>
+          <t>{'SUM(OOPR', 'AVG(OOPR', 'OCRD'}</t>
         </is>
       </c>
       <c r="R490" t="inlineStr">
         <is>
-          <t>{'OOPR.RealSumSys', 'OOPR.RealProfS', 'OOPR.CardName', 'OOPR.RealProfL', 'OOPR.RealSumLoc'}</t>
+          <t>{'OOPR.CardName', 'OOPR.RealProfS', 'OOPR.RealProfL', 'OOPR.RealSumLoc', 'OOPR.RealSumSys'}</t>
         </is>
       </c>
       <c r="S490" t="inlineStr">
@@ -39655,7 +39655,7 @@
       </c>
       <c r="T490" t="inlineStr">
         <is>
-          <t>{'SUM(OOPR.RealProfS)', 'OCRD.CardCode (optional', 'SUM(OOPR.RealSumSys)', 'AVG(OOPR.CloPrcnt)\n```\n\n**Foreign_keys:**  \n- OOPR', 'SUM(OOPR.RealProfL)', 'OOPR.CloPrcnt\n```\n\n**If you want to be explicit about the aggregation and grouping:**\n```\nOOPR', 'OOPR.CardCode', 'SUM(OOPR.RealSumLoc)'}</t>
+          <t>{'SUM(OOPR.RealSumLoc)', 'SUM(OOPR.RealSumSys)', 'SUM(OOPR.RealProfL)', 'SUM(OOPR.RealProfS)', 'AVG(OOPR.CloPrcnt)\n```\n\n**Foreign_keys:**  \n- OOPR', 'OOPR.CloPrcnt\n```\n\n**If you want to be explicit about the aggregation and grouping:**\n```\nOOPR', 'OOPR.CardCode', 'OCRD.CardCode (optional'}</t>
         </is>
       </c>
       <c r="U490" t="n">
@@ -39895,7 +39895,7 @@
       </c>
       <c r="T493" t="inlineStr">
         <is>
-          <t>{'ODIM.DimName', 'ODIM.DimCode'}</t>
+          <t>{'ODIM.DimCode', 'ODIM.DimName'}</t>
         </is>
       </c>
       <c r="U493" t="n">
@@ -40200,7 +40200,7 @@
       </c>
       <c r="Q497" t="inlineStr">
         <is>
-          <t>{'OCRD', 'OSRL'}</t>
+          <t>{'OSRL', 'OCRD'}</t>
         </is>
       </c>
       <c r="R497" t="inlineStr">
@@ -40215,7 +40215,7 @@
       </c>
       <c r="T497" t="inlineStr">
         <is>
-          <t>{'OSRL.CardCode', 'OCRD.Country', 'OCRD.CardCode', 'OSRL.*', 'OCRD.State'}</t>
+          <t>{'OCRD.CardCode', 'OSRL.CardCode', 'OSRL.*', 'OCRD.Country', 'OCRD.State'}</t>
         </is>
       </c>
       <c r="U497" t="n">
@@ -40365,7 +40365,7 @@
       </c>
       <c r="R499" t="inlineStr">
         <is>
-          <t>{'OQUE.email', 'OQUE.descript', 'OQUE.manager'}</t>
+          <t>{'OQUE.descript', 'OQUE.email', 'OQUE.manager'}</t>
         </is>
       </c>
       <c r="S499" t="inlineStr">
@@ -40445,7 +40445,7 @@
       </c>
       <c r="R500" t="inlineStr">
         <is>
-          <t>{'OSCL.custmrName', 'OSCL.priority', 'OSCL.customer'}</t>
+          <t>{'OSCL.priority', 'OSCL.custmrName', 'OSCL.customer'}</t>
         </is>
       </c>
       <c r="S500" t="inlineStr">
@@ -40530,7 +40530,7 @@
       </c>
       <c r="S501" t="inlineStr">
         <is>
-          <t>{'OSCL.resolOnDat', 'OSCL.AssignDate', 'OSCL.respOnDate', 'OSCO.Name', 'OSCO.originID'}</t>
+          <t>{'OSCL.resolOnDat', 'OSCO.Name', 'OSCO.originID', 'OSCL.respOnDate', 'OSCL.AssignDate'}</t>
         </is>
       </c>
       <c r="T501" t="inlineStr">
@@ -40600,7 +40600,7 @@
       </c>
       <c r="Q502" t="inlineStr">
         <is>
-          <t>{'OCRD', 'CRD1'}</t>
+          <t>{'CRD1', 'OCRD'}</t>
         </is>
       </c>
       <c r="R502" t="inlineStr">
@@ -40610,12 +40610,12 @@
       </c>
       <c r="S502" t="inlineStr">
         <is>
-          <t>{'OSCL.custmrName', 'OSCL.BPShipAddr', 'OSCL.BPBillAddr', 'OSCL.BPE_Mail'}</t>
+          <t>{'OSCL.BPBillAddr', 'OSCL.BPShipAddr', 'OSCL.custmrName', 'OSCL.BPE_Mail'}</t>
         </is>
       </c>
       <c r="T502" t="inlineStr">
         <is>
-          <t>{'CRD1.CardCode', 'CRD1.AdresType', 'CRD1.Street', 'OCRD.CardCode', 'OCRD.CardName', 'CRD1.ZipCode', 'CRD1.City', 'OCRD.E_Mail', 'CRD1.Block'}</t>
+          <t>{'CRD1.Block', 'OCRD.CardCode', 'CRD1.CardCode', 'CRD1.ZipCode', 'CRD1.City', 'CRD1.Street', 'CRD1.AdresType', 'OCRD.CardName', 'OCRD.E_Mail'}</t>
         </is>
       </c>
       <c r="U502" t="n">
@@ -40670,7 +40670,7 @@
       </c>
       <c r="O503" t="inlineStr">
         <is>
-          <t>{'OCTR', 'OSCL'}</t>
+          <t>{'OSCL', 'OCTR'}</t>
         </is>
       </c>
       <c r="P503" t="inlineStr">
@@ -40690,12 +40690,12 @@
       </c>
       <c r="S503" t="inlineStr">
         <is>
-          <t>{'OCTR.CstmrCode', 'OSCL.customer', 'OCTR.CstmrName'}</t>
+          <t>{'OCTR.CstmrName', 'OSCL.customer', 'OCTR.CstmrCode'}</t>
         </is>
       </c>
       <c r="T503" t="inlineStr">
         <is>
-          <t>{'OSCL.custmrName', 'OSCL.contractID', 'OCTR.ContractID', 'OCTR.CntrcTmplt'}</t>
+          <t>{'OCTR.ContractID', 'OSCL.custmrName', 'OSCL.contractID', 'OCTR.CntrcTmplt'}</t>
         </is>
       </c>
       <c r="U503" t="n">
@@ -40770,12 +40770,12 @@
       </c>
       <c r="S504" t="inlineStr">
         <is>
-          <t>{'OINS.custmrName', 'OINS.itemCode', 'OINS.internalSN'}</t>
+          <t>{'OINS.internalSN', 'OINS.custmrName', 'OINS.itemCode'}</t>
         </is>
       </c>
       <c r="T504" t="inlineStr">
         <is>
-          <t>{'CTR1.ContractID', 'ACTR.CstmrName', 'CTR1.InternalSN', 'ACTR.ContractID', 'CTR1.ItemCode'}</t>
+          <t>{'ACTR.CstmrName', 'CTR1.ItemCode', 'CTR1.ContractID', 'ACTR.ContractID', 'CTR1.InternalSN'}</t>
         </is>
       </c>
       <c r="U504" t="n">
